--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="204">
   <si>
     <t>Conference name</t>
   </si>
@@ -59,18 +59,36 @@
     <t>Soft penalty per missing preferred tag in a talk's timeslot</t>
   </si>
   <si>
+    <t>Speaker undesired timeslot tag</t>
+  </si>
+  <si>
+    <t>Soft penalty per undesired tag in a talk's timeslot</t>
+  </si>
+  <si>
     <t>Talk preferred timeslot tag</t>
   </si>
   <si>
+    <t>Talk undesired timeslot tag</t>
+  </si>
+  <si>
     <t>Speaker preferred room tag</t>
   </si>
   <si>
     <t>Soft penalty per missing preferred tag in a talk's room</t>
   </si>
   <si>
+    <t>Speaker undesired room tag</t>
+  </si>
+  <si>
+    <t>Soft penalty per undesired tag in a talk's room</t>
+  </si>
+  <si>
     <t>Talk preferred room tag</t>
   </si>
   <si>
+    <t>Talk undesired room tag</t>
+  </si>
+  <si>
     <t>Day</t>
   </si>
   <si>
@@ -185,10 +203,22 @@
     <t>Preferred timeslot tags</t>
   </si>
   <si>
+    <t>Prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Undesired timeslot tags</t>
+  </si>
+  <si>
     <t>Required room tags</t>
   </si>
   <si>
     <t>Preferred room tags</t>
+  </si>
+  <si>
+    <t>Prohibited room tags</t>
+  </si>
+  <si>
+    <t>Undesired room tags</t>
   </si>
   <si>
     <t>Amy Cole</t>
@@ -674,9 +704,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.85546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="70.88671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.8671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.69921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="81.296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -751,18 +781,18 @@
         <v>10.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>10.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -773,7 +803,51 @@
         <v>10.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -792,232 +866,232 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.41796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.1484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.14453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.3984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.32421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.78515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
       <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1036,328 +1110,328 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.6328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.3125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1380,1407 +1454,1723 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.69921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.09765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.07421875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="19.47265625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.9453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.85546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.30859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.0234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="21.671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="22.20703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="23.125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="22.84375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
       </c>
       <c r="O11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q12" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q13" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q14" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q15" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q16" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q17" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q18" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q19" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q20" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q21" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R21" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="P22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q22" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="L23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q24" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R24" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q25" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R25" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q26" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="R26" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:U1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2797,1872 +3187,2320 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.41796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="20.3046875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="16.515625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.7109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="22.85546875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="21.69921875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="22.09765625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="19.07421875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.47265625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="14.578125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="15.99609375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.20703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.78515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.8203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.30859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.3046875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.015625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="24.85546875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="25.390625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="26.30859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="26.0234375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="21.671875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="22.20703125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="23.125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="22.84375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="16.65234375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="16.14453125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="6.3984375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="6.32421875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="b">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="b">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="b">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="b">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s">
-        <v>26</v>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="b">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="b">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
         <v>103</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
         <v>104</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="b">
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="b">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" t="s">
-        <v>26</v>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="b">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="b">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" t="s">
-        <v>26</v>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="b">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="b">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" t="s">
-        <v>26</v>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="b">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" t="b">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" t="s">
-        <v>26</v>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="b">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="b">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" t="s">
-        <v>26</v>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="b">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="b">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" t="s">
-        <v>26</v>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="b">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="b">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" t="s">
-        <v>26</v>
+      <c r="Q11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s">
         <v>125</v>
       </c>
-      <c r="B12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" t="s">
-        <v>115</v>
-      </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" t="b">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="b">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" t="s">
-        <v>26</v>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="b">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="b">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" t="s">
-        <v>26</v>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" t="b">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="b">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" t="s">
-        <v>26</v>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
         <v>133</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>123</v>
-      </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="b">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" t="s">
-        <v>26</v>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" t="b">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="b">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" t="s">
-        <v>26</v>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="b">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="b">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" t="s">
-        <v>26</v>
-      </c>
-      <c r="O17" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" t="s">
-        <v>26</v>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
         <v>141</v>
       </c>
-      <c r="B18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>131</v>
-      </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="b">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" t="b">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" t="s">
-        <v>26</v>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" t="b">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" t="b">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" t="s">
-        <v>26</v>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" t="b">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" t="b">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" t="s">
-        <v>26</v>
+      <c r="Q20" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" t="b">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" t="b">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" t="s">
-        <v>26</v>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" t="b">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" t="b">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" t="s">
-        <v>26</v>
-      </c>
-      <c r="P22" t="s">
-        <v>26</v>
+      <c r="Q22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K23" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" t="b">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" t="b">
         <v>0</v>
       </c>
-      <c r="M23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" t="s">
-        <v>26</v>
-      </c>
-      <c r="O23" t="s">
-        <v>26</v>
-      </c>
-      <c r="P23" t="s">
-        <v>26</v>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" t="b">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" t="b">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" t="s">
-        <v>26</v>
-      </c>
-      <c r="O24" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" t="s">
-        <v>26</v>
+      <c r="Q24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
         <v>28</v>
       </c>
-      <c r="D25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" t="s">
-        <v>23</v>
-      </c>
-      <c r="O25" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" t="s">
-        <v>44</v>
+      <c r="R25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" t="b">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" t="b">
         <v>0</v>
       </c>
-      <c r="M26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" t="s">
-        <v>26</v>
-      </c>
-      <c r="O26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P26" t="s">
-        <v>26</v>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J27" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" t="b">
+        <v>32</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" t="b">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" t="s">
-        <v>26</v>
-      </c>
-      <c r="P27" t="s">
-        <v>26</v>
+      <c r="Q27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" t="b">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" t="b">
         <v>0</v>
       </c>
-      <c r="M28" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" t="s">
-        <v>26</v>
-      </c>
-      <c r="O28" t="s">
-        <v>26</v>
-      </c>
-      <c r="P28" t="s">
-        <v>26</v>
+      <c r="Q28" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" t="s">
+        <v>32</v>
+      </c>
+      <c r="S28" t="s">
+        <v>32</v>
+      </c>
+      <c r="T28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J29" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" t="b">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" t="b">
         <v>0</v>
       </c>
-      <c r="M29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" t="s">
-        <v>26</v>
-      </c>
-      <c r="O29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" t="s">
-        <v>26</v>
+      <c r="Q29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J30" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K30" t="s">
-        <v>26</v>
-      </c>
-      <c r="L30" t="b">
+        <v>32</v>
+      </c>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" t="b">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" t="s">
-        <v>26</v>
-      </c>
-      <c r="O30" t="s">
-        <v>26</v>
-      </c>
-      <c r="P30" t="s">
-        <v>26</v>
+      <c r="Q30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G31" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" t="b">
+        <v>32</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" t="b">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" t="s">
-        <v>26</v>
-      </c>
-      <c r="O31" t="s">
-        <v>26</v>
-      </c>
-      <c r="P31" t="s">
-        <v>26</v>
+      <c r="Q31" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" t="s">
+        <v>32</v>
+      </c>
+      <c r="S31" t="s">
+        <v>32</v>
+      </c>
+      <c r="T31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J32" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K32" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" t="b">
+        <v>32</v>
+      </c>
+      <c r="L32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" t="b">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" t="s">
-        <v>26</v>
-      </c>
-      <c r="O32" t="s">
-        <v>26</v>
-      </c>
-      <c r="P32" t="s">
-        <v>26</v>
+      <c r="Q32" t="s">
+        <v>32</v>
+      </c>
+      <c r="R32" t="s">
+        <v>32</v>
+      </c>
+      <c r="S32" t="s">
+        <v>32</v>
+      </c>
+      <c r="T32" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L33" t="b">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" t="b">
         <v>0</v>
       </c>
-      <c r="M33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" t="s">
-        <v>26</v>
-      </c>
-      <c r="O33" t="s">
-        <v>26</v>
-      </c>
-      <c r="P33" t="s">
-        <v>26</v>
+      <c r="Q33" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" t="s">
+        <v>32</v>
+      </c>
+      <c r="S33" t="s">
+        <v>32</v>
+      </c>
+      <c r="T33" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J34" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" t="b">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" t="b">
         <v>0</v>
       </c>
-      <c r="M34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" t="s">
-        <v>26</v>
-      </c>
-      <c r="O34" t="s">
-        <v>26</v>
-      </c>
-      <c r="P34" t="s">
-        <v>26</v>
+      <c r="Q34" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T34" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H35" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I35" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J35" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K35" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35" t="b">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" t="b">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" t="s">
-        <v>26</v>
-      </c>
-      <c r="O35" t="s">
-        <v>26</v>
-      </c>
-      <c r="P35" t="s">
-        <v>26</v>
+      <c r="Q35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T35" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G36" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K36" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" t="b">
+        <v>32</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" t="b">
         <v>0</v>
       </c>
-      <c r="M36" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" t="s">
-        <v>26</v>
-      </c>
-      <c r="O36" t="s">
-        <v>26</v>
-      </c>
-      <c r="P36" t="s">
-        <v>26</v>
+      <c r="Q36" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" t="s">
+        <v>32</v>
+      </c>
+      <c r="T36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I37" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J37" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K37" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" t="b">
+        <v>32</v>
+      </c>
+      <c r="L37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" t="b">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O37" t="s">
-        <v>26</v>
-      </c>
-      <c r="P37" t="s">
-        <v>26</v>
+      <c r="Q37" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4681,142 +5519,142 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.71875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4840,101 +5678,101 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -13,12 +13,13 @@
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
     <sheet name="Theme view" r:id="rId8" sheetId="6"/>
     <sheet name="Sector view" r:id="rId9" sheetId="7"/>
+    <sheet name="Speaker view" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="231">
   <si>
     <t>Conference name</t>
   </si>
@@ -176,460 +177,541 @@
     <t>Large, Recorded</t>
   </si>
   <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>R 2</t>
+  </si>
+  <si>
+    <t>R 3</t>
+  </si>
+  <si>
+    <t>Recorded</t>
+  </si>
+  <si>
+    <t>R 4</t>
+  </si>
+  <si>
+    <t>R 5</t>
+  </si>
+  <si>
+    <t>Lab_room, Large, Recorded</t>
+  </si>
+  <si>
+    <t>Required timeslot tags</t>
+  </si>
+  <si>
+    <t>Preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Required room tags</t>
+  </si>
+  <si>
+    <t>Preferred room tags</t>
+  </si>
+  <si>
+    <t>Prohibited room tags</t>
+  </si>
+  <si>
+    <t>Undesired room tags</t>
+  </si>
+  <si>
+    <t>Amy Cole</t>
+  </si>
+  <si>
+    <t>Beth Fox</t>
+  </si>
+  <si>
+    <t>Chad Green</t>
+  </si>
+  <si>
+    <t>Dan Jones</t>
+  </si>
+  <si>
+    <t>Elsa King</t>
+  </si>
+  <si>
+    <t>Flo Li</t>
+  </si>
+  <si>
+    <t>Gus Poe</t>
+  </si>
+  <si>
+    <t>Hugo Rye</t>
+  </si>
+  <si>
+    <t>Ivy Smith</t>
+  </si>
+  <si>
+    <t>Jay Watt</t>
+  </si>
+  <si>
+    <t>Amy Fox</t>
+  </si>
+  <si>
+    <t>Beth Green</t>
+  </si>
+  <si>
+    <t>Chad Jones</t>
+  </si>
+  <si>
+    <t>Dan King</t>
+  </si>
+  <si>
+    <t>Elsa Li</t>
+  </si>
+  <si>
+    <t>Flo Poe</t>
+  </si>
+  <si>
+    <t>Gus Rye</t>
+  </si>
+  <si>
+    <t>Hugo Smith</t>
+  </si>
+  <si>
+    <t>Ivy Watt</t>
+  </si>
+  <si>
+    <t>Jay Cole</t>
+  </si>
+  <si>
+    <t>Amy Green</t>
+  </si>
+  <si>
+    <t>Beth Jones</t>
+  </si>
+  <si>
+    <t>Chad King</t>
+  </si>
+  <si>
+    <t>Dan Li</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Theme tags</t>
+  </si>
+  <si>
+    <t>Sector tags</t>
+  </si>
+  <si>
+    <t>Audience level</t>
+  </si>
+  <si>
+    <t>Content tags</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Pinned by user</t>
+  </si>
+  <si>
+    <t>Timeslot day</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>S00</t>
+  </si>
+  <si>
+    <t>Hands on real-time OpenShift</t>
+  </si>
+  <si>
+    <t>Amy Cole, Beth Fox</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>OpenShift</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Lab_room</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>Advanced containerized WildFly</t>
+  </si>
+  <si>
+    <t>Modern Web</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t>Dan Jones, Elsa King</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t>Flo Li, Gus Poe</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Financial services</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t>OptaPlanner</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Camel</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>Building deep learning XStream</t>
+  </si>
+  <si>
+    <t>XStream</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>Securing scalable Docker</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>Debug enterprise Hibernate</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT</t>
+  </si>
+  <si>
+    <t>Middleware, Cloud</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Understand mobile Errai</t>
+  </si>
+  <si>
+    <t>Cloud, Modern Web</t>
+  </si>
+  <si>
+    <t>Errai</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Applying modern Angular</t>
+  </si>
+  <si>
+    <t>Culture, Mobile</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>Grok distributed Weld</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable RestEasy</t>
+  </si>
+  <si>
+    <t>RestEasy</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Using secure Android</t>
+  </si>
+  <si>
+    <t>Ivy Watt, Jay Cole</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Deliver stable Tensorflow</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Implement platform-independent VertX</t>
+  </si>
+  <si>
+    <t>Beth Jones, Chad King</t>
+  </si>
+  <si>
+    <t>VertX</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>Program flexible JUnit</t>
+  </si>
+  <si>
+    <t>Security, Middleware</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>JUnit</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>Hack modularized Keycloak</t>
+  </si>
+  <si>
+    <t>Keycloak</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>Hands on real-time WildFly</t>
+  </si>
+  <si>
+    <t>Beth Fox, Chad Green</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Advanced containerized Spring</t>
+  </si>
+  <si>
+    <t>Learn virtualized Drools</t>
+  </si>
+  <si>
     <t>S23</t>
   </si>
   <si>
-    <t>R 2</t>
-  </si>
-  <si>
-    <t>R 3</t>
-  </si>
-  <si>
-    <t>Recorded</t>
-  </si>
-  <si>
-    <t>R 4</t>
-  </si>
-  <si>
-    <t>R 5</t>
-  </si>
-  <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
-    <t>Required timeslot tags</t>
-  </si>
-  <si>
-    <t>Preferred timeslot tags</t>
-  </si>
-  <si>
-    <t>Prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Undesired timeslot tags</t>
-  </si>
-  <si>
-    <t>Required room tags</t>
-  </si>
-  <si>
-    <t>Preferred room tags</t>
-  </si>
-  <si>
-    <t>Prohibited room tags</t>
-  </si>
-  <si>
-    <t>Undesired room tags</t>
-  </si>
-  <si>
-    <t>Amy Cole</t>
-  </si>
-  <si>
-    <t>Beth Fox</t>
-  </si>
-  <si>
-    <t>Chad Green</t>
-  </si>
-  <si>
-    <t>Dan Jones</t>
-  </si>
-  <si>
-    <t>Elsa King</t>
-  </si>
-  <si>
-    <t>Flo Li</t>
-  </si>
-  <si>
-    <t>Gus Poe</t>
-  </si>
-  <si>
-    <t>Hugo Rye</t>
-  </si>
-  <si>
-    <t>Ivy Smith</t>
-  </si>
-  <si>
-    <t>Jay Watt</t>
-  </si>
-  <si>
-    <t>Amy Fox</t>
-  </si>
-  <si>
-    <t>Beth Green</t>
-  </si>
-  <si>
-    <t>Chad Jones</t>
-  </si>
-  <si>
-    <t>Dan King</t>
-  </si>
-  <si>
-    <t>Elsa Li</t>
-  </si>
-  <si>
-    <t>Flo Poe</t>
-  </si>
-  <si>
-    <t>Gus Rye</t>
-  </si>
-  <si>
-    <t>Hugo Smith</t>
-  </si>
-  <si>
-    <t>Ivy Watt</t>
-  </si>
-  <si>
-    <t>Jay Cole</t>
-  </si>
-  <si>
-    <t>Amy Green</t>
-  </si>
-  <si>
-    <t>Beth Jones</t>
-  </si>
-  <si>
-    <t>Chad King</t>
-  </si>
-  <si>
-    <t>Dan Li</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Theme tags</t>
-  </si>
-  <si>
-    <t>Sector tags</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Speakers</t>
-  </si>
-  <si>
-    <t>Pinned by user</t>
-  </si>
-  <si>
-    <t>Timeslot day</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>S00</t>
-  </si>
-  <si>
-    <t>Hands on real-time OpenShift</t>
-  </si>
-  <si>
-    <t>Modern Web</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>Lab_room</t>
-  </si>
-  <si>
-    <t>S01</t>
-  </si>
-  <si>
-    <t>Advanced containerized WildFly</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>Learn virtualized Spring</t>
-  </si>
-  <si>
-    <t>Modern Web, IoT</t>
+    <t>Intro to serverless OptaPlanner</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>Discover AI-driven jBPM</t>
+  </si>
+  <si>
+    <t>Hugo Rye, Ivy Smith</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>Mastering machine learning Camel</t>
+  </si>
+  <si>
+    <t>Jay Watt, Amy Fox</t>
+  </si>
+  <si>
+    <t>Mobile, Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven XStream</t>
+  </si>
+  <si>
+    <t>Beth Green, Chad Jones</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Culture</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>Building deep learning Docker</t>
+  </si>
+  <si>
+    <t>Cloud, Big Data</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>Securing scalable Hibernate</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>Debug enterprise GWT</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>Prepare for streaming Errai</t>
+  </si>
+  <si>
+    <t>Gus Rye, Hugo Smith, Ivy Watt</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>Understand mobile Angular</t>
+  </si>
+  <si>
+    <t>Jay Cole, Amy Green</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>Applying modern Weld</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>Grok distributed RestEasy</t>
+  </si>
+  <si>
+    <t>Dan Li, Amy Cole</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable Android</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>Using secure Tensorflow</t>
   </si>
   <si>
     <t>Chad Green, Dan Jones</t>
   </si>
   <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>Intro to serverless Drools</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>Elsa King, Flo Li</t>
-  </si>
-  <si>
-    <t>S04</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OptaPlanner</t>
-  </si>
-  <si>
-    <t>IoT</t>
-  </si>
-  <si>
-    <t>Financial services</t>
-  </si>
-  <si>
-    <t>S05</t>
-  </si>
-  <si>
-    <t>Mastering machine learning jBPM</t>
-  </si>
-  <si>
-    <t>S06</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Camel</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>S07</t>
-  </si>
-  <si>
-    <t>Building deep learning XStream</t>
-  </si>
-  <si>
-    <t>S08</t>
-  </si>
-  <si>
-    <t>Securing scalable Docker</t>
-  </si>
-  <si>
-    <t>Big Data</t>
-  </si>
-  <si>
-    <t>S09</t>
-  </si>
-  <si>
-    <t>Debug enterprise JUnit</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Beth Green, Chad Jones</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>Hands on real-time WildFly</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>Advanced containerized Spring</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>Learn virtualized Drools</t>
-  </si>
-  <si>
-    <t>Middleware</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>Intro to serverless OptaPlanner</t>
-  </si>
-  <si>
-    <t>Gus Rye, Hugo Smith</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>Discover AI-driven jBPM</t>
-  </si>
-  <si>
-    <t>Ivy Watt, Jay Cole</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>Mastering machine learning Camel</t>
-  </si>
-  <si>
-    <t>IoT, Modern Web</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven XStream</t>
-  </si>
-  <si>
-    <t>Beth Jones, Chad King</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>Building deep learning Docker</t>
-  </si>
-  <si>
-    <t>Dan Li, Amy Cole</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>Securing scalable JUnit</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>Debug enterprise OpenShift</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>Hands on real-time Spring</t>
-  </si>
-  <si>
-    <t>Modern Web, Cloud</t>
-  </si>
-  <si>
-    <t>Elsa King, Flo Li, Gus Poe</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>Advanced containerized Drools</t>
-  </si>
-  <si>
-    <t>Hugo Rye, Ivy Smith</t>
-  </si>
-  <si>
-    <t>S22</t>
-  </si>
-  <si>
-    <t>Learn virtualized OptaPlanner</t>
-  </si>
-  <si>
-    <t>Intro to serverless jBPM</t>
-  </si>
-  <si>
-    <t>Amy Fox, Beth Green</t>
-  </si>
-  <si>
-    <t>S24</t>
-  </si>
-  <si>
-    <t>Discover AI-driven Camel</t>
-  </si>
-  <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>Mastering machine learning XStream</t>
-  </si>
-  <si>
-    <t>S26</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Docker</t>
-  </si>
-  <si>
-    <t>Elsa Li, Flo Poe</t>
-  </si>
-  <si>
-    <t>S27</t>
-  </si>
-  <si>
-    <t>Building deep learning JUnit</t>
-  </si>
-  <si>
-    <t>S28</t>
-  </si>
-  <si>
-    <t>Securing scalable OpenShift</t>
-  </si>
-  <si>
-    <t>Modern Web, Mobile</t>
-  </si>
-  <si>
-    <t>S29</t>
-  </si>
-  <si>
-    <t>Debug enterprise WildFly</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>S30</t>
-  </si>
-  <si>
-    <t>Hands on real-time Drools</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>S31</t>
-  </si>
-  <si>
-    <t>Advanced containerized OptaPlanner</t>
-  </si>
-  <si>
-    <t>S32</t>
-  </si>
-  <si>
-    <t>Learn virtualized jBPM</t>
-  </si>
-  <si>
-    <t>Big Data, Mobile</t>
-  </si>
-  <si>
-    <t>S33</t>
-  </si>
-  <si>
-    <t>Intro to serverless Camel</t>
-  </si>
-  <si>
-    <t>S34</t>
-  </si>
-  <si>
-    <t>Discover AI-driven XStream</t>
-  </si>
-  <si>
-    <t>Beth Fox, Chad Green</t>
-  </si>
-  <si>
-    <t>S35</t>
-  </si>
-  <si>
-    <t>Mastering machine learning Docker</t>
-  </si>
-  <si>
     <t>Theme tag</t>
   </si>
   <si>
     <t>Sector tag</t>
+  </si>
+  <si>
+    <t>Speaker</t>
   </si>
 </sst>
 </file>
@@ -651,7 +733,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,6 +753,16 @@
         <fgColor rgb="AD7FA8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EF2929"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCAF3E"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -684,11 +776,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -704,9 +798,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.8671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.69921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="81.296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.5" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.85546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="70.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -866,11 +960,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.14453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.3984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.32421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.41796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1110,20 +1204,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.3125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.6328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1454,27 +1548,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.85546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="26.30859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.0234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="21.671875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="22.20703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="23.125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="22.84375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.69921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.09765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.01171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.7734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="19.47265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.3828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="20.1484375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1899,7 +1993,7 @@
         <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -2289,7 +2383,7 @@
         <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
@@ -2354,7 +2448,7 @@
         <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
@@ -3187,26 +3281,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.20703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.8203125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.30859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.3046875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.015625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="24.85546875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="25.390625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="26.30859375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="26.0234375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="21.671875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="22.20703125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="23.125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="22.84375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="16.65234375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="16.14453125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="6.3984375" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="6.32421875" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.7734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.41796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="28.2265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.98828125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="16.515625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.4375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.7109375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="21.69921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="22.09765625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="23.01171875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="22.7734375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="19.07421875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="19.47265625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="20.3828125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.1484375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="14.578125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="15.99609375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="6.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3232,72 +3328,78 @@
         <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>99</v>
+      <c r="V1" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
+        <v>32</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
@@ -3306,61 +3408,67 @@
         <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="b">
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="b">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
-      </c>
       <c r="S2" t="s">
         <v>32</v>
       </c>
       <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" t="s">
         <v>107</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
       <c r="J3" t="s">
         <v>32</v>
       </c>
@@ -3368,60 +3476,66 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="b">
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="b">
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>32</v>
-      </c>
       <c r="S3" t="s">
         <v>32</v>
       </c>
       <c r="T3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" t="s">
-        <v>111</v>
+        <v>32</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
         <v>32</v>
@@ -3430,60 +3544,66 @@
         <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="O4" t="s">
         <v>32</v>
       </c>
-      <c r="P4" t="b">
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" t="s">
-        <v>32</v>
-      </c>
       <c r="S4" t="s">
         <v>32</v>
       </c>
       <c r="T4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.0</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
         <v>32</v>
@@ -3492,60 +3612,66 @@
         <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s">
         <v>32</v>
       </c>
-      <c r="P5" t="b">
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" t="s">
-        <v>32</v>
-      </c>
       <c r="S5" t="s">
         <v>32</v>
       </c>
       <c r="T5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.0</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
@@ -3565,49 +3691,55 @@
       <c r="O6" t="s">
         <v>32</v>
       </c>
-      <c r="P6" t="b">
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" t="s">
-        <v>32</v>
-      </c>
       <c r="S6" t="s">
         <v>32</v>
       </c>
       <c r="T6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.0</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J7" t="s">
         <v>32</v>
@@ -3627,49 +3759,55 @@
       <c r="O7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" t="b">
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" t="b">
         <v>0</v>
       </c>
-      <c r="Q7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" t="s">
-        <v>32</v>
-      </c>
       <c r="S7" t="s">
         <v>32</v>
       </c>
       <c r="T7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>75</v>
+        <v>32</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
         <v>32</v>
@@ -3689,49 +3827,55 @@
       <c r="O8" t="s">
         <v>32</v>
       </c>
-      <c r="P8" t="b">
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="b">
         <v>0</v>
       </c>
-      <c r="Q8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" t="s">
-        <v>32</v>
-      </c>
       <c r="S8" t="s">
         <v>32</v>
       </c>
       <c r="T8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" t="s">
-        <v>76</v>
+        <v>32</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.0</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
@@ -3751,49 +3895,55 @@
       <c r="O9" t="s">
         <v>32</v>
       </c>
-      <c r="P9" t="b">
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="b">
         <v>0</v>
       </c>
-      <c r="Q9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" t="s">
-        <v>32</v>
-      </c>
       <c r="S9" t="s">
         <v>32</v>
       </c>
       <c r="T9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
         <v>130</v>
       </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
       <c r="F10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" t="s">
-        <v>77</v>
+        <v>32</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
         <v>32</v>
@@ -3813,49 +3963,55 @@
       <c r="O10" t="s">
         <v>32</v>
       </c>
-      <c r="P10" t="b">
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" t="s">
-        <v>32</v>
-      </c>
       <c r="S10" t="s">
         <v>32</v>
       </c>
       <c r="T10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" t="s">
-        <v>134</v>
+        <v>32</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.0</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
@@ -3875,49 +4031,55 @@
       <c r="O11" t="s">
         <v>32</v>
       </c>
-      <c r="P11" t="b">
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" t="b">
         <v>0</v>
       </c>
-      <c r="Q11" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" t="s">
-        <v>32</v>
-      </c>
       <c r="S11" t="s">
         <v>32</v>
       </c>
       <c r="T11" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" t="s">
-        <v>80</v>
+        <v>32</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.0</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
@@ -3937,49 +4099,55 @@
       <c r="O12" t="s">
         <v>32</v>
       </c>
-      <c r="P12" t="b">
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" t="s">
-        <v>32</v>
-      </c>
       <c r="S12" t="s">
         <v>32</v>
       </c>
       <c r="T12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" t="s">
-        <v>81</v>
+        <v>32</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
@@ -3999,49 +4167,55 @@
       <c r="O13" t="s">
         <v>32</v>
       </c>
-      <c r="P13" t="b">
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="b">
         <v>0</v>
       </c>
-      <c r="Q13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" t="s">
-        <v>32</v>
-      </c>
       <c r="S13" t="s">
         <v>32</v>
       </c>
       <c r="T13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" t="s">
-        <v>82</v>
+        <v>32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.0</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J14" t="s">
         <v>32</v>
@@ -4061,49 +4235,55 @@
       <c r="O14" t="s">
         <v>32</v>
       </c>
-      <c r="P14" t="b">
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="b">
         <v>0</v>
       </c>
-      <c r="Q14" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" t="s">
-        <v>32</v>
-      </c>
       <c r="S14" t="s">
         <v>32</v>
       </c>
       <c r="T14" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" t="s">
-        <v>144</v>
+        <v>32</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.0</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J15" t="s">
         <v>32</v>
@@ -4123,49 +4303,55 @@
       <c r="O15" t="s">
         <v>32</v>
       </c>
-      <c r="P15" t="b">
+      <c r="P15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" t="b">
         <v>0</v>
       </c>
-      <c r="Q15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" t="s">
-        <v>32</v>
-      </c>
       <c r="S15" t="s">
         <v>32</v>
       </c>
       <c r="T15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" t="s">
-        <v>147</v>
+        <v>32</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.0</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J16" t="s">
         <v>32</v>
@@ -4185,49 +4371,55 @@
       <c r="O16" t="s">
         <v>32</v>
       </c>
-      <c r="P16" t="b">
+      <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="b">
         <v>0</v>
       </c>
-      <c r="Q16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" t="s">
-        <v>32</v>
-      </c>
       <c r="S16" t="s">
         <v>32</v>
       </c>
       <c r="T16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" t="s">
-        <v>87</v>
+        <v>32</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J17" t="s">
         <v>32</v>
@@ -4247,49 +4439,55 @@
       <c r="O17" t="s">
         <v>32</v>
       </c>
-      <c r="P17" t="b">
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="b">
         <v>0</v>
       </c>
-      <c r="Q17" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" t="s">
-        <v>32</v>
-      </c>
       <c r="S17" t="s">
         <v>32</v>
       </c>
       <c r="T17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" t="s">
-        <v>153</v>
+        <v>32</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.0</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J18" t="s">
         <v>32</v>
@@ -4309,50 +4507,56 @@
       <c r="O18" t="s">
         <v>32</v>
       </c>
-      <c r="P18" t="b">
+      <c r="P18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" t="b">
         <v>0</v>
       </c>
-      <c r="Q18" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" t="s">
-        <v>32</v>
-      </c>
       <c r="S18" t="s">
         <v>32</v>
       </c>
       <c r="T18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" t="s">
         <v>107</v>
       </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
       <c r="J19" t="s">
         <v>32</v>
       </c>
@@ -4371,49 +4575,55 @@
       <c r="O19" t="s">
         <v>32</v>
       </c>
-      <c r="P19" t="b">
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" t="b">
         <v>0</v>
       </c>
-      <c r="Q19" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" t="s">
-        <v>32</v>
-      </c>
       <c r="S19" t="s">
         <v>32</v>
       </c>
       <c r="T19" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" t="s">
-        <v>68</v>
+        <v>180</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.0</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="I20" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J20" t="s">
         <v>32</v>
@@ -4433,49 +4643,55 @@
       <c r="O20" t="s">
         <v>32</v>
       </c>
-      <c r="P20" t="b">
+      <c r="P20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" t="b">
         <v>0</v>
       </c>
-      <c r="Q20" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" t="s">
-        <v>32</v>
-      </c>
       <c r="S20" t="s">
         <v>32</v>
       </c>
       <c r="T20" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" t="s">
-        <v>111</v>
+        <v>32</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.0</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J21" t="s">
         <v>32</v>
@@ -4495,49 +4711,55 @@
       <c r="O21" t="s">
         <v>32</v>
       </c>
-      <c r="P21" t="b">
+      <c r="P21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" t="b">
         <v>0</v>
       </c>
-      <c r="Q21" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" t="s">
-        <v>32</v>
-      </c>
       <c r="S21" t="s">
         <v>32</v>
       </c>
       <c r="T21" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" t="s">
-        <v>164</v>
+        <v>32</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J22" t="s">
         <v>32</v>
@@ -4557,49 +4779,55 @@
       <c r="O22" t="s">
         <v>32</v>
       </c>
-      <c r="P22" t="b">
+      <c r="P22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" t="b">
         <v>0</v>
       </c>
-      <c r="Q22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" t="s">
-        <v>32</v>
-      </c>
       <c r="S22" t="s">
         <v>32</v>
       </c>
       <c r="T22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" t="s">
+        <v>32</v>
+      </c>
+      <c r="V22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" t="s">
-        <v>167</v>
+        <v>32</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.0</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J23" t="s">
         <v>32</v>
@@ -4619,50 +4847,56 @@
       <c r="O23" t="s">
         <v>32</v>
       </c>
-      <c r="P23" t="b">
+      <c r="P23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" t="b">
         <v>0</v>
       </c>
-      <c r="Q23" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" t="s">
-        <v>32</v>
-      </c>
       <c r="S23" t="s">
         <v>32</v>
       </c>
       <c r="T23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" t="s">
+        <v>32</v>
+      </c>
+      <c r="V23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" t="s">
         <v>107</v>
       </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" t="s">
-        <v>32</v>
-      </c>
       <c r="J24" t="s">
         <v>32</v>
       </c>
@@ -4681,49 +4915,55 @@
       <c r="O24" t="s">
         <v>32</v>
       </c>
-      <c r="P24" t="b">
-        <v>0</v>
+      <c r="P24" t="s">
+        <v>32</v>
       </c>
       <c r="Q24" t="s">
         <v>32</v>
       </c>
-      <c r="R24" t="s">
-        <v>32</v>
+      <c r="R24" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T24" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="U24" t="s">
+        <v>33</v>
+      </c>
+      <c r="V24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" t="s">
-        <v>171</v>
+        <v>32</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.0</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J25" t="s">
         <v>32</v>
@@ -4743,49 +4983,55 @@
       <c r="O25" t="s">
         <v>32</v>
       </c>
-      <c r="P25" s="3" t="b">
-        <v>1</v>
+      <c r="P25" t="s">
+        <v>32</v>
       </c>
       <c r="Q25" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T25" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="U25" t="s">
+        <v>32</v>
+      </c>
+      <c r="V25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" t="s">
-        <v>79</v>
+        <v>32</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.0</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="I26" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J26" t="s">
         <v>32</v>
@@ -4805,49 +5051,55 @@
       <c r="O26" t="s">
         <v>32</v>
       </c>
-      <c r="P26" t="b">
+      <c r="P26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" t="b">
         <v>0</v>
       </c>
-      <c r="Q26" t="s">
-        <v>32</v>
-      </c>
-      <c r="R26" t="s">
-        <v>32</v>
-      </c>
       <c r="S26" t="s">
         <v>32</v>
       </c>
       <c r="T26" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" t="s">
+        <v>32</v>
+      </c>
+      <c r="V26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" t="s">
-        <v>80</v>
+        <v>180</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.0</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J27" t="s">
         <v>32</v>
@@ -4867,49 +5119,55 @@
       <c r="O27" t="s">
         <v>32</v>
       </c>
-      <c r="P27" t="b">
+      <c r="P27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" t="b">
         <v>0</v>
       </c>
-      <c r="Q27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R27" t="s">
-        <v>32</v>
-      </c>
       <c r="S27" t="s">
         <v>32</v>
       </c>
       <c r="T27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" t="s">
-        <v>178</v>
+        <v>123</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.0</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J28" t="s">
         <v>32</v>
@@ -4929,49 +5187,55 @@
       <c r="O28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" t="b">
+      <c r="P28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" t="b">
         <v>0</v>
       </c>
-      <c r="Q28" t="s">
-        <v>32</v>
-      </c>
-      <c r="R28" t="s">
-        <v>32</v>
-      </c>
       <c r="S28" t="s">
         <v>32</v>
       </c>
       <c r="T28" t="s">
+        <v>32</v>
+      </c>
+      <c r="U28" t="s">
+        <v>32</v>
+      </c>
+      <c r="V28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" t="s">
-        <v>83</v>
+        <v>32</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.0</v>
       </c>
       <c r="H29" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J29" t="s">
         <v>32</v>
@@ -4991,49 +5255,55 @@
       <c r="O29" t="s">
         <v>32</v>
       </c>
-      <c r="P29" t="b">
+      <c r="P29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" t="b">
         <v>0</v>
       </c>
-      <c r="Q29" t="s">
-        <v>32</v>
-      </c>
-      <c r="R29" t="s">
-        <v>32</v>
-      </c>
       <c r="S29" t="s">
         <v>32</v>
       </c>
       <c r="T29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" t="s">
-        <v>84</v>
+        <v>209</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.0</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="I30" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J30" t="s">
         <v>32</v>
@@ -5053,49 +5323,55 @@
       <c r="O30" t="s">
         <v>32</v>
       </c>
-      <c r="P30" t="b">
+      <c r="P30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" t="b">
         <v>0</v>
       </c>
-      <c r="Q30" t="s">
-        <v>32</v>
-      </c>
-      <c r="R30" t="s">
-        <v>32</v>
-      </c>
       <c r="S30" t="s">
         <v>32</v>
       </c>
       <c r="T30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" t="s">
-        <v>147</v>
+        <v>32</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.0</v>
       </c>
       <c r="H31" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="I31" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J31" t="s">
         <v>32</v>
@@ -5115,49 +5391,55 @@
       <c r="O31" t="s">
         <v>32</v>
       </c>
-      <c r="P31" t="b">
+      <c r="P31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" t="b">
         <v>0</v>
       </c>
-      <c r="Q31" t="s">
-        <v>32</v>
-      </c>
-      <c r="R31" t="s">
-        <v>32</v>
-      </c>
       <c r="S31" t="s">
         <v>32</v>
       </c>
       <c r="T31" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" t="s">
+        <v>32</v>
+      </c>
+      <c r="V31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" t="s">
-        <v>87</v>
+        <v>32</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="I32" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J32" t="s">
         <v>32</v>
@@ -5177,49 +5459,55 @@
       <c r="O32" t="s">
         <v>32</v>
       </c>
-      <c r="P32" t="b">
+      <c r="P32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>32</v>
+      </c>
+      <c r="R32" t="b">
         <v>0</v>
       </c>
-      <c r="Q32" t="s">
-        <v>32</v>
-      </c>
-      <c r="R32" t="s">
-        <v>32</v>
-      </c>
       <c r="S32" t="s">
         <v>32</v>
       </c>
       <c r="T32" t="s">
+        <v>32</v>
+      </c>
+      <c r="U32" t="s">
+        <v>32</v>
+      </c>
+      <c r="V32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" t="s">
-        <v>88</v>
+        <v>32</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.0</v>
       </c>
       <c r="H33" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="I33" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J33" t="s">
         <v>32</v>
@@ -5239,49 +5527,55 @@
       <c r="O33" t="s">
         <v>32</v>
       </c>
-      <c r="P33" t="b">
+      <c r="P33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" t="b">
         <v>0</v>
       </c>
-      <c r="Q33" t="s">
-        <v>32</v>
-      </c>
-      <c r="R33" t="s">
-        <v>32</v>
-      </c>
       <c r="S33" t="s">
         <v>32</v>
       </c>
       <c r="T33" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" t="s">
-        <v>89</v>
+        <v>32</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.0</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="I34" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J34" t="s">
         <v>32</v>
@@ -5301,49 +5595,55 @@
       <c r="O34" t="s">
         <v>32</v>
       </c>
-      <c r="P34" t="b">
+      <c r="P34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" t="b">
         <v>0</v>
       </c>
-      <c r="Q34" t="s">
-        <v>32</v>
-      </c>
-      <c r="R34" t="s">
-        <v>32</v>
-      </c>
       <c r="S34" t="s">
         <v>32</v>
       </c>
       <c r="T34" t="s">
+        <v>32</v>
+      </c>
+      <c r="U34" t="s">
+        <v>32</v>
+      </c>
+      <c r="V34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" t="s">
-        <v>156</v>
+        <v>32</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="I35" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J35" t="s">
         <v>32</v>
@@ -5363,50 +5663,56 @@
       <c r="O35" t="s">
         <v>32</v>
       </c>
-      <c r="P35" t="b">
+      <c r="P35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35" t="b">
         <v>0</v>
       </c>
-      <c r="Q35" t="s">
-        <v>32</v>
-      </c>
-      <c r="R35" t="s">
-        <v>32</v>
-      </c>
       <c r="S35" t="s">
         <v>32</v>
       </c>
       <c r="T35" t="s">
+        <v>32</v>
+      </c>
+      <c r="U35" t="s">
+        <v>32</v>
+      </c>
+      <c r="V35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
       </c>
       <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" t="s">
         <v>107</v>
       </c>
-      <c r="E36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36" t="s">
-        <v>199</v>
-      </c>
-      <c r="H36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" t="s">
-        <v>32</v>
-      </c>
       <c r="J36" t="s">
         <v>32</v>
       </c>
@@ -5425,49 +5731,55 @@
       <c r="O36" t="s">
         <v>32</v>
       </c>
-      <c r="P36" t="b">
+      <c r="P36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" t="b">
         <v>0</v>
       </c>
-      <c r="Q36" t="s">
-        <v>32</v>
-      </c>
-      <c r="R36" t="s">
-        <v>32</v>
-      </c>
       <c r="S36" t="s">
         <v>32</v>
       </c>
       <c r="T36" t="s">
+        <v>32</v>
+      </c>
+      <c r="U36" t="s">
+        <v>32</v>
+      </c>
+      <c r="V36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="J37" t="s">
         <v>32</v>
@@ -5487,19 +5799,25 @@
       <c r="O37" t="s">
         <v>32</v>
       </c>
-      <c r="P37" t="b">
+      <c r="P37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37" t="b">
         <v>0</v>
       </c>
-      <c r="Q37" t="s">
-        <v>32</v>
-      </c>
-      <c r="R37" t="s">
-        <v>32</v>
-      </c>
       <c r="S37" t="s">
         <v>32</v>
       </c>
       <c r="T37" t="s">
+        <v>32</v>
+      </c>
+      <c r="U37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5519,19 +5837,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5577,7 +5895,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -5618,44 +5936,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B3"/>
       <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
     </row>
   </sheetData>
   <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
@@ -5678,19 +5974,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.94140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5736,7 +6032,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -5773,6 +6069,1108 @@
       </c>
       <c r="M2" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="2"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" r:id="rId3" sheetId="1"/>
@@ -11,15 +11,17 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Theme view" r:id="rId8" sheetId="6"/>
-    <sheet name="Sector view" r:id="rId9" sheetId="7"/>
-    <sheet name="Speaker view" r:id="rId10" sheetId="8"/>
+    <sheet name="Room view" r:id="rId8" sheetId="6"/>
+    <sheet name="Speaker view" r:id="rId9" sheetId="7"/>
+    <sheet name="Theme view" r:id="rId10" sheetId="8"/>
+    <sheet name="Sector view" r:id="rId11" sheetId="9"/>
+    <sheet name="Content view" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="233">
   <si>
     <t>Conference name</t>
   </si>
@@ -705,13 +707,19 @@
     <t>Chad Green, Dan Jones</t>
   </si>
   <si>
+    <t>Speaker</t>
+  </si>
+  <si>
     <t>Theme tag</t>
   </si>
   <si>
     <t>Sector tag</t>
   </si>
   <si>
-    <t>Speaker</t>
+    <t>Content tag</t>
+  </si>
+  <si>
+    <t>(2) S22</t>
   </si>
 </sst>
 </file>
@@ -949,6 +957,143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
@@ -5831,7 +5976,1432 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -5895,7 +7465,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -5963,12 +7533,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -6032,7 +7602,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -6069,1108 +7639,6 @@
       </c>
       <c r="M2" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
-  <mergeCells>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="235">
   <si>
     <t>Conference name</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Soft penalty per common sector of 2 talks that have an overlapping timeslot</t>
+  </si>
+  <si>
+    <t>Content audience level flow violation</t>
+  </si>
+  <si>
+    <t>Soft penalty per common content of 2 talks with a different audience level for which the easier talk isn't scheduled earlier than the other talk.</t>
   </si>
   <si>
     <t>Language diversity</t>
@@ -795,8 +801,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
@@ -806,9 +852,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.85546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="70.88671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="130.52734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -894,12 +940,12 @@
         <v>10.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>10.0</v>
@@ -910,13 +956,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>10.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -938,12 +984,12 @@
         <v>10.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>10.0</v>
@@ -952,13 +998,25 @@
         <v>20</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -985,93 +1043,93 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1085,17 +1143,17 @@
       <c r="M3"/>
     </row>
   </sheetData>
-  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
   <mergeCells>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1114,232 +1172,233 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1367,310 +1426,310 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1679,11 +1738,12 @@
     <mergeCell ref="I1:N1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1718,1692 +1778,1692 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3412,11 +3472,12 @@
     <mergeCell ref="P1:U1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3452,2527 +3513,2528 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R2" t="b">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R3" t="b">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
         <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R4" t="b">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" t="n">
         <v>3.0</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" t="n">
         <v>2.0</v>
       </c>
       <c r="H6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" t="n">
         <v>2.0</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" t="n">
         <v>2.0</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10" t="n">
         <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" t="n">
         <v>2.0</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12" t="n">
         <v>3.0</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="n">
         <v>3.0</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
         <v>2.0</v>
       </c>
       <c r="H15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16" t="n">
         <v>2.0</v>
       </c>
       <c r="H16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>2.0</v>
       </c>
       <c r="H18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R18" t="b">
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" t="n">
         <v>2.0</v>
       </c>
       <c r="H19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G20" t="n">
         <v>2.0</v>
       </c>
       <c r="H20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G21" t="n">
         <v>2.0</v>
       </c>
       <c r="H21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R21" t="b">
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G22" t="n">
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R22" t="b">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G23" t="n">
         <v>2.0</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R23" t="b">
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
         <v>2.0</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R24" s="3" t="b">
         <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G25" t="n">
         <v>2.0</v>
       </c>
       <c r="H25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R25" t="b">
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G26" t="n">
         <v>3.0</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R26" t="b">
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G27" t="n">
         <v>3.0</v>
       </c>
       <c r="H27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R27" t="b">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G28" t="n">
         <v>1.0</v>
       </c>
       <c r="H28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R28" t="b">
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G29" t="n">
         <v>3.0</v>
       </c>
       <c r="H29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R29" t="b">
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G30" t="n">
         <v>3.0</v>
       </c>
       <c r="H30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R30" t="b">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G31" t="n">
         <v>2.0</v>
       </c>
       <c r="H31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R31" t="b">
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G32" t="n">
         <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R32" t="b">
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G33" t="n">
         <v>2.0</v>
       </c>
       <c r="H33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R33" t="b">
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G34" t="n">
         <v>3.0</v>
       </c>
       <c r="H34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R34" t="b">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G35" t="n">
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R35" t="b">
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G36" t="n">
         <v>3.0</v>
       </c>
       <c r="H36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R36" t="b">
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G37" t="n">
         <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R37" t="b">
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5999,303 +6061,303 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
   <mergeCells>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6322,1082 +6384,1082 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
   <mergeCells>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7424,93 +7486,93 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -7524,17 +7586,17 @@
       <c r="M3"/>
     </row>
   </sheetData>
-  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
   <mergeCells>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7561,92 +7623,92 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
   <mergeCells>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -11,11 +11,11 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Room view" r:id="rId8" sheetId="6"/>
-    <sheet name="Speaker view" r:id="rId9" sheetId="7"/>
-    <sheet name="Theme view" r:id="rId10" sheetId="8"/>
-    <sheet name="Sector view" r:id="rId11" sheetId="9"/>
-    <sheet name="Content view" r:id="rId12" sheetId="10"/>
+    <sheet name="Rooms view" r:id="rId8" sheetId="6"/>
+    <sheet name="Speakers view" r:id="rId9" sheetId="7"/>
+    <sheet name="Theme tracks view" r:id="rId10" sheetId="8"/>
+    <sheet name="Sectors view" r:id="rId11" sheetId="9"/>
+    <sheet name="Contents view" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
@@ -38,10 +38,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Theme conflict</t>
-  </si>
-  <si>
-    <t>Soft penalty per common theme of 2 talks that have an overlapping timeslot</t>
+    <t>Theme track conflict</t>
+  </si>
+  <si>
+    <t>Soft penalty per common theme track of 2 talks that have an overlapping timeslot</t>
   </si>
   <si>
     <t>Sector conflict</t>
@@ -185,420 +185,420 @@
     <t>Large, Recorded</t>
   </si>
   <si>
+    <t>R 2</t>
+  </si>
+  <si>
+    <t>R 3</t>
+  </si>
+  <si>
+    <t>Recorded</t>
+  </si>
+  <si>
+    <t>R 4</t>
+  </si>
+  <si>
+    <t>R 5</t>
+  </si>
+  <si>
+    <t>Lab_room, Large, Recorded</t>
+  </si>
+  <si>
+    <t>Required timeslot tags</t>
+  </si>
+  <si>
+    <t>Preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Required room tags</t>
+  </si>
+  <si>
+    <t>Preferred room tags</t>
+  </si>
+  <si>
+    <t>Prohibited room tags</t>
+  </si>
+  <si>
+    <t>Undesired room tags</t>
+  </si>
+  <si>
+    <t>Amy Cole</t>
+  </si>
+  <si>
+    <t>Beth Fox</t>
+  </si>
+  <si>
+    <t>Chad Green</t>
+  </si>
+  <si>
+    <t>Dan Jones</t>
+  </si>
+  <si>
+    <t>Elsa King</t>
+  </si>
+  <si>
+    <t>Flo Li</t>
+  </si>
+  <si>
+    <t>Gus Poe</t>
+  </si>
+  <si>
+    <t>Hugo Rye</t>
+  </si>
+  <si>
+    <t>Ivy Smith</t>
+  </si>
+  <si>
+    <t>Jay Watt</t>
+  </si>
+  <si>
+    <t>Amy Fox</t>
+  </si>
+  <si>
+    <t>Beth Green</t>
+  </si>
+  <si>
+    <t>Chad Jones</t>
+  </si>
+  <si>
+    <t>Dan King</t>
+  </si>
+  <si>
+    <t>Elsa Li</t>
+  </si>
+  <si>
+    <t>Flo Poe</t>
+  </si>
+  <si>
+    <t>Gus Rye</t>
+  </si>
+  <si>
+    <t>Hugo Smith</t>
+  </si>
+  <si>
+    <t>Ivy Watt</t>
+  </si>
+  <si>
+    <t>Jay Cole</t>
+  </si>
+  <si>
+    <t>Amy Green</t>
+  </si>
+  <si>
+    <t>Beth Jones</t>
+  </si>
+  <si>
+    <t>Chad King</t>
+  </si>
+  <si>
+    <t>Dan Li</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Theme track tags</t>
+  </si>
+  <si>
+    <t>Sector tags</t>
+  </si>
+  <si>
+    <t>Audience level</t>
+  </si>
+  <si>
+    <t>Content tags</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Pinned by user</t>
+  </si>
+  <si>
+    <t>Timeslot day</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>S00</t>
+  </si>
+  <si>
+    <t>Hands on real-time OpenShift</t>
+  </si>
+  <si>
+    <t>Amy Cole, Beth Fox</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>OpenShift</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Lab_room</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>Advanced containerized WildFly</t>
+  </si>
+  <si>
+    <t>Modern Web</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t>Dan Jones, Elsa King</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t>Flo Li, Gus Poe</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Financial services</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t>OptaPlanner</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Camel</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>Building deep learning XStream</t>
+  </si>
+  <si>
+    <t>XStream</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>Securing scalable Docker</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>Debug enterprise Hibernate</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT</t>
+  </si>
+  <si>
+    <t>Middleware, Cloud</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Understand mobile Errai</t>
+  </si>
+  <si>
+    <t>Cloud, Modern Web</t>
+  </si>
+  <si>
+    <t>Errai</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Applying modern Angular</t>
+  </si>
+  <si>
+    <t>Culture, Mobile</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>Grok distributed Weld</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable RestEasy</t>
+  </si>
+  <si>
+    <t>RestEasy</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Using secure Android</t>
+  </si>
+  <si>
+    <t>Ivy Watt, Jay Cole</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Deliver stable Tensorflow</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Implement platform-independent VertX</t>
+  </si>
+  <si>
+    <t>Beth Jones, Chad King</t>
+  </si>
+  <si>
+    <t>VertX</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>Program flexible JUnit</t>
+  </si>
+  <si>
+    <t>Security, Middleware</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>JUnit</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>Hack modularized Keycloak</t>
+  </si>
+  <si>
+    <t>Keycloak</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>Hands on real-time WildFly</t>
+  </si>
+  <si>
+    <t>Beth Fox, Chad Green</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Advanced containerized Spring</t>
+  </si>
+  <si>
     <t>S22</t>
   </si>
   <si>
-    <t>R 2</t>
-  </si>
-  <si>
-    <t>R 3</t>
-  </si>
-  <si>
-    <t>Recorded</t>
-  </si>
-  <si>
-    <t>R 4</t>
-  </si>
-  <si>
-    <t>R 5</t>
-  </si>
-  <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
-    <t>Required timeslot tags</t>
-  </si>
-  <si>
-    <t>Preferred timeslot tags</t>
-  </si>
-  <si>
-    <t>Prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Undesired timeslot tags</t>
-  </si>
-  <si>
-    <t>Required room tags</t>
-  </si>
-  <si>
-    <t>Preferred room tags</t>
-  </si>
-  <si>
-    <t>Prohibited room tags</t>
-  </si>
-  <si>
-    <t>Undesired room tags</t>
-  </si>
-  <si>
-    <t>Amy Cole</t>
-  </si>
-  <si>
-    <t>Beth Fox</t>
-  </si>
-  <si>
-    <t>Chad Green</t>
-  </si>
-  <si>
-    <t>Dan Jones</t>
-  </si>
-  <si>
-    <t>Elsa King</t>
-  </si>
-  <si>
-    <t>Flo Li</t>
-  </si>
-  <si>
-    <t>Gus Poe</t>
-  </si>
-  <si>
-    <t>Hugo Rye</t>
-  </si>
-  <si>
-    <t>Ivy Smith</t>
-  </si>
-  <si>
-    <t>Jay Watt</t>
-  </si>
-  <si>
-    <t>Amy Fox</t>
-  </si>
-  <si>
-    <t>Beth Green</t>
-  </si>
-  <si>
-    <t>Chad Jones</t>
-  </si>
-  <si>
-    <t>Dan King</t>
-  </si>
-  <si>
-    <t>Elsa Li</t>
-  </si>
-  <si>
-    <t>Flo Poe</t>
-  </si>
-  <si>
-    <t>Gus Rye</t>
-  </si>
-  <si>
-    <t>Hugo Smith</t>
-  </si>
-  <si>
-    <t>Ivy Watt</t>
-  </si>
-  <si>
-    <t>Jay Cole</t>
-  </si>
-  <si>
-    <t>Amy Green</t>
-  </si>
-  <si>
-    <t>Beth Jones</t>
-  </si>
-  <si>
-    <t>Chad King</t>
-  </si>
-  <si>
-    <t>Dan Li</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Speakers</t>
-  </si>
-  <si>
-    <t>Theme tags</t>
-  </si>
-  <si>
-    <t>Sector tags</t>
-  </si>
-  <si>
-    <t>Audience level</t>
-  </si>
-  <si>
-    <t>Content tags</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Pinned by user</t>
-  </si>
-  <si>
-    <t>Timeslot day</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>S00</t>
-  </si>
-  <si>
-    <t>Hands on real-time OpenShift</t>
-  </si>
-  <si>
-    <t>Amy Cole, Beth Fox</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>OpenShift</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>Lab_room</t>
-  </si>
-  <si>
-    <t>S01</t>
-  </si>
-  <si>
-    <t>Advanced containerized WildFly</t>
-  </si>
-  <si>
-    <t>Modern Web</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>WildFly</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>Learn virtualized Spring</t>
-  </si>
-  <si>
-    <t>Dan Jones, Elsa King</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>Intro to serverless Drools</t>
-  </si>
-  <si>
-    <t>Flo Li, Gus Poe</t>
-  </si>
-  <si>
-    <t>IoT</t>
-  </si>
-  <si>
-    <t>Financial services</t>
-  </si>
-  <si>
-    <t>Drools</t>
-  </si>
-  <si>
-    <t>S04</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OptaPlanner</t>
-  </si>
-  <si>
-    <t>OptaPlanner</t>
-  </si>
-  <si>
-    <t>S05</t>
-  </si>
-  <si>
-    <t>Mastering machine learning jBPM</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>jBPM</t>
-  </si>
-  <si>
-    <t>S06</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Camel</t>
-  </si>
-  <si>
-    <t>Middleware</t>
-  </si>
-  <si>
-    <t>Camel</t>
-  </si>
-  <si>
-    <t>S07</t>
-  </si>
-  <si>
-    <t>Building deep learning XStream</t>
-  </si>
-  <si>
-    <t>XStream</t>
-  </si>
-  <si>
-    <t>S08</t>
-  </si>
-  <si>
-    <t>Securing scalable Docker</t>
-  </si>
-  <si>
-    <t>Docker</t>
-  </si>
-  <si>
-    <t>S09</t>
-  </si>
-  <si>
-    <t>Debug enterprise Hibernate</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Hibernate</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>Prepare for streaming GWT</t>
-  </si>
-  <si>
-    <t>Middleware, Cloud</t>
-  </si>
-  <si>
-    <t>GWT</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>Understand mobile Errai</t>
-  </si>
-  <si>
-    <t>Cloud, Modern Web</t>
-  </si>
-  <si>
-    <t>Errai</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>Applying modern Angular</t>
-  </si>
-  <si>
-    <t>Culture, Mobile</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>Grok distributed Weld</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Weld</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable RestEasy</t>
-  </si>
-  <si>
-    <t>RestEasy</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>Using secure Android</t>
-  </si>
-  <si>
-    <t>Ivy Watt, Jay Cole</t>
-  </si>
-  <si>
-    <t>Big Data</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>Deliver stable Tensorflow</t>
-  </si>
-  <si>
-    <t>Tensorflow</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>Implement platform-independent VertX</t>
-  </si>
-  <si>
-    <t>Beth Jones, Chad King</t>
-  </si>
-  <si>
-    <t>VertX</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>Program flexible JUnit</t>
-  </si>
-  <si>
-    <t>Security, Middleware</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>JUnit</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>Hack modularized Keycloak</t>
-  </si>
-  <si>
-    <t>Keycloak</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>Hands on real-time WildFly</t>
-  </si>
-  <si>
-    <t>Beth Fox, Chad Green</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>Advanced containerized Spring</t>
-  </si>
-  <si>
     <t>Learn virtualized Drools</t>
   </si>
   <si>
@@ -716,7 +716,7 @@
     <t>Speaker</t>
   </si>
   <si>
-    <t>Theme tag</t>
+    <t>Theme track tag</t>
   </si>
   <si>
     <t>Sector tag</t>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
@@ -1522,8 +1522,8 @@
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>54</v>
+      <c r="D3" t="s">
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
         <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
@@ -1646,10 +1646,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -1846,28 +1846,28 @@
         <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>46</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -2056,7 +2056,7 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -2198,7 +2198,7 @@
         <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
         <v>34</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -2316,7 +2316,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
         <v>34</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -2511,7 +2511,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
         <v>34</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -3513,61 +3513,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>26</v>
@@ -3576,24 +3576,24 @@
         <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
         <v>106</v>
-      </c>
-      <c r="E2" t="s">
-        <v>107</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -3602,25 +3602,25 @@
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" t="s">
         <v>108</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
         <v>109</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>110</v>
       </c>
       <c r="O2" t="s">
         <v>34</v>
@@ -3649,46 +3649,46 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
         <v>113</v>
-      </c>
-      <c r="F3" t="s">
-        <v>114</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
         <v>109</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>110</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -3717,19 +3717,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
         <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
         <v>118</v>
-      </c>
-      <c r="E4" t="s">
-        <v>119</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -3738,25 +3738,25 @@
         <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
         <v>109</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>110</v>
       </c>
       <c r="O4" t="s">
         <v>34</v>
@@ -3785,46 +3785,46 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
         <v>121</v>
-      </c>
-      <c r="B5" t="s">
-        <v>122</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
         <v>123</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>124</v>
-      </c>
-      <c r="F5" t="s">
-        <v>125</v>
       </c>
       <c r="G5" t="n">
         <v>3.0</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
         <v>109</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>110</v>
       </c>
       <c r="O5" t="s">
         <v>34</v>
@@ -3853,19 +3853,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
         <v>127</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -3874,10 +3874,10 @@
         <v>2.0</v>
       </c>
       <c r="H6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
@@ -3921,19 +3921,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
         <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>131</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -3942,10 +3942,10 @@
         <v>2.0</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
         <v>34</v>
@@ -3989,19 +3989,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
         <v>134</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -4010,10 +4010,10 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
         <v>34</v>
@@ -4057,19 +4057,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
         <v>138</v>
-      </c>
-      <c r="B9" t="s">
-        <v>139</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -4078,10 +4078,10 @@
         <v>2.0</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
         <v>34</v>
@@ -4125,19 +4125,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
         <v>141</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -4146,10 +4146,10 @@
         <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
@@ -4193,19 +4193,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
         <v>144</v>
-      </c>
-      <c r="B11" t="s">
-        <v>145</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -4214,10 +4214,10 @@
         <v>2.0</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
         <v>34</v>
@@ -4261,19 +4261,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
         <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -4282,10 +4282,10 @@
         <v>3.0</v>
       </c>
       <c r="H12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
         <v>34</v>
@@ -4329,19 +4329,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" t="s">
         <v>152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
@@ -4350,10 +4350,10 @@
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
         <v>34</v>
@@ -4397,19 +4397,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
         <v>156</v>
-      </c>
-      <c r="B14" t="s">
-        <v>157</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -4418,10 +4418,10 @@
         <v>3.0</v>
       </c>
       <c r="H14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J14" t="s">
         <v>34</v>
@@ -4465,19 +4465,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
         <v>160</v>
-      </c>
-      <c r="B15" t="s">
-        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -4486,10 +4486,10 @@
         <v>2.0</v>
       </c>
       <c r="H15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
         <v>34</v>
@@ -4533,19 +4533,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
         <v>164</v>
-      </c>
-      <c r="B16" t="s">
-        <v>165</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -4554,10 +4554,10 @@
         <v>2.0</v>
       </c>
       <c r="H16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J16" t="s">
         <v>34</v>
@@ -4601,19 +4601,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
         <v>167</v>
-      </c>
-      <c r="B17" t="s">
-        <v>168</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
         <v>169</v>
-      </c>
-      <c r="E17" t="s">
-        <v>170</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -4622,10 +4622,10 @@
         <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J17" t="s">
         <v>34</v>
@@ -4669,19 +4669,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
         <v>172</v>
-      </c>
-      <c r="B18" t="s">
-        <v>173</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -4690,10 +4690,10 @@
         <v>2.0</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J18" t="s">
         <v>34</v>
@@ -4737,31 +4737,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s">
         <v>175</v>
-      </c>
-      <c r="B19" t="s">
-        <v>176</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G19" t="n">
         <v>2.0</v>
       </c>
       <c r="H19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J19" t="s">
         <v>34</v>
@@ -4805,31 +4805,31 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" t="s">
         <v>179</v>
-      </c>
-      <c r="B20" t="s">
-        <v>180</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" t="s">
         <v>181</v>
-      </c>
-      <c r="F20" t="s">
-        <v>182</v>
       </c>
       <c r="G20" t="n">
         <v>2.0</v>
       </c>
       <c r="H20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s">
         <v>34</v>
@@ -4873,19 +4873,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s">
         <v>184</v>
-      </c>
-      <c r="B21" t="s">
-        <v>185</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
@@ -4894,10 +4894,10 @@
         <v>2.0</v>
       </c>
       <c r="H21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J21" t="s">
         <v>34</v>
@@ -4941,19 +4941,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" t="s">
         <v>187</v>
-      </c>
-      <c r="B22" t="s">
-        <v>188</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
@@ -4962,10 +4962,10 @@
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
         <v>34</v>
@@ -5009,19 +5009,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" t="s">
         <v>190</v>
-      </c>
-      <c r="B23" t="s">
-        <v>191</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
@@ -5030,10 +5030,10 @@
         <v>2.0</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J23" t="s">
         <v>34</v>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>192</v>
@@ -5086,10 +5086,10 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
@@ -5098,10 +5098,10 @@
         <v>2.0</v>
       </c>
       <c r="H24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J24" t="s">
         <v>34</v>
@@ -5154,10 +5154,10 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
         <v>123</v>
-      </c>
-      <c r="E25" t="s">
-        <v>124</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
@@ -5166,10 +5166,10 @@
         <v>2.0</v>
       </c>
       <c r="H25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J25" t="s">
         <v>34</v>
@@ -5225,7 +5225,7 @@
         <v>197</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
@@ -5234,10 +5234,10 @@
         <v>3.0</v>
       </c>
       <c r="H26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J26" t="s">
         <v>34</v>
@@ -5296,16 +5296,16 @@
         <v>201</v>
       </c>
       <c r="F27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G27" t="n">
         <v>3.0</v>
       </c>
       <c r="H27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J27" t="s">
         <v>34</v>
@@ -5364,16 +5364,16 @@
         <v>205</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" t="n">
         <v>1.0</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J28" t="s">
         <v>34</v>
@@ -5426,7 +5426,7 @@
         <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
         <v>208</v>
@@ -5438,10 +5438,10 @@
         <v>3.0</v>
       </c>
       <c r="H29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J29" t="s">
         <v>34</v>
@@ -5494,10 +5494,10 @@
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
         <v>211</v>
@@ -5506,10 +5506,10 @@
         <v>3.0</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
@@ -5562,10 +5562,10 @@
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -5574,10 +5574,10 @@
         <v>2.0</v>
       </c>
       <c r="H31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
@@ -5633,7 +5633,7 @@
         <v>216</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
@@ -5642,10 +5642,10 @@
         <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J32" t="s">
         <v>34</v>
@@ -5701,7 +5701,7 @@
         <v>219</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
@@ -5710,10 +5710,10 @@
         <v>2.0</v>
       </c>
       <c r="H33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J33" t="s">
         <v>34</v>
@@ -5766,10 +5766,10 @@
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -5778,10 +5778,10 @@
         <v>3.0</v>
       </c>
       <c r="H34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J34" t="s">
         <v>34</v>
@@ -5837,7 +5837,7 @@
         <v>224</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
@@ -5846,10 +5846,10 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J35" t="s">
         <v>34</v>
@@ -5902,10 +5902,10 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
@@ -5914,10 +5914,10 @@
         <v>3.0</v>
       </c>
       <c r="H36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J36" t="s">
         <v>34</v>
@@ -5973,7 +5973,7 @@
         <v>229</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
@@ -5982,10 +5982,10 @@
         <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J37" t="s">
         <v>34</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>46</v>
@@ -6148,8 +6148,8 @@
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
+      <c r="C3" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -6184,7 +6184,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -6466,7 +6466,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -6630,13 +6630,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -6712,7 +6712,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>34</v>
@@ -6835,7 +6835,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -7163,7 +7163,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -7286,7 +7286,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -7469,7 +7469,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.82421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
@@ -7568,11 +7568,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="237">
   <si>
     <t>Conference name</t>
   </si>
@@ -53,7 +53,13 @@
     <t>Content audience level flow violation</t>
   </si>
   <si>
-    <t>Soft penalty per common content of 2 talks with a different audience level for which the easier talk isn't scheduled earlier than the other talk.</t>
+    <t>Soft penalty per common content of 2 talks with a different audience level for which the easier talk isn't scheduled earlier than the other talk</t>
+  </si>
+  <si>
+    <t>Audience level diversity</t>
+  </si>
+  <si>
+    <t>Soft reward per 2 talks that have the same timeslot and a different audience level</t>
   </si>
   <si>
     <t>Language diversity</t>
@@ -854,7 +860,7 @@
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.85546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="130.52734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="129.94140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -915,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -951,12 +957,12 @@
         <v>10.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>10.0</v>
@@ -967,13 +973,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
         <v>10.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -995,18 +1001,29 @@
         <v>10.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="n">
         <v>10.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1043,93 +1060,93 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1172,223 +1189,223 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1426,310 +1443,310 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1778,1692 +1795,1692 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3513,2518 +3530,2518 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" t="b">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" t="b">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" t="n">
         <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R4" t="b">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G5" t="n">
         <v>3.0</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="n">
         <v>2.0</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
         <v>2.0</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" t="n">
         <v>2.0</v>
       </c>
       <c r="H9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
         <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" t="n">
         <v>2.0</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12" t="n">
         <v>3.0</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" t="n">
         <v>3.0</v>
       </c>
       <c r="H14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" t="n">
         <v>2.0</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G16" t="n">
         <v>2.0</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G17" t="n">
         <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>2.0</v>
       </c>
       <c r="H18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R18" t="b">
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" t="n">
         <v>2.0</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G20" t="n">
         <v>2.0</v>
       </c>
       <c r="H20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G21" t="n">
         <v>2.0</v>
       </c>
       <c r="H21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R21" t="b">
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22" t="n">
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R22" t="b">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" t="n">
         <v>2.0</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R23" t="b">
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G24" t="n">
         <v>2.0</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R24" s="3" t="b">
         <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G25" t="n">
         <v>2.0</v>
       </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R25" t="b">
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G26" t="n">
         <v>3.0</v>
       </c>
       <c r="H26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R26" t="b">
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G27" t="n">
         <v>3.0</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R27" t="b">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G28" t="n">
         <v>1.0</v>
       </c>
       <c r="H28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R28" t="b">
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G29" t="n">
         <v>3.0</v>
       </c>
       <c r="H29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R29" t="b">
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G30" t="n">
         <v>3.0</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R30" t="b">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G31" t="n">
         <v>2.0</v>
       </c>
       <c r="H31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R31" t="b">
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G32" t="n">
         <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R32" t="b">
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G33" t="n">
         <v>2.0</v>
       </c>
       <c r="H33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R33" t="b">
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G34" t="n">
         <v>3.0</v>
       </c>
       <c r="H34" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R34" t="b">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G35" t="n">
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R35" t="b">
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B36" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G36" t="n">
         <v>3.0</v>
       </c>
       <c r="H36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R36" t="b">
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G37" t="n">
         <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R37" t="b">
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6061,289 +6078,289 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6384,1068 +6401,1068 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7486,93 +7503,93 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -7623,84 +7640,84 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -20,8 +20,76 @@
 </workbook>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S22: Learn virtualized Drools
+  Elsa King
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S22: Learn virtualized Drools
+  Elsa King
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0">
+      <text>
+        <t>S22: Learn virtualized Drools
+  Elsa King
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S22: Learn virtualized Drools
+  Elsa King
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="238">
   <si>
     <t>Conference name</t>
   </si>
@@ -1053,6 +1121,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1163,20 +1234,42 @@
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -1185,6 +1278,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6071,6 +6165,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6402,11 +6499,15 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7504,11 +7605,15 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7619,20 +7724,42 @@
       <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -7641,11 +7768,15 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="261">
   <si>
     <t>Conference name</t>
   </si>
@@ -170,6 +170,75 @@
   </si>
   <si>
     <t>Talk undesired room tag</t>
+  </si>
+  <si>
+    <t>Talk type of timeslot</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Hard penalty per talk in a timeslot with an other talk type</t>
+  </si>
+  <si>
+    <t>Room unavailable timeslot</t>
+  </si>
+  <si>
+    <t>Hard penalty per talk with an unavailable room at its timeslot</t>
+  </si>
+  <si>
+    <t>Room conflict</t>
+  </si>
+  <si>
+    <t>Hard penalty per pair of talks in the same room in overlapping timeslots</t>
+  </si>
+  <si>
+    <t>Speaker unavailable timeslot</t>
+  </si>
+  <si>
+    <t>Hard penalty per talk with an unavailable speaker at its timeslot</t>
+  </si>
+  <si>
+    <t>Speaker conflict</t>
+  </si>
+  <si>
+    <t>Hard penalty per pair of talks with the same speaker in overlapping timeslots</t>
+  </si>
+  <si>
+    <t>Speaker required timeslot tag</t>
+  </si>
+  <si>
+    <t>Hard penalty per missing required tag in a talk's timeslot</t>
+  </si>
+  <si>
+    <t>Speaker prohibited timeslot tag</t>
+  </si>
+  <si>
+    <t>Hard penalty per prohibited tag in a talk's timeslot</t>
+  </si>
+  <si>
+    <t>Talk required timeslot tag</t>
+  </si>
+  <si>
+    <t>Talk prohibited timeslot tag</t>
+  </si>
+  <si>
+    <t>Speaker required room tag</t>
+  </si>
+  <si>
+    <t>Hard penalty per missing required tag in a talk's room</t>
+  </si>
+  <si>
+    <t>Speaker prohibited room tag</t>
+  </si>
+  <si>
+    <t>Hard penalty per prohibited tag in a talk's room</t>
+  </si>
+  <si>
+    <t>Talk required room tag</t>
+  </si>
+  <si>
+    <t>Talk prohibited room tag</t>
   </si>
   <si>
     <t>Day</t>
@@ -1113,6 +1182,150 @@
         <v>24</v>
       </c>
     </row>
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -1150,125 +1363,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1302,223 +1515,223 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1556,310 +1769,310 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1908,1692 +2121,1692 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3643,2518 +3856,2518 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R11" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R12" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R23" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R24" s="4" t="b">
         <v>1</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R25" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R28" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R29" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R30" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R31" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R32" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R33" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R34" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R35" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R36" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -6207,289 +6420,289 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="30.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="30.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" ht="30.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="30.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -6534,1068 +6747,1068 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
       <c r="A16" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="true">
       <c r="A17" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="true">
       <c r="A18" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="15.0" customHeight="true">
       <c r="A19" s="2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="15.0" customHeight="true">
       <c r="A20" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" ht="15.0" customHeight="true">
       <c r="A21" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" ht="15.0" customHeight="true">
       <c r="A22" s="2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" ht="15.0" customHeight="true">
       <c r="A23" s="2" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="15.0" customHeight="true">
       <c r="A24" s="2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" ht="15.0" customHeight="true">
       <c r="A25" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="15.0" customHeight="true">
       <c r="A26" s="2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -7640,125 +7853,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -7803,84 +8016,84 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="276">
   <si>
     <t>Conference name</t>
   </si>
@@ -316,202 +316,205 @@
     <t>End</t>
   </si>
   <si>
+    <t>Talk types</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Mon 2018-10-01</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>12:15</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>Breakout</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>Tue 2018-10-02</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>10:15-12:15</t>
+  </si>
+  <si>
+    <t>10:15-11:00</t>
+  </si>
+  <si>
+    <t>11:30-12:15</t>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+  </si>
+  <si>
+    <t>15:30-16:15</t>
+  </si>
+  <si>
+    <t>16:30-17:15</t>
+  </si>
+  <si>
+    <t>R 1</t>
+  </si>
+  <si>
+    <t>Large, Recorded</t>
+  </si>
+  <si>
+    <t>R 2</t>
+  </si>
+  <si>
+    <t>R 3</t>
+  </si>
+  <si>
+    <t>Recorded</t>
+  </si>
+  <si>
+    <t>R 4</t>
+  </si>
+  <si>
+    <t>R 5</t>
+  </si>
+  <si>
+    <t>Lab_room, Large, Recorded</t>
+  </si>
+  <si>
+    <t>Required timeslot tags</t>
+  </si>
+  <si>
+    <t>Preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Required room tags</t>
+  </si>
+  <si>
+    <t>Preferred room tags</t>
+  </si>
+  <si>
+    <t>Prohibited room tags</t>
+  </si>
+  <si>
+    <t>Undesired room tags</t>
+  </si>
+  <si>
+    <t>Amy Cole</t>
+  </si>
+  <si>
+    <t>Beth Fox</t>
+  </si>
+  <si>
+    <t>Chad Green</t>
+  </si>
+  <si>
+    <t>Dan Jones</t>
+  </si>
+  <si>
+    <t>Elsa King</t>
+  </si>
+  <si>
+    <t>Flo Li</t>
+  </si>
+  <si>
+    <t>Gus Poe</t>
+  </si>
+  <si>
+    <t>Hugo Rye</t>
+  </si>
+  <si>
+    <t>Ivy Smith</t>
+  </si>
+  <si>
+    <t>Jay Watt</t>
+  </si>
+  <si>
+    <t>Amy Fox</t>
+  </si>
+  <si>
+    <t>Beth Green</t>
+  </si>
+  <si>
+    <t>Chad Jones</t>
+  </si>
+  <si>
+    <t>Dan King</t>
+  </si>
+  <si>
+    <t>Elsa Li</t>
+  </si>
+  <si>
+    <t>Flo Poe</t>
+  </si>
+  <si>
+    <t>Gus Rye</t>
+  </si>
+  <si>
+    <t>Hugo Smith</t>
+  </si>
+  <si>
+    <t>Ivy Watt</t>
+  </si>
+  <si>
+    <t>Jay Cole</t>
+  </si>
+  <si>
+    <t>Amy Green</t>
+  </si>
+  <si>
+    <t>Beth Jones</t>
+  </si>
+  <si>
+    <t>Chad King</t>
+  </si>
+  <si>
+    <t>Dan Li</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Talk type</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Mon 2018-10-01</t>
-  </si>
-  <si>
-    <t>10:15</t>
-  </si>
-  <si>
-    <t>12:15</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>Breakout</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>16:15</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>17:15</t>
-  </si>
-  <si>
-    <t>Tue 2018-10-02</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>10:15-12:15</t>
-  </si>
-  <si>
-    <t>10:15-11:00</t>
-  </si>
-  <si>
-    <t>11:30-12:15</t>
-  </si>
-  <si>
-    <t>13:00-15:00</t>
-  </si>
-  <si>
-    <t>15:30-16:15</t>
-  </si>
-  <si>
-    <t>16:30-17:15</t>
-  </si>
-  <si>
-    <t>R 1</t>
-  </si>
-  <si>
-    <t>Large, Recorded</t>
-  </si>
-  <si>
-    <t>R 2</t>
-  </si>
-  <si>
-    <t>R 3</t>
-  </si>
-  <si>
-    <t>Recorded</t>
-  </si>
-  <si>
-    <t>R 4</t>
-  </si>
-  <si>
-    <t>R 5</t>
-  </si>
-  <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
-    <t>Required timeslot tags</t>
-  </si>
-  <si>
-    <t>Preferred timeslot tags</t>
-  </si>
-  <si>
-    <t>Prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Undesired timeslot tags</t>
-  </si>
-  <si>
-    <t>Required room tags</t>
-  </si>
-  <si>
-    <t>Preferred room tags</t>
-  </si>
-  <si>
-    <t>Prohibited room tags</t>
-  </si>
-  <si>
-    <t>Undesired room tags</t>
-  </si>
-  <si>
-    <t>Amy Cole</t>
-  </si>
-  <si>
-    <t>Beth Fox</t>
-  </si>
-  <si>
-    <t>Chad Green</t>
-  </si>
-  <si>
-    <t>Dan Jones</t>
-  </si>
-  <si>
-    <t>Elsa King</t>
-  </si>
-  <si>
-    <t>Flo Li</t>
-  </si>
-  <si>
-    <t>Gus Poe</t>
-  </si>
-  <si>
-    <t>Hugo Rye</t>
-  </si>
-  <si>
-    <t>Ivy Smith</t>
-  </si>
-  <si>
-    <t>Jay Watt</t>
-  </si>
-  <si>
-    <t>Amy Fox</t>
-  </si>
-  <si>
-    <t>Beth Green</t>
-  </si>
-  <si>
-    <t>Chad Jones</t>
-  </si>
-  <si>
-    <t>Dan King</t>
-  </si>
-  <si>
-    <t>Elsa Li</t>
-  </si>
-  <si>
-    <t>Flo Poe</t>
-  </si>
-  <si>
-    <t>Gus Rye</t>
-  </si>
-  <si>
-    <t>Hugo Smith</t>
-  </si>
-  <si>
-    <t>Ivy Watt</t>
-  </si>
-  <si>
-    <t>Jay Cole</t>
-  </si>
-  <si>
-    <t>Amy Green</t>
-  </si>
-  <si>
-    <t>Beth Jones</t>
-  </si>
-  <si>
-    <t>Chad King</t>
-  </si>
-  <si>
-    <t>Dan Li</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Title</t>
   </si>
   <si>
     <t>Speakers</t>
@@ -1536,7 +1539,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -1577,13 +1580,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1699,7 +1702,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -1740,13 +1743,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1862,7 +1865,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -1903,13 +1906,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1967,7 +1970,7 @@
     <col min="1" max="1" width="15.99609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="6.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.41796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.29296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -4321,28 +4324,28 @@
         <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>91</v>
@@ -4369,10 +4372,10 @@
         <v>98</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>57</v>
@@ -4381,39 +4384,39 @@
         <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>65</v>
@@ -4428,7 +4431,7 @@
         <v>65</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>65</v>
@@ -4457,10 +4460,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>64</v>
@@ -4469,22 +4472,22 @@
         <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>65</v>
@@ -4499,7 +4502,7 @@
         <v>65</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>65</v>
@@ -4528,34 +4531,34 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>65</v>
@@ -4570,7 +4573,7 @@
         <v>65</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>65</v>
@@ -4599,10 +4602,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>64</v>
@@ -4611,22 +4614,22 @@
         <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>65</v>
@@ -4641,7 +4644,7 @@
         <v>65</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>65</v>
@@ -4670,10 +4673,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>67</v>
@@ -4682,22 +4685,22 @@
         <v>105</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>65</v>
@@ -4741,34 +4744,34 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>65</v>
@@ -4812,10 +4815,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>67</v>
@@ -4824,22 +4827,22 @@
         <v>108</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>65</v>
@@ -4883,34 +4886,34 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>65</v>
@@ -4954,34 +4957,34 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>65</v>
@@ -5025,10 +5028,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>67</v>
@@ -5037,22 +5040,22 @@
         <v>113</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>65</v>
@@ -5096,10 +5099,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>67</v>
@@ -5108,22 +5111,22 @@
         <v>114</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>65</v>
@@ -5167,34 +5170,34 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>65</v>
@@ -5238,10 +5241,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>67</v>
@@ -5250,22 +5253,22 @@
         <v>117</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>65</v>
@@ -5309,10 +5312,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>67</v>
@@ -5321,22 +5324,22 @@
         <v>118</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>65</v>
@@ -5380,10 +5383,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
@@ -5392,22 +5395,22 @@
         <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>65</v>
@@ -5451,10 +5454,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>67</v>
@@ -5463,22 +5466,22 @@
         <v>120</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>65</v>
@@ -5522,10 +5525,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>67</v>
@@ -5534,22 +5537,22 @@
         <v>121</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>65</v>
@@ -5593,10 +5596,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>67</v>
@@ -5605,22 +5608,22 @@
         <v>122</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>65</v>
@@ -5664,34 +5667,34 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>65</v>
@@ -5735,10 +5738,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>67</v>
@@ -5747,22 +5750,22 @@
         <v>101</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>65</v>
@@ -5806,34 +5809,34 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>65</v>
@@ -5877,10 +5880,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>67</v>
@@ -5889,22 +5892,22 @@
         <v>104</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>65</v>
@@ -5948,10 +5951,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>67</v>
@@ -5960,22 +5963,22 @@
         <v>105</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>65</v>
@@ -6019,10 +6022,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>67</v>
@@ -6031,22 +6034,22 @@
         <v>106</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>65</v>
@@ -6090,34 +6093,34 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>65</v>
@@ -6161,10 +6164,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>67</v>
@@ -6173,22 +6176,22 @@
         <v>109</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>65</v>
@@ -6232,34 +6235,34 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>65</v>
@@ -6303,10 +6306,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>67</v>
@@ -6315,22 +6318,22 @@
         <v>112</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>65</v>
@@ -6374,34 +6377,34 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>65</v>
@@ -6445,10 +6448,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>67</v>
@@ -6457,22 +6460,22 @@
         <v>115</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>65</v>
@@ -6516,10 +6519,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>67</v>
@@ -6528,22 +6531,22 @@
         <v>116</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>65</v>
@@ -6587,34 +6590,34 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>65</v>
@@ -6658,34 +6661,34 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>65</v>
@@ -6729,34 +6732,34 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>65</v>
@@ -6800,10 +6803,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>67</v>
@@ -6812,22 +6815,22 @@
         <v>99</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>65</v>
@@ -6871,34 +6874,34 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>65</v>
@@ -7031,7 +7034,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -7078,7 +7081,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -7358,7 +7361,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -8225,7 +8228,7 @@
         <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>65</v>
@@ -8464,7 +8467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -8505,13 +8508,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -8627,7 +8630,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -11,34 +11,16 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Rooms view" r:id="rId8" sheetId="6"/>
-    <sheet name="Speakers view" r:id="rId9" sheetId="7"/>
-    <sheet name="Theme tracks view" r:id="rId10" sheetId="8"/>
-    <sheet name="Sectors view" r:id="rId11" sheetId="9"/>
-    <sheet name="Audience type view" r:id="rId12" sheetId="10"/>
-    <sheet name="Audience level view" r:id="rId13" sheetId="11"/>
-    <sheet name="Contents view" r:id="rId14" sheetId="12"/>
+    <sheet name="Score view" r:id="rId8" sheetId="6"/>
+    <sheet name="Rooms view" r:id="rId9" sheetId="7"/>
+    <sheet name="Speakers view" r:id="rId10" sheetId="8"/>
+    <sheet name="Theme tracks view" r:id="rId11" sheetId="9"/>
+    <sheet name="Sectors view" r:id="rId12" sheetId="10"/>
+    <sheet name="Audience type view" r:id="rId13" sheetId="11"/>
+    <sheet name="Audience level view" r:id="rId14" sheetId="12"/>
+    <sheet name="Contents view" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
-</file>
-
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="C3" authorId="0">
-      <text>
-        <t>S14: Troubleshooting reliable RestEasy
-  Amy Green
-  PINNED BY USER
-Constraint matches:
-  Speaker unavailable timeslot (S14): -1hard</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79,7 +61,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -104,6 +86,25 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S14: Troubleshooting reliable RestEasy
+  Amy Green
+  PINNED BY USER
+Constraint matches:
+  Speaker unavailable timeslot (S14): -1hard</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
     <comment ref="C23" authorId="0">
       <text>
         <t>S14: Troubleshooting reliable RestEasy
@@ -117,7 +118,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="280">
   <si>
     <t>Conference name</t>
   </si>
@@ -409,9 +410,6 @@
     <t>R 5</t>
   </si>
   <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
     <t>Required timeslot tags</t>
   </si>
   <si>
@@ -568,9 +566,6 @@
     <t>en</t>
   </si>
   <si>
-    <t>Lab_room</t>
-  </si>
-  <si>
     <t>S01</t>
   </si>
   <si>
@@ -941,6 +936,24 @@
   </si>
   <si>
     <t>Beth Fox, Chad Green</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>-70init/-1hard</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Usable timeslots</t>
+  </si>
+  <si>
+    <t>Usable rooms</t>
+  </si>
+  <si>
+    <t>Usable sessions</t>
   </si>
   <si>
     <t>S14: Troubleshooting reliable RestEasy
@@ -1073,6 +1086,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
@@ -1481,6 +1498,127 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
+    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
     <col min="1" max="1" width="16.87890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
@@ -1539,7 +1677,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -1580,13 +1718,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1630,7 +1768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -1702,7 +1840,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -1743,13 +1881,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1793,7 +1931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -1865,7 +2003,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -1906,13 +2044,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2213,8 +2351,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.6328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.51171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
@@ -2226,6 +2364,7 @@
     <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2236,11 +2375,11 @@
         <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
@@ -2254,11 +2393,11 @@
         <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
@@ -2269,6 +2408,9 @@
         <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2277,42 +2419,45 @@
         <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2321,42 +2466,45 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2365,42 +2513,45 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2409,42 +2560,45 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2453,42 +2607,45 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2497,49 +2654,52 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -2650,28 +2810,28 @@
         <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>77</v>
@@ -2712,7 +2872,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>65</v>
@@ -2777,7 +2937,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>65</v>
@@ -2842,7 +3002,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>65</v>
@@ -2907,7 +3067,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>65</v>
@@ -2972,7 +3132,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>65</v>
@@ -3037,7 +3197,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>65</v>
@@ -3102,7 +3262,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>65</v>
@@ -3167,7 +3327,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>65</v>
@@ -3232,7 +3392,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>65</v>
@@ -3297,7 +3457,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>65</v>
@@ -3362,7 +3522,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>65</v>
@@ -3427,7 +3587,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>65</v>
@@ -3492,7 +3652,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>65</v>
@@ -3557,7 +3717,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>65</v>
@@ -3622,7 +3782,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>65</v>
@@ -3687,7 +3847,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>65</v>
@@ -3752,7 +3912,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>65</v>
@@ -3817,7 +3977,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>65</v>
@@ -3882,7 +4042,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>65</v>
@@ -3947,7 +4107,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>65</v>
@@ -4012,7 +4172,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>65</v>
@@ -4077,7 +4237,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>65</v>
@@ -4142,7 +4302,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>65</v>
@@ -4207,7 +4367,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -4318,64 +4478,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>57</v>
@@ -4384,40 +4544,40 @@
         <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="K2" s="2" t="s">
         <v>65</v>
       </c>
@@ -4431,7 +4591,7 @@
         <v>65</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>65</v>
@@ -4460,34 +4620,34 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>65</v>
@@ -4502,7 +4662,7 @@
         <v>65</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>65</v>
@@ -4531,34 +4691,34 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>65</v>
@@ -4573,7 +4733,7 @@
         <v>65</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>65</v>
@@ -4602,34 +4762,34 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>65</v>
@@ -4644,7 +4804,7 @@
         <v>65</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>65</v>
@@ -4673,34 +4833,34 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>65</v>
@@ -4744,34 +4904,34 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>65</v>
@@ -4815,34 +4975,34 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>65</v>
@@ -4886,34 +5046,34 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>65</v>
@@ -4957,34 +5117,34 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>65</v>
@@ -5028,34 +5188,34 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>65</v>
@@ -5099,34 +5259,34 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>65</v>
@@ -5170,34 +5330,34 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>65</v>
@@ -5241,34 +5401,34 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>65</v>
@@ -5312,34 +5472,34 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>65</v>
@@ -5383,34 +5543,34 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>65</v>
@@ -5454,34 +5614,34 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>65</v>
@@ -5525,34 +5685,34 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>65</v>
@@ -5596,34 +5756,34 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>65</v>
@@ -5667,34 +5827,34 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>65</v>
@@ -5738,34 +5898,34 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>65</v>
@@ -5809,34 +5969,34 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>65</v>
@@ -5880,34 +6040,34 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>65</v>
@@ -5951,34 +6111,34 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>65</v>
@@ -6022,34 +6182,34 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>65</v>
@@ -6093,34 +6253,34 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>65</v>
@@ -6164,34 +6324,34 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>65</v>
@@ -6235,34 +6395,34 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>65</v>
@@ -6306,34 +6466,34 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>65</v>
@@ -6377,34 +6537,34 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>65</v>
@@ -6448,34 +6608,34 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>65</v>
@@ -6519,34 +6679,34 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>65</v>
@@ -6590,34 +6750,34 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>65</v>
@@ -6661,34 +6821,34 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>65</v>
@@ -6732,34 +6892,34 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>65</v>
@@ -6803,34 +6963,34 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>65</v>
@@ -6874,34 +7034,34 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>65</v>
@@ -6950,6 +7110,93 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.61328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.22265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.59375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.30078125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -7034,7 +7281,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -7081,7 +7328,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -7289,7 +7536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -7361,7 +7608,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -7402,7 +7649,7 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
@@ -7443,7 +7690,7 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>65</v>
@@ -7484,7 +7731,7 @@
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>65</v>
@@ -7525,7 +7772,7 @@
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>65</v>
@@ -7566,7 +7813,7 @@
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>65</v>
@@ -7607,7 +7854,7 @@
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>65</v>
@@ -7648,7 +7895,7 @@
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>65</v>
@@ -7689,7 +7936,7 @@
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>65</v>
@@ -7730,7 +7977,7 @@
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>65</v>
@@ -7771,7 +8018,7 @@
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>65</v>
@@ -7812,7 +8059,7 @@
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>65</v>
@@ -7853,7 +8100,7 @@
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>65</v>
@@ -7894,7 +8141,7 @@
     </row>
     <row r="15" ht="15.0" customHeight="true">
       <c r="A15" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>65</v>
@@ -7935,7 +8182,7 @@
     </row>
     <row r="16" ht="15.0" customHeight="true">
       <c r="A16" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>65</v>
@@ -7976,7 +8223,7 @@
     </row>
     <row r="17" ht="15.0" customHeight="true">
       <c r="A17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>65</v>
@@ -8017,7 +8264,7 @@
     </row>
     <row r="18" ht="15.0" customHeight="true">
       <c r="A18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>65</v>
@@ -8058,7 +8305,7 @@
     </row>
     <row r="19" ht="15.0" customHeight="true">
       <c r="A19" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>65</v>
@@ -8099,7 +8346,7 @@
     </row>
     <row r="20" ht="15.0" customHeight="true">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>65</v>
@@ -8140,7 +8387,7 @@
     </row>
     <row r="21" ht="15.0" customHeight="true">
       <c r="A21" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>65</v>
@@ -8181,7 +8428,7 @@
     </row>
     <row r="22" ht="15.0" customHeight="true">
       <c r="A22" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>65</v>
@@ -8222,13 +8469,13 @@
     </row>
     <row r="23" ht="15.0" customHeight="true">
       <c r="A23" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>65</v>
@@ -8263,7 +8510,7 @@
     </row>
     <row r="24" ht="15.0" customHeight="true">
       <c r="A24" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>65</v>
@@ -8304,7 +8551,7 @@
     </row>
     <row r="25" ht="15.0" customHeight="true">
       <c r="A25" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>65</v>
@@ -8345,7 +8592,7 @@
     </row>
     <row r="26" ht="15.0" customHeight="true">
       <c r="A26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>65</v>
@@ -8395,7 +8642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -8467,7 +8714,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -8508,13 +8755,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -8556,125 +8803,4 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FCE94F"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="282">
   <si>
     <t>Conference name</t>
   </si>
@@ -524,7 +524,7 @@
     <t>Sector tags</t>
   </si>
   <si>
-    <t>Audience type</t>
+    <t>Audience types</t>
   </si>
   <si>
     <t>Audience level</t>
@@ -954,6 +954,9 @@
   </si>
   <si>
     <t>Usable sessions</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>S14: Troubleshooting reliable RestEasy
@@ -970,6 +973,9 @@
   </si>
   <si>
     <t>Sector tag</t>
+  </si>
+  <si>
+    <t>Audience type</t>
   </si>
   <si>
     <t>2</t>
@@ -1556,7 +1562,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -1677,7 +1683,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -1724,7 +1730,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1881,13 +1887,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2003,7 +2009,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -2050,7 +2056,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -7188,6 +7194,24 @@
       </c>
       <c r="E5" s="2" t="n">
         <v>32.0</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>60.0</v>
       </c>
     </row>
   </sheetData>
@@ -7328,7 +7352,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -7608,7 +7632,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -8475,7 +8499,7 @@
         <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>65</v>
@@ -8714,7 +8738,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -8761,7 +8785,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -2477,7 +2477,7 @@
       <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2486,7 +2486,7 @@
       <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -2495,7 +2495,7 @@
       <c r="I3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -2504,7 +2504,7 @@
       <c r="L3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -2524,7 +2524,7 @@
       <c r="C4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -2533,7 +2533,7 @@
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2542,7 +2542,7 @@
       <c r="I4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -2551,7 +2551,7 @@
       <c r="L4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -2571,7 +2571,7 @@
       <c r="C5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -2580,7 +2580,7 @@
       <c r="F5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2589,7 +2589,7 @@
       <c r="I5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -2598,7 +2598,7 @@
       <c r="L5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -2618,7 +2618,7 @@
       <c r="C6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2627,7 +2627,7 @@
       <c r="F6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2636,7 +2636,7 @@
       <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -2645,7 +2645,7 @@
       <c r="L6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -2668,37 +2668,37 @@
       <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="K7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="N7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>65</v>
       </c>
     </row>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -1191,7 +1191,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -1235,7 +1235,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -1257,7 +1257,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -1268,7 +1268,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -1279,7 +1279,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -1290,7 +1290,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
@@ -1301,7 +1301,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -1312,7 +1312,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>30</v>
@@ -1323,7 +1323,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -1334,7 +1334,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -11,14 +11,16 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Score view" r:id="rId8" sheetId="6"/>
+    <sheet name="Infeasible view" r:id="rId8" sheetId="6"/>
     <sheet name="Rooms view" r:id="rId9" sheetId="7"/>
     <sheet name="Speakers view" r:id="rId10" sheetId="8"/>
     <sheet name="Theme tracks view" r:id="rId11" sheetId="9"/>
     <sheet name="Sectors view" r:id="rId12" sheetId="10"/>
-    <sheet name="Audience type view" r:id="rId13" sheetId="11"/>
-    <sheet name="Audience level view" r:id="rId14" sheetId="12"/>
+    <sheet name="Audience types view" r:id="rId13" sheetId="11"/>
+    <sheet name="Audience levels view" r:id="rId14" sheetId="12"/>
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
+    <sheet name="Languages view" r:id="rId16" sheetId="14"/>
+    <sheet name="Score view" r:id="rId17" sheetId="15"/>
   </sheets>
 </workbook>
 </file>
@@ -31,11 +33,12 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S14: Troubleshooting reliable RestEasy
-  Amy Green
-  PINNED BY USER
-Constraint matches:
-  Speaker unavailable timeslot (S14): -1hard</t>
+        <t xml:space="preserve">S14: Troubleshooting reliable RestEasy
+    Amy Green
+PINNED BY USER
+-1hard total
+    -1hard for 1 Speaker unavailable timeslots
+</t>
       </text>
     </comment>
   </commentList>
@@ -50,11 +53,12 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S14: Troubleshooting reliable RestEasy
-  Amy Green
-  PINNED BY USER
-Constraint matches:
-  Speaker unavailable timeslot (S14): -1hard</t>
+        <t xml:space="preserve">S14: Troubleshooting reliable RestEasy
+    Amy Green
+PINNED BY USER
+-1hard total
+    -1hard for 1 Speaker unavailable timeslots
+</t>
       </text>
     </comment>
   </commentList>
@@ -69,11 +73,32 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S14: Troubleshooting reliable RestEasy
-  Amy Green
-  PINNED BY USER
-Constraint matches:
-  Speaker unavailable timeslot (S14): -1hard</t>
+        <t xml:space="preserve">S14: Troubleshooting reliable RestEasy
+    Amy Green
+PINNED BY USER
+-1hard total
+    -1hard for 1 Speaker unavailable timeslots
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t xml:space="preserve">S14: Troubleshooting reliable RestEasy
+    Amy Green
+PINNED BY USER
+-1hard total
+    -1hard for 1 Speaker unavailable timeslots
+</t>
       </text>
     </comment>
   </commentList>
@@ -88,11 +113,12 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S14: Troubleshooting reliable RestEasy
-  Amy Green
-  PINNED BY USER
-Constraint matches:
-  Speaker unavailable timeslot (S14): -1hard</t>
+        <t xml:space="preserve">S14: Troubleshooting reliable RestEasy
+    Amy Green
+PINNED BY USER
+-1hard total
+    -1hard for 1 Speaker unavailable timeslots
+</t>
       </text>
     </comment>
   </commentList>
@@ -107,11 +133,12 @@
   <commentList>
     <comment ref="C23" authorId="0">
       <text>
-        <t>S14: Troubleshooting reliable RestEasy
-  Amy Green
-  PINNED BY USER
-Constraint matches:
-  Speaker unavailable timeslot (S14): -1hard</t>
+        <t xml:space="preserve">S14: Troubleshooting reliable RestEasy
+    Amy Green
+PINNED BY USER
+-1hard total
+    -1hard for 1 Speaker unavailable timeslots
+</t>
       </text>
     </comment>
   </commentList>
@@ -126,11 +153,12 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S14: Troubleshooting reliable RestEasy
-  Amy Green
-  PINNED BY USER
-Constraint matches:
-  Speaker unavailable timeslot (S14): -1hard</t>
+        <t xml:space="preserve">S14: Troubleshooting reliable RestEasy
+    Amy Green
+PINNED BY USER
+-1hard total
+    -1hard for 1 Speaker unavailable timeslots
+</t>
       </text>
     </comment>
   </commentList>
@@ -138,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="287">
   <si>
     <t>Conference name</t>
   </si>
@@ -985,6 +1013,21 @@
   </si>
   <si>
     <t>S14 (level 2)</t>
+  </si>
+  <si>
+    <t>Constraint match</t>
+  </si>
+  <si>
+    <t>Match score</t>
+  </si>
+  <si>
+    <t>Total score</t>
+  </si>
+  <si>
+    <t>-1hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    S14</t>
   </si>
 </sst>
 </file>
@@ -1096,6 +1139,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
@@ -2100,6 +2151,231 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="27.54296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08203125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
@@ -7211,7 +7487,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>60.0</v>
+        <v>36.0</v>
       </c>
     </row>
   </sheetData>
@@ -7344,7 +7620,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" ht="60.0" customHeight="true">
+    <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
@@ -7385,7 +7661,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="60.0" customHeight="true">
+    <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -7426,7 +7702,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" ht="60.0" customHeight="true">
+    <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -7467,7 +7743,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" ht="60.0" customHeight="true">
+    <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
         <v>88</v>
       </c>
@@ -7508,7 +7784,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" ht="60.0" customHeight="true">
+    <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
         <v>89</v>
       </c>
@@ -7575,18 +7851,31 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="20.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+    <col min="8" max="8" width="20.0" customWidth="true"/>
+    <col min="9" max="9" width="20.0" customWidth="true"/>
+    <col min="10" max="10" width="20.0" customWidth="true"/>
+    <col min="11" max="11" width="20.0" customWidth="true"/>
+    <col min="12" max="12" width="20.0" customWidth="true"/>
+    <col min="13" max="13" width="20.0" customWidth="true"/>
+    <col min="14" max="14" width="20.0" customWidth="true"/>
+    <col min="15" max="15" width="20.0" customWidth="true"/>
+    <col min="16" max="16" width="20.0" customWidth="true"/>
+    <col min="17" max="17" width="20.0" customWidth="true"/>
+    <col min="18" max="18" width="20.0" customWidth="true"/>
+    <col min="19" max="19" width="20.0" customWidth="true"/>
+    <col min="20" max="20" width="20.0" customWidth="true"/>
+    <col min="21" max="21" width="20.0" customWidth="true"/>
+    <col min="22" max="22" width="20.0" customWidth="true"/>
+    <col min="23" max="23" width="20.0" customWidth="true"/>
+    <col min="24" max="24" width="20.0" customWidth="true"/>
+    <col min="25" max="25" width="20.0" customWidth="true"/>
+    <col min="26" max="26" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="296">
   <si>
     <t>Conference name</t>
   </si>
@@ -267,6 +267,12 @@
     <t>Talk undesired room tag</t>
   </si>
   <si>
+    <t>Same day talks</t>
+  </si>
+  <si>
+    <t>Soft penalty per common content/theme of 2 talks that are scheduled on different days</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -339,6 +345,18 @@
     <t>Talk prohibited room tag</t>
   </si>
   <si>
+    <t>Talk mutually-exclusive-talks tag</t>
+  </si>
+  <si>
+    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
+    <t>Talk prerequisite talks</t>
+  </si>
+  <si>
+    <t>Hard penalty per talk that is scheduled before any of its prerequisite talks</t>
+  </si>
+  <si>
     <t>Day</t>
   </si>
   <si>
@@ -565,6 +583,12 @@
   </si>
   <si>
     <t>Language</t>
+  </si>
+  <si>
+    <t>Mutually exclusive talks tags</t>
+  </si>
+  <si>
+    <t>Prerequisite talks codes</t>
   </si>
   <si>
     <t>Pinned by user</t>
@@ -1402,18 +1426,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20"/>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+    <row r="20">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B20" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="21"/>
     <row r="22">
       <c r="A22" s="1" t="s">
         <v>35</v>
@@ -1441,7 +1465,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>40</v>
@@ -1452,7 +1476,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>42</v>
@@ -1499,12 +1523,12 @@
         <v>1.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1.0</v>
@@ -1515,13 +1539,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
@@ -1543,18 +1567,51 @@
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1594,84 +1651,84 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1715,125 +1772,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1878,125 +1935,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2041,125 +2098,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2204,131 +2261,131 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2364,30 +2421,30 @@
     <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2418,223 +2475,223 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2673,331 +2730,331 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3046,1692 +3103,1692 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4773,2638 +4830,2862 @@
     <col min="16" max="16" width="22.20703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="23.125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="22.84375" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="16.65234375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="16.14453125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="6.3984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="6.32421875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="31.2734375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="26.23046875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.65234375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.14453125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="6.3984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="6.32421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>135</v>
+        <v>64</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S5" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S8" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S9" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S10" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S11" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S12" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S13" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S14" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S15" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S16" s="4" t="b">
+        <v>72</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="V16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S17" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S18" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S19" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S20" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S21" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S22" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S23" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U23" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S24" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S25" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U25" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S26" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S27" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U27" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V27" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S28" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V28" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S29" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U29" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V29" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S30" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V30" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S31" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V31" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S32" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U32" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V32" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S33" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U33" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V33" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S34" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V34" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S35" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U35" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V35" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S36" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V36" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S37" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U37" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V37" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -7436,33 +7717,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>4.0</v>
@@ -7479,7 +7760,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>32.0</v>
@@ -7497,7 +7778,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>36.0</v>
@@ -7562,289 +7843,289 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -7902,1068 +8183,1068 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
       <c r="A15" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
       <c r="A16" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="true">
       <c r="A17" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="true">
       <c r="A18" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" ht="15.0" customHeight="true">
       <c r="A19" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="15.0" customHeight="true">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" ht="15.0" customHeight="true">
       <c r="A21" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="15.0" customHeight="true">
       <c r="A22" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="15.0" customHeight="true">
       <c r="A23" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="15.0" customHeight="true">
       <c r="A24" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="15.0" customHeight="true">
       <c r="A25" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="15.0" customHeight="true">
       <c r="A26" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -9008,125 +9289,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -25,6 +25,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t xml:space="preserve">S31: Understand mobile Angular
+    Flo Poe
+PINNED BY USER
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -33,11 +51,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S14: Troubleshooting reliable RestEasy
-    Amy Green
+        <t xml:space="preserve">S31: Understand mobile Angular
+    Flo Poe
 PINNED BY USER
--1hard total
-    -1hard for 1 Speaker unavailable timeslots
 </t>
       </text>
     </comment>
@@ -53,11 +69,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S14: Troubleshooting reliable RestEasy
-    Amy Green
+        <t xml:space="preserve">S31: Understand mobile Angular
+    Flo Poe
 PINNED BY USER
--1hard total
-    -1hard for 1 Speaker unavailable timeslots
 </t>
       </text>
     </comment>
@@ -73,11 +87,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S14: Troubleshooting reliable RestEasy
-    Amy Green
+        <t xml:space="preserve">S31: Understand mobile Angular
+    Flo Poe
 PINNED BY USER
--1hard total
-    -1hard for 1 Speaker unavailable timeslots
 </t>
       </text>
     </comment>
@@ -93,11 +105,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S14: Troubleshooting reliable RestEasy
-    Amy Green
+        <t xml:space="preserve">S31: Understand mobile Angular
+    Flo Poe
 PINNED BY USER
--1hard total
-    -1hard for 1 Speaker unavailable timeslots
 </t>
       </text>
     </comment>
@@ -113,11 +123,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S14: Troubleshooting reliable RestEasy
-    Amy Green
+        <t xml:space="preserve">S31: Understand mobile Angular
+    Flo Poe
 PINNED BY USER
--1hard total
-    -1hard for 1 Speaker unavailable timeslots
 </t>
       </text>
     </comment>
@@ -131,13 +139,11 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C23" authorId="0">
+    <comment ref="C18" authorId="0">
       <text>
-        <t xml:space="preserve">S14: Troubleshooting reliable RestEasy
-    Amy Green
+        <t xml:space="preserve">S31: Understand mobile Angular
+    Flo Poe
 PINNED BY USER
--1hard total
-    -1hard for 1 Speaker unavailable timeslots
 </t>
       </text>
     </comment>
@@ -153,11 +159,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S14: Troubleshooting reliable RestEasy
-    Amy Green
+        <t xml:space="preserve">S31: Understand mobile Angular
+    Flo Poe
 PINNED BY USER
--1hard total
-    -1hard for 1 Speaker unavailable timeslots
 </t>
       </text>
     </comment>
@@ -166,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="289">
   <si>
     <t>Conference name</t>
   </si>
@@ -591,6 +595,12 @@
     <t>Prerequisite talks codes</t>
   </si>
   <si>
+    <t>Number of likes</t>
+  </si>
+  <si>
+    <t>Crowd control risk</t>
+  </si>
+  <si>
     <t>Pinned by user</t>
   </si>
   <si>
@@ -627,301 +637,298 @@
     <t>Advanced containerized WildFly</t>
   </si>
   <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Programmers</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t>Dan Jones, Elsa King</t>
+  </si>
+  <si>
+    <t>Modern Web, IoT</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t>Modern Web</t>
+  </si>
+  <si>
+    <t>Business analysts</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t>Gus Poe, Hugo Rye</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>OptaPlanner</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Camel</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>Building deep learning XStream</t>
+  </si>
+  <si>
+    <t>XStream</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>Securing scalable Docker</t>
+  </si>
+  <si>
+    <t>Docker, Kubernetes</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>Debug enterprise Hibernate</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Understand mobile Errai</t>
+  </si>
+  <si>
+    <t>Cloud, Big Data</t>
+  </si>
+  <si>
+    <t>Errai</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Applying modern Angular</t>
+  </si>
+  <si>
+    <t>Flo Poe, Gus Rye, Hugo Smith</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>Grok distributed Weld</t>
+  </si>
+  <si>
     <t>Middleware</t>
   </si>
   <si>
-    <t>Programmers</t>
-  </si>
-  <si>
-    <t>WildFly</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>Learn virtualized Spring</t>
-  </si>
-  <si>
-    <t>Dan Jones, Elsa King</t>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable RestEasy</t>
+  </si>
+  <si>
+    <t>Middleware, IoT</t>
+  </si>
+  <si>
+    <t>RestEasy</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Using secure Android</t>
+  </si>
+  <si>
+    <t>Big Data, Cloud</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Deliver stable Tensorflow</t>
+  </si>
+  <si>
+    <t>Beth Jones, Chad King</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Implement platform-independent VertX</t>
+  </si>
+  <si>
+    <t>VertX</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>Program flexible JUnit</t>
+  </si>
+  <si>
+    <t>Modern Web, Big Data</t>
+  </si>
+  <si>
+    <t>JUnit</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>Hack modularized Keycloak</t>
+  </si>
+  <si>
+    <t>Beth Fox, Chad Green</t>
   </si>
   <si>
     <t>Culture</t>
   </si>
   <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>Intro to serverless Drools</t>
-  </si>
-  <si>
-    <t>Drools</t>
-  </si>
-  <si>
-    <t>S04</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OptaPlanner</t>
-  </si>
-  <si>
-    <t>Big Data</t>
-  </si>
-  <si>
-    <t>OptaPlanner</t>
-  </si>
-  <si>
-    <t>S05</t>
-  </si>
-  <si>
-    <t>Mastering machine learning jBPM</t>
-  </si>
-  <si>
-    <t>Hugo Rye, Ivy Smith</t>
-  </si>
-  <si>
-    <t>Cloud, Big Data</t>
-  </si>
-  <si>
-    <t>Business analysts</t>
-  </si>
-  <si>
-    <t>jBPM</t>
-  </si>
-  <si>
-    <t>S06</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Camel</t>
-  </si>
-  <si>
-    <t>IoT</t>
-  </si>
-  <si>
-    <t>Camel</t>
-  </si>
-  <si>
-    <t>S07</t>
-  </si>
-  <si>
-    <t>Building deep learning XStream</t>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Keycloak</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>Hands on real-time WildFly</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Advanced containerized Spring</t>
+  </si>
+  <si>
+    <t>Financial services</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>Learn virtualized Drools</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>Intro to serverless OptaPlanner</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>Discover AI-driven jBPM</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>Mastering machine learning Camel</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven XStream</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>Building deep learning Docker</t>
   </si>
   <si>
     <t>Amy Fox, Beth Green</t>
   </si>
   <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>XStream</t>
-  </si>
-  <si>
-    <t>S08</t>
-  </si>
-  <si>
-    <t>Securing scalable Docker</t>
-  </si>
-  <si>
-    <t>Chad Jones, Dan King</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Docker, Kubernetes</t>
-  </si>
-  <si>
-    <t>S09</t>
-  </si>
-  <si>
-    <t>Debug enterprise Hibernate</t>
-  </si>
-  <si>
-    <t>Middleware, Cloud</t>
-  </si>
-  <si>
-    <t>Hibernate</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>Prepare for streaming GWT</t>
-  </si>
-  <si>
-    <t>Culture, Mobile</t>
-  </si>
-  <si>
-    <t>GWT</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>Understand mobile Errai</t>
-  </si>
-  <si>
-    <t>Gus Rye, Hugo Smith</t>
-  </si>
-  <si>
-    <t>IoT, Modern Web</t>
-  </si>
-  <si>
-    <t>Financial services</t>
-  </si>
-  <si>
-    <t>Errai</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>Applying modern Angular</t>
-  </si>
-  <si>
-    <t>Modern Web</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>Grok distributed Weld</t>
-  </si>
-  <si>
-    <t>Weld</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable RestEasy</t>
-  </si>
-  <si>
-    <t>RestEasy</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>Using secure Android</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>Deliver stable Tensorflow</t>
-  </si>
-  <si>
-    <t>Modern Web, Culture</t>
-  </si>
-  <si>
-    <t>Tensorflow</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>Implement platform-independent VertX</t>
-  </si>
-  <si>
-    <t>VertX</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>Program flexible JUnit</t>
-  </si>
-  <si>
-    <t>JUnit</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>Hack modularized Keycloak</t>
-  </si>
-  <si>
-    <t>Keycloak</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>Hands on real-time WildFly</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>Advanced containerized Spring</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence, Culture</t>
-  </si>
-  <si>
-    <t>S22</t>
-  </si>
-  <si>
-    <t>Learn virtualized Drools</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>S23</t>
-  </si>
-  <si>
-    <t>Intro to serverless OptaPlanner</t>
-  </si>
-  <si>
-    <t>Culture, Security</t>
-  </si>
-  <si>
-    <t>S24</t>
-  </si>
-  <si>
-    <t>Discover AI-driven jBPM</t>
-  </si>
-  <si>
-    <t>Ivy Smith, Jay Watt</t>
-  </si>
-  <si>
     <t>Transportation</t>
   </si>
   <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>Mastering machine learning Camel</t>
-  </si>
-  <si>
-    <t>S26</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven XStream</t>
-  </si>
-  <si>
-    <t>Beth Green, Chad Jones</t>
-  </si>
-  <si>
-    <t>S27</t>
-  </si>
-  <si>
-    <t>Building deep learning Docker</t>
+    <t>Docker</t>
   </si>
   <si>
     <t>S28</t>
@@ -930,9 +937,6 @@
     <t>Securing scalable Hibernate</t>
   </si>
   <si>
-    <t>Elsa Li, Flo Poe</t>
-  </si>
-  <si>
     <t>S29</t>
   </si>
   <si>
@@ -951,28 +955,19 @@
     <t>Understand mobile Angular</t>
   </si>
   <si>
-    <t>Ivy Watt, Jay Cole</t>
-  </si>
-  <si>
     <t>S32</t>
   </si>
   <si>
     <t>Applying modern Weld</t>
   </si>
   <si>
-    <t>Amy Green, Beth Jones</t>
-  </si>
-  <si>
     <t>S33</t>
   </si>
   <si>
     <t>Grok distributed RestEasy</t>
   </si>
   <si>
-    <t>Chad King, Dan Li</t>
-  </si>
-  <si>
-    <t>Security, Culture</t>
+    <t>Hugo Smith, Ivy Watt</t>
   </si>
   <si>
     <t>S34</t>
@@ -981,22 +976,16 @@
     <t>Troubleshooting reliable Android</t>
   </si>
   <si>
-    <t>Mobile, Cloud</t>
-  </si>
-  <si>
     <t>S35</t>
   </si>
   <si>
     <t>Using secure Tensorflow</t>
   </si>
   <si>
-    <t>Beth Fox, Chad Green</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
-    <t>-70init/-1hard</t>
+    <t>-70init</t>
   </si>
   <si>
     <t>Count</t>
@@ -1014,14 +1003,14 @@
     <t>Total</t>
   </si>
   <si>
-    <t>S14: Troubleshooting reliable RestEasy
-  Amy Green</t>
+    <t>S31: Understand mobile Angular
+  Flo Poe</t>
   </si>
   <si>
     <t>Speaker</t>
   </si>
   <si>
-    <t>S14 @ R 1</t>
+    <t>S31 @ R 1</t>
   </si>
   <si>
     <t>Theme track tag</t>
@@ -1039,7 +1028,7 @@
     <t>Content tag</t>
   </si>
   <si>
-    <t>S14 (level 2)</t>
+    <t>S31 (level 2)</t>
   </si>
   <si>
     <t>Constraint match</t>
@@ -1049,12 +1038,6 @@
   </si>
   <si>
     <t>Total score</t>
-  </si>
-  <si>
-    <t>-1hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    S14</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1617,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.94140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.44140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
@@ -1692,7 +1675,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -1729,6 +1712,47 @@
       </c>
       <c r="M2" s="1" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1738,6 +1762,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1755,7 +1780,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.99609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
@@ -1813,7 +1838,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -1854,13 +1879,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -2017,13 +2042,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -2139,7 +2164,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -2180,13 +2205,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -2343,13 +2368,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -2382,10 +2407,10 @@
         <v>72</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2438,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.4140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
   </cols>
@@ -2421,33 +2446,14 @@
     <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>288</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4815,9 +4821,9 @@
     <col min="1" max="1" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.3125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.8671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.7109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.30859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="28.3515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.6953125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="20.05859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.34375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.3046875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="21.8046875" customWidth="true" bestFit="true"/>
@@ -4832,11 +4838,13 @@
     <col min="18" max="18" width="22.84375" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="31.2734375" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="26.23046875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.65234375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.14453125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="6.3984375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="6.32421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.5390625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="20.140625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.65234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.14453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="6.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.32421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4907,45 +4915,51 @@
         <v>142</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>143</v>
+      <c r="AA1" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>72</v>
@@ -4977,28 +4991,34 @@
       <c r="T2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="2" t="b">
+      <c r="U2" s="2" t="n">
+        <v>639.0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
@@ -5007,99 +5027,105 @@
         <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H3" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>357.0</v>
+      </c>
+      <c r="V3" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="2" t="b">
+      <c r="W3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>72</v>
@@ -5131,28 +5157,34 @@
       <c r="T4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="2" t="b">
+      <c r="U4" s="2" t="n">
+        <v>945.0</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>71</v>
@@ -5161,22 +5193,22 @@
         <v>110</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>72</v>
@@ -5208,52 +5240,58 @@
       <c r="T5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U5" s="2" t="b">
+      <c r="U5" s="2" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>72</v>
@@ -5285,105 +5323,117 @@
       <c r="T6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U6" s="2" t="b">
+      <c r="U6" s="2" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="H7" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="V7" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U7" s="2" t="b">
+      <c r="W7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>74</v>
@@ -5392,22 +5442,22 @@
         <v>114</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>72</v>
@@ -5439,52 +5489,58 @@
       <c r="T8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U8" s="2" t="b">
+      <c r="U8" s="2" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>182</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>72</v>
@@ -5516,19 +5572,25 @@
       <c r="T9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U9" s="2" t="b">
+      <c r="U9" s="2" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5543,25 +5605,25 @@
         <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>72</v>
@@ -5593,52 +5655,58 @@
       <c r="T10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U10" s="2" t="b">
+      <c r="U10" s="2" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA10" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>72</v>
@@ -5670,52 +5738,58 @@
       <c r="T11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U11" s="2" t="b">
+      <c r="U11" s="2" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>72</v>
@@ -5747,52 +5821,58 @@
       <c r="T12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U12" s="2" t="b">
+      <c r="U12" s="2" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X12" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA12" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>72</v>
@@ -5824,206 +5904,224 @@
       <c r="T13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U13" s="2" t="b">
+      <c r="U13" s="2" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA13" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H14" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U14" s="2" t="n">
+        <v>543.0</v>
+      </c>
+      <c r="V14" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U14" s="2" t="b">
+      <c r="W14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA14" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H15" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U15" s="2" t="n">
+        <v>973.0</v>
+      </c>
+      <c r="V15" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U15" s="2" t="b">
+      <c r="W15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA15" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>72</v>
@@ -6055,52 +6153,58 @@
       <c r="T16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>69</v>
+      <c r="U16" s="2" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W16" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>72</v>
@@ -6132,105 +6236,117 @@
       <c r="T17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U17" s="2" t="b">
+      <c r="U17" s="2" t="n">
+        <v>871.0</v>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X17" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA17" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H18" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>411.0</v>
+      </c>
+      <c r="V18" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U18" s="2" t="b">
+      <c r="W18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA18" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>74</v>
@@ -6239,22 +6355,22 @@
         <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>72</v>
@@ -6286,52 +6402,58 @@
       <c r="T19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U19" s="2" t="b">
+      <c r="U19" s="2" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA19" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>72</v>
@@ -6363,52 +6485,58 @@
       <c r="T20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U20" s="2" t="b">
+      <c r="U20" s="2" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X20" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA20" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>229</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>72</v>
@@ -6440,52 +6568,58 @@
       <c r="T21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U21" s="2" t="b">
+      <c r="U21" s="2" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W21" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X21" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA21" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>72</v>
@@ -6517,129 +6651,141 @@
       <c r="T22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U22" s="2" t="b">
+      <c r="U22" s="2" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="V22" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X22" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA22" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="H23" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U23" s="2" t="n">
+        <v>435.0</v>
+      </c>
+      <c r="V23" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U23" s="2" t="b">
+      <c r="W23" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X23" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA23" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>72</v>
@@ -6671,19 +6817,25 @@
       <c r="T24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U24" s="2" t="b">
+      <c r="U24" s="2" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X24" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA24" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6698,25 +6850,25 @@
         <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="J25" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>72</v>
@@ -6748,19 +6900,25 @@
       <c r="T25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U25" s="2" t="b">
+      <c r="U25" s="2" t="n">
+        <v>357.0</v>
+      </c>
+      <c r="V25" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W25" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA25" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6775,25 +6933,25 @@
         <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>72</v>
@@ -6825,52 +6983,58 @@
       <c r="T26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U26" s="2" t="b">
+      <c r="U26" s="2" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="V26" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X26" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA26" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>72</v>
@@ -6902,43 +7066,49 @@
       <c r="T27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U27" s="2" t="b">
+      <c r="U27" s="2" t="n">
+        <v>915.0</v>
+      </c>
+      <c r="V27" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W27" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA27" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>1.0</v>
@@ -6947,7 +7117,7 @@
         <v>182</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>72</v>
@@ -6979,52 +7149,58 @@
       <c r="T28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U28" s="2" t="b">
+      <c r="U28" s="2" t="n">
+        <v>371.0</v>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA28" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>72</v>
@@ -7056,96 +7232,108 @@
       <c r="T29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U29" s="2" t="b">
+      <c r="U29" s="2" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="V29" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W29" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA29" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>254</v>
+        <v>117</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H30" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U30" s="2" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="V30" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U30" s="2" t="b">
+      <c r="W30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA30" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7160,25 +7348,25 @@
         <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>72</v>
@@ -7210,19 +7398,25 @@
       <c r="T31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U31" s="2" t="b">
+      <c r="U31" s="2" t="n">
+        <v>539.0</v>
+      </c>
+      <c r="V31" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA31" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7237,25 +7431,25 @@
         <v>74</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>72</v>
@@ -7287,19 +7481,25 @@
       <c r="T32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U32" s="2" t="b">
+      <c r="U32" s="2" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="V32" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA32" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7314,25 +7514,25 @@
         <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>261</v>
+        <v>120</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>72</v>
@@ -7364,52 +7564,58 @@
       <c r="T33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>72</v>
+      <c r="U33" s="2" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="V33" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W33" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>264</v>
+        <v>121</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>72</v>
@@ -7441,52 +7647,58 @@
       <c r="T34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U34" s="2" t="b">
+      <c r="U34" s="2" t="n">
+        <v>799.0</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X34" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA34" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>72</v>
@@ -7518,52 +7730,58 @@
       <c r="T35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U35" s="2" t="b">
+      <c r="U35" s="2" t="n">
+        <v>565.0</v>
+      </c>
+      <c r="V35" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W35" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X35" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA35" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>271</v>
+        <v>155</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>72</v>
@@ -7595,52 +7813,58 @@
       <c r="T36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U36" s="2" t="b">
+      <c r="U36" s="2" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="V36" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X36" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA36" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>274</v>
+        <v>125</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>72</v>
@@ -7672,19 +7896,25 @@
       <c r="T37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U37" s="2" t="b">
+      <c r="U37" s="2" t="n">
+        <v>759.0</v>
+      </c>
+      <c r="V37" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W37" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X37" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA37" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7709,7 +7939,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.5859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.27734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.4296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.25" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="17.625" customWidth="true" bestFit="true"/>
@@ -7717,10 +7947,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2"/>
@@ -7729,16 +7959,16 @@
         <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
@@ -7778,7 +8008,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>36.0</v>
@@ -7884,7 +8114,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -7931,7 +8161,7 @@
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -8224,7 +8454,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -8885,8 +9115,8 @@
       <c r="B18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>72</v>
+      <c r="C18" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>72</v>
@@ -9090,8 +9320,8 @@
       <c r="B23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>284</v>
+      <c r="C23" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>72</v>
@@ -9330,7 +9560,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -9371,13 +9601,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -33,8 +33,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S31: Understand mobile Angular
-    Flo Poe
+        <t xml:space="preserve">S19: Hack modularized Keycloak
+    Amy Cole
 PINNED BY USER
 </t>
       </text>
@@ -51,8 +51,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S31: Understand mobile Angular
-    Flo Poe
+        <t xml:space="preserve">S19: Hack modularized Keycloak
+    Amy Cole
 PINNED BY USER
 </t>
       </text>
@@ -69,8 +69,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S31: Understand mobile Angular
-    Flo Poe
+        <t xml:space="preserve">S19: Hack modularized Keycloak
+    Amy Cole
 PINNED BY USER
 </t>
       </text>
@@ -87,8 +87,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S31: Understand mobile Angular
-    Flo Poe
+        <t xml:space="preserve">S19: Hack modularized Keycloak
+    Amy Cole
 PINNED BY USER
 </t>
       </text>
@@ -105,8 +105,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S31: Understand mobile Angular
-    Flo Poe
+        <t xml:space="preserve">S19: Hack modularized Keycloak
+    Amy Cole
 PINNED BY USER
 </t>
       </text>
@@ -123,8 +123,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S31: Understand mobile Angular
-    Flo Poe
+        <t xml:space="preserve">S19: Hack modularized Keycloak
+    Amy Cole
 PINNED BY USER
 </t>
       </text>
@@ -139,10 +139,10 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C18" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S31: Understand mobile Angular
-    Flo Poe
+        <t xml:space="preserve">S19: Hack modularized Keycloak
+    Amy Cole
 PINNED BY USER
 </t>
       </text>
@@ -159,8 +159,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S31: Understand mobile Angular
-    Flo Poe
+        <t xml:space="preserve">S19: Hack modularized Keycloak
+    Amy Cole
 PINNED BY USER
 </t>
       </text>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="298">
   <si>
     <t>Conference name</t>
   </si>
@@ -424,6 +424,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Capacity</t>
+  </si>
+  <si>
     <t>10:15-12:15</t>
   </si>
   <si>
@@ -454,12 +457,12 @@
     <t>R 3</t>
   </si>
   <si>
+    <t>R 4</t>
+  </si>
+  <si>
     <t>Recorded</t>
   </si>
   <si>
-    <t>R 4</t>
-  </si>
-  <si>
     <t>R 5</t>
   </si>
   <si>
@@ -616,372 +619,396 @@
     <t>Hands on real-time OpenShift</t>
   </si>
   <si>
-    <t>Amy Cole, Beth Fox</t>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Managers</t>
+  </si>
+  <si>
+    <t>OpenShift</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>Advanced containerized WildFly</t>
+  </si>
+  <si>
+    <t>Beth Fox, Chad Green</t>
   </si>
   <si>
     <t>Artificial Intelligence</t>
   </si>
   <si>
-    <t>Managers</t>
-  </si>
-  <si>
-    <t>OpenShift, Kubernetes</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>S01</t>
-  </si>
-  <si>
-    <t>Advanced containerized WildFly</t>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Business analysts</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t>Middleware, Security</t>
+  </si>
+  <si>
+    <t>Financial services</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t>Mobile, Culture</t>
+  </si>
+  <si>
+    <t>Programmers</t>
+  </si>
+  <si>
+    <t>OptaPlanner</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Camel</t>
+  </si>
+  <si>
+    <t>Cloud, Culture</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>Building deep learning XStream</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>XStream</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>Securing scalable Docker</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>Debug enterprise Hibernate</t>
   </si>
   <si>
     <t>Cloud</t>
   </si>
   <si>
-    <t>Programmers</t>
-  </si>
-  <si>
-    <t>WildFly</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>Learn virtualized Spring</t>
-  </si>
-  <si>
-    <t>Dan Jones, Elsa King</t>
-  </si>
-  <si>
-    <t>Modern Web, IoT</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>Intro to serverless Drools</t>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Understand mobile Errai</t>
+  </si>
+  <si>
+    <t>Chad Jones, Dan King</t>
+  </si>
+  <si>
+    <t>Errai</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Applying modern Angular</t>
+  </si>
+  <si>
+    <t>Middleware, Cloud</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>Grok distributed Weld</t>
+  </si>
+  <si>
+    <t>Flo Poe, Gus Rye</t>
   </si>
   <si>
     <t>Modern Web</t>
   </si>
   <si>
-    <t>Business analysts</t>
-  </si>
-  <si>
-    <t>Drools</t>
-  </si>
-  <si>
-    <t>S04</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OptaPlanner</t>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable RestEasy</t>
+  </si>
+  <si>
+    <t>Hugo Smith, Ivy Watt</t>
+  </si>
+  <si>
+    <t>Modern Web, Cloud</t>
+  </si>
+  <si>
+    <t>RestEasy</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Using secure Android</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Deliver stable Tensorflow</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Implement platform-independent VertX</t>
+  </si>
+  <si>
+    <t>Beth Jones, Chad King</t>
+  </si>
+  <si>
+    <t>VertX</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>Program flexible JUnit</t>
+  </si>
+  <si>
+    <t>Security, Middleware</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>JUnit</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>Hack modularized Keycloak</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Keycloak</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>Hands on real-time WildFly</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Advanced containerized Spring</t>
+  </si>
+  <si>
+    <t>Chad Green, Dan Jones</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>Learn virtualized Drools</t>
+  </si>
+  <si>
+    <t>Modern Web, Mobile</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>Intro to serverless OptaPlanner</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>Discover AI-driven jBPM</t>
   </si>
   <si>
     <t>Gus Poe, Hugo Rye</t>
   </si>
   <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>OptaPlanner</t>
-  </si>
-  <si>
-    <t>S05</t>
-  </si>
-  <si>
-    <t>Mastering machine learning jBPM</t>
-  </si>
-  <si>
-    <t>IoT</t>
-  </si>
-  <si>
-    <t>jBPM</t>
-  </si>
-  <si>
-    <t>S06</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Camel</t>
-  </si>
-  <si>
-    <t>Camel</t>
-  </si>
-  <si>
-    <t>S07</t>
-  </si>
-  <si>
-    <t>Building deep learning XStream</t>
-  </si>
-  <si>
-    <t>XStream</t>
-  </si>
-  <si>
-    <t>S08</t>
-  </si>
-  <si>
-    <t>Securing scalable Docker</t>
+    <t>Culture, Middleware</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>Mastering machine learning Camel</t>
+  </si>
+  <si>
+    <t>Ivy Smith, Jay Watt</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven XStream</t>
+  </si>
+  <si>
+    <t>Amy Fox, Beth Green</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>Building deep learning Docker</t>
   </si>
   <si>
     <t>Docker, Kubernetes</t>
   </si>
   <si>
-    <t>S09</t>
-  </si>
-  <si>
-    <t>Debug enterprise Hibernate</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Hibernate</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>Prepare for streaming GWT</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>GWT</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>Understand mobile Errai</t>
-  </si>
-  <si>
-    <t>Cloud, Big Data</t>
-  </si>
-  <si>
-    <t>Errai</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>Applying modern Angular</t>
-  </si>
-  <si>
-    <t>Flo Poe, Gus Rye, Hugo Smith</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>Grok distributed Weld</t>
-  </si>
-  <si>
-    <t>Middleware</t>
-  </si>
-  <si>
-    <t>Weld</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable RestEasy</t>
-  </si>
-  <si>
-    <t>Middleware, IoT</t>
-  </si>
-  <si>
-    <t>RestEasy</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>Using secure Android</t>
-  </si>
-  <si>
-    <t>Big Data, Cloud</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>Deliver stable Tensorflow</t>
-  </si>
-  <si>
-    <t>Beth Jones, Chad King</t>
-  </si>
-  <si>
-    <t>Tensorflow</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>Implement platform-independent VertX</t>
-  </si>
-  <si>
-    <t>VertX</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>Program flexible JUnit</t>
-  </si>
-  <si>
-    <t>Modern Web, Big Data</t>
-  </si>
-  <si>
-    <t>JUnit</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>Hack modularized Keycloak</t>
-  </si>
-  <si>
-    <t>Beth Fox, Chad Green</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Keycloak</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>Hands on real-time WildFly</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>Advanced containerized Spring</t>
-  </si>
-  <si>
-    <t>Financial services</t>
-  </si>
-  <si>
-    <t>S22</t>
-  </si>
-  <si>
-    <t>Learn virtualized Drools</t>
-  </si>
-  <si>
-    <t>S23</t>
-  </si>
-  <si>
-    <t>Intro to serverless OptaPlanner</t>
-  </si>
-  <si>
-    <t>Telecommunications</t>
-  </si>
-  <si>
-    <t>S24</t>
-  </si>
-  <si>
-    <t>Discover AI-driven jBPM</t>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>Securing scalable Hibernate</t>
+  </si>
+  <si>
+    <t>Dan King, Elsa Li</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>Debug enterprise GWT</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>Prepare for streaming Errai</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>Understand mobile Angular</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>Applying modern Weld</t>
+  </si>
+  <si>
+    <t>Ivy Watt, Jay Cole</t>
+  </si>
+  <si>
+    <t>Security, Culture</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>Grok distributed RestEasy</t>
+  </si>
+  <si>
+    <t>Amy Green, Beth Jones</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable Android</t>
+  </si>
+  <si>
+    <t>Chad King, Dan Li</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>Using secure Tensorflow</t>
+  </si>
+  <si>
+    <t>Amy Cole, Beth Fox, Chad Green, Dan Jones</t>
   </si>
   <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>Mastering machine learning Camel</t>
-  </si>
-  <si>
-    <t>S26</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven XStream</t>
-  </si>
-  <si>
-    <t>S27</t>
-  </si>
-  <si>
-    <t>Building deep learning Docker</t>
-  </si>
-  <si>
-    <t>Amy Fox, Beth Green</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Docker</t>
-  </si>
-  <si>
-    <t>S28</t>
-  </si>
-  <si>
-    <t>Securing scalable Hibernate</t>
-  </si>
-  <si>
-    <t>S29</t>
-  </si>
-  <si>
-    <t>Debug enterprise GWT</t>
-  </si>
-  <si>
-    <t>S30</t>
-  </si>
-  <si>
-    <t>Prepare for streaming Errai</t>
-  </si>
-  <si>
-    <t>S31</t>
-  </si>
-  <si>
-    <t>Understand mobile Angular</t>
-  </si>
-  <si>
-    <t>S32</t>
-  </si>
-  <si>
-    <t>Applying modern Weld</t>
-  </si>
-  <si>
-    <t>S33</t>
-  </si>
-  <si>
-    <t>Grok distributed RestEasy</t>
-  </si>
-  <si>
-    <t>Hugo Smith, Ivy Watt</t>
-  </si>
-  <si>
-    <t>S34</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable Android</t>
-  </si>
-  <si>
-    <t>S35</t>
-  </si>
-  <si>
-    <t>Using secure Tensorflow</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -1003,14 +1030,14 @@
     <t>Total</t>
   </si>
   <si>
-    <t>S31: Understand mobile Angular
-  Flo Poe</t>
+    <t>S19: Hack modularized Keycloak
+  Amy Cole</t>
   </si>
   <si>
     <t>Speaker</t>
   </si>
   <si>
-    <t>S31 @ R 1</t>
+    <t>S19 @ R 1</t>
   </si>
   <si>
     <t>Theme track tag</t>
@@ -1028,7 +1055,7 @@
     <t>Content tag</t>
   </si>
   <si>
-    <t>S31 (level 2)</t>
+    <t>S19 (level 2)</t>
   </si>
   <si>
     <t>Constraint match</t>
@@ -1617,7 +1644,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.6328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
@@ -1675,54 +1702,54 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -1838,43 +1865,43 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
@@ -1885,7 +1912,7 @@
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -2001,54 +2028,54 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -2164,54 +2191,54 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -2327,43 +2354,43 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
@@ -2374,43 +2401,43 @@
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2446,13 +2473,13 @@
     <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2718,9 +2745,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.87890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.140625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
@@ -2732,6 +2759,7 @@
     <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2786,13 +2814,13 @@
         <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>85</v>
@@ -2810,7 +2838,7 @@
         <v>89</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>85</v>
@@ -2827,19 +2855,22 @@
       <c r="O2" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="P2" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>72</v>
@@ -2872,19 +2903,22 @@
         <v>72</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D4" s="2" t="s">
         <v>72</v>
       </c>
@@ -2919,21 +2953,24 @@
         <v>72</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>630.0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>72</v>
@@ -2966,6 +3003,9 @@
         <v>72</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2973,14 +3013,14 @@
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>72</v>
@@ -3013,21 +3053,24 @@
         <v>72</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>490.0</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>72</v>
@@ -3060,6 +3103,9 @@
         <v>72</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3177,69 +3223,69 @@
         <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>72</v>
@@ -3304,7 +3350,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>72</v>
@@ -3369,7 +3415,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>72</v>
@@ -3387,7 +3433,7 @@
         <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>72</v>
@@ -3434,7 +3480,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>72</v>
@@ -3499,7 +3545,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>72</v>
@@ -3564,7 +3610,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>72</v>
@@ -3590,13 +3636,13 @@
       <c r="I8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="J8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -3608,13 +3654,13 @@
       <c r="O8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="P8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="S8" s="2" t="s">
@@ -3629,7 +3675,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>72</v>
@@ -3647,7 +3693,7 @@
         <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>72</v>
@@ -3694,7 +3740,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>72</v>
@@ -3759,7 +3805,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>72</v>
@@ -3785,13 +3831,13 @@
       <c r="I11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="J11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -3803,13 +3849,13 @@
       <c r="O11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R11" s="3" t="s">
+      <c r="P11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="S11" s="2" t="s">
@@ -3824,7 +3870,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>72</v>
@@ -3842,7 +3888,7 @@
         <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>72</v>
@@ -3889,7 +3935,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>72</v>
@@ -3954,7 +4000,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>72</v>
@@ -4019,7 +4065,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>72</v>
@@ -4034,7 +4080,7 @@
         <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>72</v>
@@ -4084,7 +4130,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>72</v>
@@ -4149,7 +4195,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>72</v>
@@ -4214,7 +4260,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>72</v>
@@ -4279,7 +4325,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>72</v>
@@ -4344,7 +4390,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>72</v>
@@ -4409,7 +4455,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>72</v>
@@ -4474,7 +4520,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>72</v>
@@ -4506,16 +4552,16 @@
       <c r="K22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="2" t="s">
         <v>72</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O22" s="3" t="s">
+      <c r="N22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>72</v>
       </c>
       <c r="P22" s="2" t="s">
@@ -4539,7 +4585,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>72</v>
@@ -4568,7 +4614,7 @@
       <c r="J23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="2" t="s">
         <v>72</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -4604,7 +4650,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>72</v>
@@ -4669,7 +4715,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>72</v>
@@ -4734,7 +4780,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>72</v>
@@ -4821,12 +4867,12 @@
     <col min="1" max="1" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.3125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="28.3515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="21.6953125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="20.05859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="41.48828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="20.296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="17.30859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.34375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.3046875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="21.8046875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="19.1953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="24.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="25.390625" customWidth="true" bestFit="true"/>
@@ -4849,76 +4895,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>64</v>
@@ -4927,21 +4973,21 @@
         <v>65</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>149</v>
@@ -4992,10 +5038,10 @@
         <v>72</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>639.0</v>
+        <v>546.0</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="W2" s="2" t="b">
         <v>0</v>
@@ -5024,22 +5070,22 @@
         <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>152</v>
@@ -5075,10 +5121,10 @@
         <v>72</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>357.0</v>
+        <v>785.0</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="W3" s="2" t="b">
         <v>0</v>
@@ -5098,19 +5144,19 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>72</v>
@@ -5119,7 +5165,7 @@
         <v>150</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>162</v>
@@ -5158,10 +5204,10 @@
         <v>72</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>945.0</v>
+        <v>245.0</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W4" s="2" t="b">
         <v>0</v>
@@ -5196,13 +5242,13 @@
         <v>165</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>167</v>
@@ -5241,7 +5287,7 @@
         <v>72</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>325.0</v>
+        <v>156.0</v>
       </c>
       <c r="V5" s="2" t="n">
         <v>1.0</v>
@@ -5273,19 +5319,19 @@
         <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="H6" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>172</v>
@@ -5324,10 +5370,10 @@
         <v>72</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>724.0</v>
+        <v>318.0</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="W6" s="2" t="b">
         <v>0</v>
@@ -5356,7 +5402,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>175</v>
@@ -5365,10 +5411,10 @@
         <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>176</v>
@@ -5407,10 +5453,10 @@
         <v>72</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>259.0</v>
+        <v>56.0</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="W7" s="2" t="b">
         <v>0</v>
@@ -5439,22 +5485,22 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>152</v>
@@ -5490,10 +5536,10 @@
         <v>72</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>500.0</v>
+        <v>596.0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="W8" s="2" t="b">
         <v>0</v>
@@ -5513,31 +5559,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>152</v>
@@ -5573,10 +5619,10 @@
         <v>72</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>558.0</v>
+        <v>701.0</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="W9" s="2" t="b">
         <v>0</v>
@@ -5596,31 +5642,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>152</v>
@@ -5656,10 +5702,10 @@
         <v>72</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>264.0</v>
+        <v>77.0</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="W10" s="2" t="b">
         <v>0</v>
@@ -5679,31 +5725,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>152</v>
@@ -5739,10 +5785,10 @@
         <v>72</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>144.0</v>
+        <v>492.0</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="W11" s="2" t="b">
         <v>0</v>
@@ -5762,31 +5808,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>152</v>
@@ -5822,7 +5868,7 @@
         <v>72</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>840.0</v>
+        <v>623.0</v>
       </c>
       <c r="V12" s="2" t="n">
         <v>2.0</v>
@@ -5845,31 +5891,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>152</v>
@@ -5905,10 +5951,10 @@
         <v>72</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>201.0</v>
+        <v>789.0</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W13" s="2" t="b">
         <v>0</v>
@@ -5928,31 +5974,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>152</v>
@@ -5988,10 +6034,10 @@
         <v>72</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>543.0</v>
+        <v>206.0</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="W14" s="2" t="b">
         <v>0</v>
@@ -6011,31 +6057,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>152</v>
@@ -6071,10 +6117,10 @@
         <v>72</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>973.0</v>
+        <v>950.0</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W15" s="2" t="b">
         <v>0</v>
@@ -6094,31 +6140,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>152</v>
@@ -6154,10 +6200,10 @@
         <v>72</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>74.0</v>
+        <v>995.0</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="W16" s="2" t="b">
         <v>0</v>
@@ -6177,10 +6223,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>74</v>
@@ -6189,19 +6235,19 @@
         <v>125</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>152</v>
@@ -6237,10 +6283,10 @@
         <v>72</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>871.0</v>
+        <v>530.0</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="W17" s="2" t="b">
         <v>0</v>
@@ -6260,31 +6306,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>152</v>
@@ -6320,7 +6366,7 @@
         <v>72</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>411.0</v>
+        <v>529.0</v>
       </c>
       <c r="V18" s="2" t="n">
         <v>3.0</v>
@@ -6343,31 +6389,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>152</v>
@@ -6403,10 +6449,10 @@
         <v>72</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>118.0</v>
+        <v>715.0</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="W19" s="2" t="b">
         <v>0</v>
@@ -6426,31 +6472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>152</v>
@@ -6486,10 +6532,10 @@
         <v>72</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>320.0</v>
+        <v>516.0</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W20" s="2" t="b">
         <v>0</v>
@@ -6509,22 +6555,22 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>150</v>
@@ -6533,7 +6579,7 @@
         <v>2.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>152</v>
@@ -6569,42 +6615,42 @@
         <v>72</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>142.0</v>
+        <v>43.0</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W21" s="2" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="W21" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>72</v>
@@ -6613,10 +6659,10 @@
         <v>150</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>152</v>
@@ -6652,7 +6698,7 @@
         <v>72</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>287.0</v>
+        <v>445.0</v>
       </c>
       <c r="V22" s="2" t="n">
         <v>0.0</v>
@@ -6675,25 +6721,25 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>1.0</v>
@@ -6735,10 +6781,10 @@
         <v>72</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>435.0</v>
+        <v>289.0</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W23" s="2" t="b">
         <v>0</v>
@@ -6758,10 +6804,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>74</v>
@@ -6770,16 +6816,16 @@
         <v>110</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>167</v>
@@ -6818,10 +6864,10 @@
         <v>72</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>162.0</v>
+        <v>229.0</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="W24" s="2" t="b">
         <v>0</v>
@@ -6841,10 +6887,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>74</v>
@@ -6853,16 +6899,16 @@
         <v>111</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>172</v>
@@ -6901,10 +6947,10 @@
         <v>72</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>357.0</v>
+        <v>915.0</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="W25" s="2" t="b">
         <v>0</v>
@@ -6924,28 +6970,28 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>176</v>
@@ -6984,10 +7030,10 @@
         <v>72</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>133.0</v>
+        <v>466.0</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W26" s="2" t="b">
         <v>0</v>
@@ -7007,31 +7053,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>152</v>
@@ -7067,10 +7113,10 @@
         <v>72</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>915.0</v>
+        <v>388.0</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="W27" s="2" t="b">
         <v>0</v>
@@ -7090,31 +7136,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>152</v>
@@ -7150,10 +7196,10 @@
         <v>72</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>371.0</v>
+        <v>32.0</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W28" s="2" t="b">
         <v>0</v>
@@ -7173,31 +7219,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>152</v>
@@ -7233,7 +7279,7 @@
         <v>72</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>551.0</v>
+        <v>558.0</v>
       </c>
       <c r="V29" s="2" t="n">
         <v>0.0</v>
@@ -7256,31 +7302,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>152</v>
@@ -7316,10 +7362,10 @@
         <v>72</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>307.0</v>
+        <v>119.0</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W30" s="2" t="b">
         <v>0</v>
@@ -7339,31 +7385,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>152</v>
@@ -7399,10 +7445,10 @@
         <v>72</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>539.0</v>
+        <v>838.0</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="W31" s="2" t="b">
         <v>0</v>
@@ -7422,31 +7468,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>152</v>
@@ -7482,7 +7528,7 @@
         <v>72</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>313.0</v>
+        <v>734.0</v>
       </c>
       <c r="V32" s="2" t="n">
         <v>0.0</v>
@@ -7505,22 +7551,22 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>150</v>
@@ -7529,7 +7575,7 @@
         <v>2.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>152</v>
@@ -7565,54 +7611,54 @@
         <v>72</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>154.0</v>
+        <v>888.0</v>
       </c>
       <c r="V33" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="W33" s="4" t="b">
-        <v>1</v>
+      <c r="W33" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>152</v>
@@ -7648,10 +7694,10 @@
         <v>72</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>799.0</v>
+        <v>421.0</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="W34" s="2" t="b">
         <v>0</v>
@@ -7671,31 +7717,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>152</v>
@@ -7731,10 +7777,10 @@
         <v>72</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>565.0</v>
+        <v>109.0</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W35" s="2" t="b">
         <v>0</v>
@@ -7754,31 +7800,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>124</v>
+        <v>274</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>155</v>
+        <v>271</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>152</v>
@@ -7814,10 +7860,10 @@
         <v>72</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>128.0</v>
+        <v>464.0</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W36" s="2" t="b">
         <v>0</v>
@@ -7837,31 +7883,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>72</v>
+        <v>278</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>152</v>
@@ -7897,10 +7943,10 @@
         <v>72</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>759.0</v>
+        <v>751.0</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="W37" s="2" t="b">
         <v>0</v>
@@ -7947,28 +7993,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4">
@@ -8008,7 +8054,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>36.0</v>
@@ -8114,54 +8160,54 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -8196,7 +8242,7 @@
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>72</v>
@@ -8237,7 +8283,7 @@
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>72</v>
@@ -8319,7 +8365,7 @@
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>72</v>
@@ -8454,54 +8500,54 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>72</v>
+      <c r="C3" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -8536,7 +8582,7 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>72</v>
@@ -8577,7 +8623,7 @@
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>72</v>
@@ -8618,7 +8664,7 @@
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>72</v>
@@ -8659,7 +8705,7 @@
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>72</v>
@@ -8700,15 +8746,15 @@
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -8720,13 +8766,13 @@
       <c r="G8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="H8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -8741,7 +8787,7 @@
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>72</v>
@@ -8782,7 +8828,7 @@
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>72</v>
@@ -8823,15 +8869,15 @@
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -8843,13 +8889,13 @@
       <c r="G11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="H11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>72</v>
       </c>
       <c r="K11" s="8" t="s">
@@ -8864,7 +8910,7 @@
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>72</v>
@@ -8905,7 +8951,7 @@
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>72</v>
@@ -8946,7 +8992,7 @@
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>72</v>
@@ -8987,7 +9033,7 @@
     </row>
     <row r="15" ht="15.0" customHeight="true">
       <c r="A15" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>72</v>
@@ -9028,7 +9074,7 @@
     </row>
     <row r="16" ht="15.0" customHeight="true">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>72</v>
@@ -9069,7 +9115,7 @@
     </row>
     <row r="17" ht="15.0" customHeight="true">
       <c r="A17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>72</v>
@@ -9110,13 +9156,13 @@
     </row>
     <row r="18" ht="15.0" customHeight="true">
       <c r="A18" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>279</v>
+      <c r="C18" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>72</v>
@@ -9151,7 +9197,7 @@
     </row>
     <row r="19" ht="15.0" customHeight="true">
       <c r="A19" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>72</v>
@@ -9192,7 +9238,7 @@
     </row>
     <row r="20" ht="15.0" customHeight="true">
       <c r="A20" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>72</v>
@@ -9233,7 +9279,7 @@
     </row>
     <row r="21" ht="15.0" customHeight="true">
       <c r="A21" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>72</v>
@@ -9274,7 +9320,7 @@
     </row>
     <row r="22" ht="15.0" customHeight="true">
       <c r="A22" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>72</v>
@@ -9282,16 +9328,16 @@
       <c r="C22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -9315,12 +9361,12 @@
     </row>
     <row r="23" ht="15.0" customHeight="true">
       <c r="A23" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -9356,7 +9402,7 @@
     </row>
     <row r="24" ht="15.0" customHeight="true">
       <c r="A24" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>72</v>
@@ -9397,7 +9443,7 @@
     </row>
     <row r="25" ht="15.0" customHeight="true">
       <c r="A25" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>72</v>
@@ -9438,7 +9484,7 @@
     </row>
     <row r="26" ht="15.0" customHeight="true">
       <c r="A26" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>72</v>
@@ -9560,54 +9606,54 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="300">
   <si>
     <t>Conference name</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>Soft penalty per common content/theme of 2 talks that are scheduled on different days</t>
+  </si>
+  <si>
+    <t>Popular talks</t>
+  </si>
+  <si>
+    <t>Soft penalty per 2 talks where the less popular one (has lower number of likes) is assigned a larger room than the more popular talk</t>
   </si>
   <si>
     <t>Talk type of timeslot</t>
@@ -1447,18 +1453,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21"/>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+    <row r="21">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B21" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="22"/>
     <row r="23">
       <c r="A23" s="1" t="s">
         <v>37</v>
@@ -1486,7 +1492,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>42</v>
@@ -1497,7 +1503,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>44</v>
@@ -1544,12 +1550,12 @@
         <v>1.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1.0</v>
@@ -1560,13 +1566,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
@@ -1588,12 +1594,12 @@
         <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>1.0</v>
@@ -1604,13 +1610,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
@@ -1622,6 +1628,17 @@
       </c>
       <c r="C37" s="1" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1661,125 +1678,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1824,125 +1841,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1987,125 +2004,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2150,125 +2167,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2313,131 +2330,131 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2473,13 +2490,13 @@
     <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2508,223 +2525,223 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2764,355 +2781,358 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>60.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>240.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>630.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>70.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>490.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:P1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -3155,1692 +3175,1692 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4895,147 +4915,147 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>546.0</v>
@@ -5047,78 +5067,78 @@
         <v>0</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>785.0</v>
@@ -5130,78 +5150,78 @@
         <v>0</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>245.0</v>
@@ -5213,78 +5233,78 @@
         <v>0</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U5" s="2" t="n">
         <v>156.0</v>
@@ -5296,78 +5316,78 @@
         <v>0</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U6" s="2" t="n">
         <v>318.0</v>
@@ -5379,78 +5399,78 @@
         <v>0</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U7" s="2" t="n">
         <v>56.0</v>
@@ -5462,78 +5482,78 @@
         <v>0</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U8" s="2" t="n">
         <v>596.0</v>
@@ -5545,78 +5565,78 @@
         <v>0</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U9" s="2" t="n">
         <v>701.0</v>
@@ -5628,78 +5648,78 @@
         <v>0</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U10" s="2" t="n">
         <v>77.0</v>
@@ -5711,78 +5731,78 @@
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U11" s="2" t="n">
         <v>492.0</v>
@@ -5794,78 +5814,78 @@
         <v>0</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U12" s="2" t="n">
         <v>623.0</v>
@@ -5877,78 +5897,78 @@
         <v>0</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U13" s="2" t="n">
         <v>789.0</v>
@@ -5960,78 +5980,78 @@
         <v>0</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U14" s="2" t="n">
         <v>206.0</v>
@@ -6043,78 +6063,78 @@
         <v>0</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U15" s="2" t="n">
         <v>950.0</v>
@@ -6126,78 +6146,78 @@
         <v>0</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U16" s="2" t="n">
         <v>995.0</v>
@@ -6209,78 +6229,78 @@
         <v>0</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U17" s="2" t="n">
         <v>530.0</v>
@@ -6292,78 +6312,78 @@
         <v>0</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U18" s="2" t="n">
         <v>529.0</v>
@@ -6375,78 +6395,78 @@
         <v>0</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U19" s="2" t="n">
         <v>715.0</v>
@@ -6458,78 +6478,78 @@
         <v>0</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U20" s="2" t="n">
         <v>516.0</v>
@@ -6541,78 +6561,78 @@
         <v>0</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U21" s="2" t="n">
         <v>43.0</v>
@@ -6624,78 +6644,78 @@
         <v>1</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U22" s="2" t="n">
         <v>445.0</v>
@@ -6707,78 +6727,78 @@
         <v>0</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U23" s="2" t="n">
         <v>289.0</v>
@@ -6790,78 +6810,78 @@
         <v>0</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U24" s="2" t="n">
         <v>229.0</v>
@@ -6873,78 +6893,78 @@
         <v>0</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U25" s="2" t="n">
         <v>915.0</v>
@@ -6956,78 +6976,78 @@
         <v>0</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U26" s="2" t="n">
         <v>466.0</v>
@@ -7039,78 +7059,78 @@
         <v>0</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U27" s="2" t="n">
         <v>388.0</v>
@@ -7122,78 +7142,78 @@
         <v>0</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U28" s="2" t="n">
         <v>32.0</v>
@@ -7205,78 +7225,78 @@
         <v>0</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U29" s="2" t="n">
         <v>558.0</v>
@@ -7288,78 +7308,78 @@
         <v>0</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U30" s="2" t="n">
         <v>119.0</v>
@@ -7371,78 +7391,78 @@
         <v>0</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U31" s="2" t="n">
         <v>838.0</v>
@@ -7454,78 +7474,78 @@
         <v>0</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U32" s="2" t="n">
         <v>734.0</v>
@@ -7537,78 +7557,78 @@
         <v>0</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U33" s="2" t="n">
         <v>888.0</v>
@@ -7620,78 +7640,78 @@
         <v>0</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U34" s="2" t="n">
         <v>421.0</v>
@@ -7703,78 +7723,78 @@
         <v>0</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U35" s="2" t="n">
         <v>109.0</v>
@@ -7786,78 +7806,78 @@
         <v>0</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U36" s="2" t="n">
         <v>464.0</v>
@@ -7869,78 +7889,78 @@
         <v>0</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U37" s="2" t="n">
         <v>751.0</v>
@@ -7952,16 +7972,16 @@
         <v>0</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -7993,33 +8013,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>4.0</v>
@@ -8036,7 +8056,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>32.0</v>
@@ -8054,7 +8074,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>36.0</v>
@@ -8119,289 +8139,289 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -8459,1068 +8479,1068 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
       <c r="A16" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="true">
       <c r="A17" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="true">
       <c r="A18" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" ht="15.0" customHeight="true">
       <c r="A19" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" ht="15.0" customHeight="true">
       <c r="A20" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" ht="15.0" customHeight="true">
       <c r="A21" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" ht="15.0" customHeight="true">
       <c r="A22" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" ht="15.0" customHeight="true">
       <c r="A23" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="15.0" customHeight="true">
       <c r="A24" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" ht="15.0" customHeight="true">
       <c r="A25" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" ht="15.0" customHeight="true">
       <c r="A26" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -9565,125 +9585,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -235,40 +235,40 @@
     <t>Soft reward per 2 talks that have the same timeslot and a different language</t>
   </si>
   <si>
-    <t>Speaker preferred timeslot tag</t>
+    <t>Speaker preferred timeslot tags</t>
   </si>
   <si>
     <t>Soft penalty per missing preferred tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Speaker undesired timeslot tag</t>
+    <t>Speaker undesired timeslot tags</t>
   </si>
   <si>
     <t>Soft penalty per undesired tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Talk preferred timeslot tag</t>
-  </si>
-  <si>
-    <t>Talk undesired timeslot tag</t>
-  </si>
-  <si>
-    <t>Speaker preferred room tag</t>
+    <t>Talk preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Talk undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Speaker preferred room tags</t>
   </si>
   <si>
     <t>Soft penalty per missing preferred tag in a talk's room</t>
   </si>
   <si>
-    <t>Speaker undesired room tag</t>
+    <t>Speaker undesired room tags</t>
   </si>
   <si>
     <t>Soft penalty per undesired tag in a talk's room</t>
   </si>
   <si>
-    <t>Talk preferred room tag</t>
-  </si>
-  <si>
-    <t>Talk undesired room tag</t>
+    <t>Talk preferred room tags</t>
+  </si>
+  <si>
+    <t>Talk undesired room tags</t>
   </si>
   <si>
     <t>Same day talks</t>
@@ -319,43 +319,43 @@
     <t>Hard penalty per pair of talks with the same speaker in overlapping timeslots</t>
   </si>
   <si>
-    <t>Speaker required timeslot tag</t>
+    <t>Speaker required timeslot tags</t>
   </si>
   <si>
     <t>Hard penalty per missing required tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Speaker prohibited timeslot tag</t>
+    <t>Speaker prohibited timeslot tags</t>
   </si>
   <si>
     <t>Hard penalty per prohibited tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Talk required timeslot tag</t>
-  </si>
-  <si>
-    <t>Talk prohibited timeslot tag</t>
-  </si>
-  <si>
-    <t>Speaker required room tag</t>
+    <t>Talk required timeslot tags</t>
+  </si>
+  <si>
+    <t>Talk prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Speaker required room tags</t>
   </si>
   <si>
     <t>Hard penalty per missing required tag in a talk's room</t>
   </si>
   <si>
-    <t>Speaker prohibited room tag</t>
+    <t>Speaker prohibited room tags</t>
   </si>
   <si>
     <t>Hard penalty per prohibited tag in a talk's room</t>
   </si>
   <si>
-    <t>Talk required room tag</t>
-  </si>
-  <si>
-    <t>Talk prohibited room tag</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tag</t>
+    <t>Talk required room tags</t>
+  </si>
+  <si>
+    <t>Talk prohibited room tags</t>
+  </si>
+  <si>
+    <t>Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
     <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -36,6 +36,8 @@
         <t xml:space="preserve">S19: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -54,6 +56,8 @@
         <t xml:space="preserve">S19: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -72,6 +76,8 @@
         <t xml:space="preserve">S19: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -90,6 +96,8 @@
         <t xml:space="preserve">S19: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -108,6 +116,8 @@
         <t xml:space="preserve">S19: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -126,6 +136,8 @@
         <t xml:space="preserve">S19: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -144,6 +156,8 @@
         <t xml:space="preserve">S19: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -162,6 +176,8 @@
         <t xml:space="preserve">S19: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -170,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="304">
   <si>
     <t>Conference name</t>
   </si>
@@ -283,6 +299,12 @@
     <t>Soft penalty per 2 talks where the less popular one (has lower number of likes) is assigned a larger room than the more popular talk</t>
   </si>
   <si>
+    <t>Crowd control</t>
+  </si>
+  <si>
+    <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -1018,7 +1040,7 @@
     <t>Score</t>
   </si>
   <si>
-    <t>-70init</t>
+    <t>-70init/-10soft</t>
   </si>
   <si>
     <t>Count</t>
@@ -1071,6 +1093,12 @@
   </si>
   <si>
     <t>Total score</t>
+  </si>
+  <si>
+    <t>-10soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    S19</t>
   </si>
 </sst>
 </file>
@@ -1464,18 +1492,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22"/>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+    <row r="22">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B22" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="23"/>
     <row r="24">
       <c r="A24" s="1" t="s">
         <v>39</v>
@@ -1503,7 +1531,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>44</v>
@@ -1514,7 +1542,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>46</v>
@@ -1561,12 +1589,12 @@
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1.0</v>
@@ -1577,13 +1605,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
@@ -1605,12 +1633,12 @@
         <v>1.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1.0</v>
@@ -1621,13 +1649,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
@@ -1639,6 +1667,17 @@
       </c>
       <c r="C38" s="1" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1678,125 +1717,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1841,125 +1880,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2004,125 +2043,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2167,125 +2206,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2330,131 +2369,131 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2490,14 +2529,33 @@
     <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>299</v>
-      </c>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2525,223 +2583,223 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2781,352 +2839,352 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>60.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>240.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>630.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>70.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>490.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3175,1692 +3233,1692 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4915,147 +4973,147 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>546.0</v>
@@ -5067,78 +5125,78 @@
         <v>0</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>785.0</v>
@@ -5150,78 +5208,78 @@
         <v>0</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>245.0</v>
@@ -5233,78 +5291,78 @@
         <v>0</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U5" s="2" t="n">
         <v>156.0</v>
@@ -5316,78 +5374,78 @@
         <v>0</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U6" s="2" t="n">
         <v>318.0</v>
@@ -5399,78 +5457,78 @@
         <v>0</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U7" s="2" t="n">
         <v>56.0</v>
@@ -5482,78 +5540,78 @@
         <v>0</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U8" s="2" t="n">
         <v>596.0</v>
@@ -5565,78 +5623,78 @@
         <v>0</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U9" s="2" t="n">
         <v>701.0</v>
@@ -5648,78 +5706,78 @@
         <v>0</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U10" s="2" t="n">
         <v>77.0</v>
@@ -5731,78 +5789,78 @@
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U11" s="2" t="n">
         <v>492.0</v>
@@ -5814,78 +5872,78 @@
         <v>0</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U12" s="2" t="n">
         <v>623.0</v>
@@ -5897,78 +5955,78 @@
         <v>0</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U13" s="2" t="n">
         <v>789.0</v>
@@ -5980,78 +6038,78 @@
         <v>0</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U14" s="2" t="n">
         <v>206.0</v>
@@ -6063,78 +6121,78 @@
         <v>0</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U15" s="2" t="n">
         <v>950.0</v>
@@ -6146,78 +6204,78 @@
         <v>0</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U16" s="2" t="n">
         <v>995.0</v>
@@ -6229,78 +6287,78 @@
         <v>0</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U17" s="2" t="n">
         <v>530.0</v>
@@ -6312,78 +6370,78 @@
         <v>0</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U18" s="2" t="n">
         <v>529.0</v>
@@ -6395,78 +6453,78 @@
         <v>0</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U19" s="2" t="n">
         <v>715.0</v>
@@ -6478,78 +6536,78 @@
         <v>0</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U20" s="2" t="n">
         <v>516.0</v>
@@ -6561,78 +6619,78 @@
         <v>0</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U21" s="2" t="n">
         <v>43.0</v>
@@ -6644,78 +6702,78 @@
         <v>1</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U22" s="2" t="n">
         <v>445.0</v>
@@ -6727,78 +6785,78 @@
         <v>0</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U23" s="2" t="n">
         <v>289.0</v>
@@ -6810,78 +6868,78 @@
         <v>0</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U24" s="2" t="n">
         <v>229.0</v>
@@ -6893,78 +6951,78 @@
         <v>0</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U25" s="2" t="n">
         <v>915.0</v>
@@ -6976,78 +7034,78 @@
         <v>0</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U26" s="2" t="n">
         <v>466.0</v>
@@ -7059,78 +7117,78 @@
         <v>0</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U27" s="2" t="n">
         <v>388.0</v>
@@ -7142,78 +7200,78 @@
         <v>0</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U28" s="2" t="n">
         <v>32.0</v>
@@ -7225,78 +7283,78 @@
         <v>0</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U29" s="2" t="n">
         <v>558.0</v>
@@ -7308,78 +7366,78 @@
         <v>0</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U30" s="2" t="n">
         <v>119.0</v>
@@ -7391,78 +7449,78 @@
         <v>0</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U31" s="2" t="n">
         <v>838.0</v>
@@ -7474,78 +7532,78 @@
         <v>0</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U32" s="2" t="n">
         <v>734.0</v>
@@ -7557,78 +7615,78 @@
         <v>0</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U33" s="2" t="n">
         <v>888.0</v>
@@ -7640,78 +7698,78 @@
         <v>0</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U34" s="2" t="n">
         <v>421.0</v>
@@ -7723,78 +7781,78 @@
         <v>0</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U35" s="2" t="n">
         <v>109.0</v>
@@ -7806,78 +7864,78 @@
         <v>0</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U36" s="2" t="n">
         <v>464.0</v>
@@ -7889,78 +7947,78 @@
         <v>0</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U37" s="2" t="n">
         <v>751.0</v>
@@ -7972,16 +8030,16 @@
         <v>0</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -8005,7 +8063,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.27734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.98828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.4296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.25" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="17.625" customWidth="true" bestFit="true"/>
@@ -8013,33 +8071,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>4.0</v>
@@ -8056,7 +8114,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>32.0</v>
@@ -8074,7 +8132,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>36.0</v>
@@ -8139,289 +8197,289 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -8479,1068 +8537,1068 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
       <c r="A15" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
       <c r="A16" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="true">
       <c r="A17" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="true">
       <c r="A18" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" ht="15.0" customHeight="true">
       <c r="A19" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" ht="15.0" customHeight="true">
       <c r="A20" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" ht="15.0" customHeight="true">
       <c r="A21" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" ht="15.0" customHeight="true">
       <c r="A22" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" ht="15.0" customHeight="true">
       <c r="A23" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="15.0" customHeight="true">
       <c r="A24" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="15.0" customHeight="true">
       <c r="A25" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" ht="15.0" customHeight="true">
       <c r="A26" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -9585,125 +9643,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -296,7 +296,7 @@
     <t>Popular talks</t>
   </si>
   <si>
-    <t>Soft penalty per 2 talks where the less popular one (has lower number of likes) is assigned a larger room than the more popular talk</t>
+    <t>Soft penalty per 2 talks where the less popular one (has lower favorite count) is assigned a larger room than the more popular talk</t>
   </si>
   <si>
     <t>Crowd control</t>
@@ -626,7 +626,7 @@
     <t>Prerequisite talks codes</t>
   </si>
   <si>
-    <t>Number of likes</t>
+    <t>Favorite count</t>
   </si>
   <si>
     <t>Crowd control risk</t>
@@ -4962,7 +4962,7 @@
     <col min="18" max="18" width="22.84375" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="31.2734375" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="26.23046875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.5390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.25390625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="20.140625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.65234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.14453125" customWidth="true" bestFit="true"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -305,6 +305,12 @@
     <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
+    <t>Talk mutually-exclusive-talks tags</t>
+  </si>
+  <si>
+    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -375,12 +381,6 @@
   </si>
   <si>
     <t>Talk prohibited room tags</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk prerequisite talks</t>
@@ -1260,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1509,109 +1509,99 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>10000.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
@@ -1622,40 +1612,40 @@
         <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
@@ -1666,17 +1656,28 @@
         <v>1.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1691,7 +1692,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1854,7 +1855,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2017,7 +2018,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2180,7 +2181,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2343,7 +2344,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2489,12 +2490,6 @@
       <c r="M3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>284</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -2512,50 +2507,58 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.98828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2565,7 +2568,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -2810,7 +2813,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3199,7 +3202,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -4933,7 +4936,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8053,7 +8056,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -8158,7 +8161,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -8498,7 +8501,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -9617,7 +9620,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="308">
   <si>
     <t>Conference name</t>
   </si>
@@ -639,6 +639,18 @@
   </si>
   <si>
     <t>Room</t>
+  </si>
+  <si>
+    <t>Published Timeslot</t>
+  </si>
+  <si>
+    <t>Published Start</t>
+  </si>
+  <si>
+    <t>Published End</t>
+  </si>
+  <si>
+    <t>Published Room</t>
   </si>
   <si>
     <t>S00</t>
@@ -1260,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1691,7 +1703,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1758,7 +1770,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>89</v>
@@ -1799,13 +1811,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -1854,7 +1866,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1921,7 +1933,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>89</v>
@@ -1962,13 +1974,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -2017,7 +2029,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2125,13 +2137,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -2180,7 +2192,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2247,7 +2259,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>89</v>
@@ -2288,13 +2300,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -2343,7 +2355,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2451,13 +2463,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -2488,12 +2500,6 @@
       </c>
       <c r="M3" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2512,50 +2518,58 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.98828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2565,7 +2579,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -2810,7 +2824,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3199,7 +3213,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -4933,7 +4947,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4969,6 +4983,10 @@
     <col min="25" max="25" width="6.3984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.32421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.8828125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.20703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5053,13 +5071,25 @@
       <c r="AA1" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>75</v>
@@ -5068,22 +5098,22 @@
         <v>110</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>76</v>
@@ -5136,37 +5166,49 @@
       <c r="AA2" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>76</v>
@@ -5219,13 +5261,25 @@
       <c r="AA3" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>75</v>
@@ -5234,22 +5288,22 @@
         <v>113</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>76</v>
@@ -5302,13 +5356,25 @@
       <c r="AA4" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>75</v>
@@ -5317,22 +5383,22 @@
         <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>76</v>
@@ -5385,13 +5451,25 @@
       <c r="AA5" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>78</v>
@@ -5400,22 +5478,22 @@
         <v>115</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>76</v>
@@ -5468,13 +5546,25 @@
       <c r="AA6" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>78</v>
@@ -5483,22 +5573,22 @@
         <v>116</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>76</v>
@@ -5551,13 +5641,25 @@
       <c r="AA7" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>78</v>
@@ -5566,22 +5668,22 @@
         <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>76</v>
@@ -5634,13 +5736,25 @@
       <c r="AA8" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>78</v>
@@ -5649,22 +5763,22 @@
         <v>118</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>76</v>
@@ -5717,13 +5831,25 @@
       <c r="AA9" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>78</v>
@@ -5732,22 +5858,22 @@
         <v>119</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>76</v>
@@ -5800,13 +5926,25 @@
       <c r="AA10" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>78</v>
@@ -5815,22 +5953,22 @@
         <v>120</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>76</v>
@@ -5883,13 +6021,25 @@
       <c r="AA11" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>78</v>
@@ -5898,22 +6048,22 @@
         <v>121</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>76</v>
@@ -5966,37 +6116,49 @@
       <c r="AA12" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>76</v>
@@ -6049,13 +6211,25 @@
       <c r="AA13" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>78</v>
@@ -6064,22 +6238,22 @@
         <v>124</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>76</v>
@@ -6132,37 +6306,49 @@
       <c r="AA14" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>76</v>
@@ -6215,37 +6401,49 @@
       <c r="AA15" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>76</v>
@@ -6298,13 +6496,25 @@
       <c r="AA16" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>78</v>
@@ -6313,22 +6523,22 @@
         <v>129</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>76</v>
@@ -6381,13 +6591,25 @@
       <c r="AA17" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>78</v>
@@ -6396,22 +6618,22 @@
         <v>130</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>76</v>
@@ -6464,37 +6686,49 @@
       <c r="AA18" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>76</v>
@@ -6547,13 +6781,25 @@
       <c r="AA19" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>78</v>
@@ -6562,22 +6808,22 @@
         <v>133</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>76</v>
@@ -6630,13 +6876,25 @@
       <c r="AA20" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>78</v>
@@ -6645,22 +6903,22 @@
         <v>110</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>76</v>
@@ -6713,13 +6971,25 @@
       <c r="AA21" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="AB21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>78</v>
@@ -6728,22 +6998,22 @@
         <v>111</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>76</v>
@@ -6796,37 +7066,49 @@
       <c r="AA22" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>76</v>
@@ -6879,13 +7161,25 @@
       <c r="AA23" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>78</v>
@@ -6894,22 +7188,22 @@
         <v>114</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>76</v>
@@ -6962,13 +7256,25 @@
       <c r="AA24" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>78</v>
@@ -6977,22 +7283,22 @@
         <v>115</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>76</v>
@@ -7045,37 +7351,49 @@
       <c r="AA25" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>76</v>
@@ -7128,37 +7446,49 @@
       <c r="AA26" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>76</v>
@@ -7211,37 +7541,49 @@
       <c r="AA27" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>76</v>
@@ -7294,13 +7636,25 @@
       <c r="AA28" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>78</v>
@@ -7309,22 +7663,22 @@
         <v>122</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>76</v>
@@ -7377,37 +7731,49 @@
       <c r="AA29" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>76</v>
@@ -7460,13 +7826,25 @@
       <c r="AA30" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>78</v>
@@ -7475,22 +7853,22 @@
         <v>125</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>76</v>
@@ -7543,13 +7921,25 @@
       <c r="AA31" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>78</v>
@@ -7558,22 +7948,22 @@
         <v>126</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>76</v>
@@ -7626,13 +8016,25 @@
       <c r="AA32" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>78</v>
@@ -7641,22 +8043,22 @@
         <v>127</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>76</v>
@@ -7709,37 +8111,49 @@
       <c r="AA33" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>76</v>
@@ -7792,37 +8206,49 @@
       <c r="AA34" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>76</v>
@@ -7875,37 +8301,49 @@
       <c r="AA35" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE35" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>76</v>
@@ -7958,37 +8396,49 @@
       <c r="AA36" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE36" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>76</v>
@@ -8039,6 +8489,18 @@
         <v>76</v>
       </c>
       <c r="AA37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE37" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8053,7 +8515,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -8071,10 +8533,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2"/>
@@ -8083,16 +8545,16 @@
         <v>136</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
@@ -8132,7 +8594,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>36.0</v>
@@ -8158,7 +8620,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -8285,7 +8747,7 @@
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -8498,7 +8960,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -8578,7 +9040,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>89</v>
@@ -8625,7 +9087,7 @@
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -9617,7 +10079,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -9684,7 +10146,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>89</v>
@@ -9725,13 +10187,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -21,6 +21,8 @@
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
     <sheet name="Languages view" r:id="rId16" sheetId="14"/>
     <sheet name="Score view" r:id="rId17" sheetId="15"/>
+    <sheet name="Mon 2018-10-01" r:id="rId18" sheetId="16"/>
+    <sheet name="Tue 2018-10-02" r:id="rId19" sheetId="17"/>
   </sheets>
 </workbook>
 </file>
@@ -33,11 +35,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -53,11 +54,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -73,11 +73,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -93,11 +92,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -113,7 +111,26 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
+    Amy Cole
+PINNED BY USER
+-10soft total
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
@@ -133,7 +150,7 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
@@ -153,11 +170,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -173,11 +189,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -186,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="305">
   <si>
     <t>Conference name</t>
   </si>
@@ -308,7 +323,7 @@
     <t>Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+    <t>Medium penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk type of timeslot</t>
@@ -1099,6 +1114,10 @@
   </si>
   <si>
     <t xml:space="preserve">    S19</t>
+  </si>
+  <si>
+    <t>Hack modularized Keycloak
+Amy Cole</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1139,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1155,6 +1174,46 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="8AE234"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCE94F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E9B96E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="73D216"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EDD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="3465A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C17D11"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1168,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -1192,6 +1251,33 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1223,6 +1309,14 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -2559,6 +2653,145 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.3515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -21,6 +21,8 @@
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
     <sheet name="Languages view" r:id="rId16" sheetId="14"/>
     <sheet name="Score view" r:id="rId17" sheetId="15"/>
+    <sheet name="Mon 2018-10-01" r:id="rId18" sheetId="16"/>
+    <sheet name="Tue 2018-10-02" r:id="rId19" sheetId="17"/>
   </sheets>
 </workbook>
 </file>
@@ -33,11 +35,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -53,11 +54,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -73,11 +73,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -93,11 +92,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -113,7 +111,26 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
+    Amy Cole
+PINNED BY USER
+-10soft total
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
@@ -133,7 +150,7 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
@@ -153,11 +170,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -173,11 +189,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19: Hack modularized Keycloak
+        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
     Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -186,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="305">
   <si>
     <t>Conference name</t>
   </si>
@@ -305,6 +320,12 @@
     <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
+    <t>Talk mutually-exclusive-talks tags</t>
+  </si>
+  <si>
+    <t>Medium penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -375,12 +396,6 @@
   </si>
   <si>
     <t>Talk prohibited room tags</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk prerequisite talks</t>
@@ -1099,6 +1114,10 @@
   </si>
   <si>
     <t xml:space="preserve">    S19</t>
+  </si>
+  <si>
+    <t>Hack modularized Keycloak
+Amy Cole</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1139,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1155,6 +1174,46 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="8AE234"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCE94F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E9B96E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="73D216"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EDD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="3465A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C17D11"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1168,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -1192,6 +1251,33 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1223,6 +1309,14 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -1260,7 +1354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1509,109 +1603,99 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>10000.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
@@ -1622,40 +1706,40 @@
         <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
@@ -1666,17 +1750,28 @@
         <v>1.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1691,7 +1786,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1854,7 +1949,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2017,7 +2112,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2180,7 +2275,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2343,7 +2438,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2489,12 +2584,6 @@
       <c r="M3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>284</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -2512,7 +2601,71 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.98828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -2521,41 +2674,124 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4">
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.3515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2565,7 +2801,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -2810,7 +3046,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3199,7 +3435,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -4933,7 +5169,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8053,7 +8289,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -8158,7 +8394,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -8498,7 +8734,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -9617,7 +9853,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -1440,7 +1440,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
-      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="4.0" state="frozen" topLeftCell="B5" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -27,25 +27,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="C3" authorId="0">
-      <text>
-        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
-    Amy Cole
-PINNED BY USER
--45hard total
-</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -54,10 +35,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
-    Amy Cole
+        <t xml:space="preserve">S09-Middleware: Debug enterprise Hibernate
+    Chad Jones
 PINNED BY USER
--45hard total
 </t>
       </text>
     </comment>
@@ -73,10 +53,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
-    Amy Cole
+        <t xml:space="preserve">S09-Middleware: Debug enterprise Hibernate
+    Chad Jones
 PINNED BY USER
--45hard total
 </t>
       </text>
     </comment>
@@ -92,10 +71,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
-    Amy Cole
+        <t xml:space="preserve">S09-Middleware: Debug enterprise Hibernate
+    Chad Jones
 PINNED BY USER
--45hard total
 </t>
       </text>
     </comment>
@@ -111,10 +89,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
-    Amy Cole
+        <t xml:space="preserve">S09-Middleware: Debug enterprise Hibernate
+    Chad Jones
 PINNED BY USER
--45hard total
 </t>
       </text>
     </comment>
@@ -130,11 +107,9 @@
   <commentList>
     <comment ref="B3" authorId="0">
       <text>
-        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
-    Amy Cole
+        <t xml:space="preserve">S09-Middleware: Debug enterprise Hibernate
+    Chad Jones
 PINNED BY USER
--45hard total
-    -45hard for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -150,11 +125,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
-    Amy Cole
+        <t xml:space="preserve">S09-Middleware: Debug enterprise Hibernate
+    Chad Jones
 PINNED BY USER
--45hard total
-    -45hard for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -168,12 +141,11 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
+    <comment ref="C15" authorId="0">
       <text>
-        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
-    Amy Cole
+        <t xml:space="preserve">S09-Middleware: Debug enterprise Hibernate
+    Chad Jones
 PINNED BY USER
--45hard total
 </t>
       </text>
     </comment>
@@ -189,10 +161,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S19-Culture: Hack modularized Keycloak
-    Amy Cole
+        <t xml:space="preserve">S09-Middleware: Debug enterprise Hibernate
+    Chad Jones
 PINNED BY USER
--45hard total
 </t>
       </text>
     </comment>
@@ -201,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="334">
   <si>
     <t>Conference name</t>
   </si>
@@ -743,343 +714,343 @@
     <t>Advanced containerized WildFly</t>
   </si>
   <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Business analysts</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t>Chad Green, Dan Jones</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Programmers</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t>Elsa King, Flo Li</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t>Gus Poe, Hugo Rye</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>OptaPlanner</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t>Modern Web</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Camel</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>Building deep learning XStream</t>
+  </si>
+  <si>
+    <t>XStream</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>Securing scalable Docker</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>Debug enterprise Hibernate</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT</t>
+  </si>
+  <si>
+    <t>Dan King, Elsa Li</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Understand mobile Errai</t>
+  </si>
+  <si>
+    <t>Errai</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Applying modern Angular</t>
+  </si>
+  <si>
+    <t>Gus Rye, Hugo Smith</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>Grok distributed Weld</t>
+  </si>
+  <si>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable RestEasy</t>
+  </si>
+  <si>
+    <t>Jay Cole, Amy Green, Beth Jones, Chad King</t>
+  </si>
+  <si>
+    <t>RestEasy</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Using secure Android</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Deliver stable Tensorflow</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Implement platform-independent VertX</t>
+  </si>
+  <si>
+    <t>VertX</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>Program flexible JUnit</t>
+  </si>
+  <si>
+    <t>JUnit</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>Hack modularized Keycloak</t>
+  </si>
+  <si>
+    <t>Financial services</t>
+  </si>
+  <si>
+    <t>Keycloak</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>Hands on real-time WildFly</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Advanced containerized Spring</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>Learn virtualized Drools</t>
+  </si>
+  <si>
+    <t>Ivy Smith, Jay Watt</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>Intro to serverless OptaPlanner</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>Discover AI-driven jBPM</t>
+  </si>
+  <si>
+    <t>Beth Green, Chad Jones</t>
+  </si>
+  <si>
+    <t>Modern Web, IoT</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>Mastering machine learning Camel</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven XStream</t>
+  </si>
+  <si>
+    <t>Flo Poe, Gus Rye</t>
+  </si>
+  <si>
+    <t>Big Data, Culture</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>Building deep learning Docker</t>
+  </si>
+  <si>
+    <t>Hugo Smith, Ivy Watt</t>
+  </si>
+  <si>
+    <t>Culture, Middleware</t>
+  </si>
+  <si>
+    <t>Docker, Kubernetes</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>Securing scalable Hibernate</t>
+  </si>
+  <si>
+    <t>Jay Cole, Amy Green</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>Debug enterprise GWT</t>
+  </si>
+  <si>
+    <t>Beth Jones, Chad King</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>Prepare for streaming Errai</t>
+  </si>
+  <si>
+    <t>Dan Li, Amy Cole</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>Understand mobile Angular</t>
+  </si>
+  <si>
     <t>Beth Fox, Chad Green</t>
   </si>
   <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Business analysts</t>
-  </si>
-  <si>
-    <t>WildFly</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>Learn virtualized Spring</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>Intro to serverless Drools</t>
-  </si>
-  <si>
-    <t>Middleware, Security</t>
-  </si>
-  <si>
-    <t>Financial services</t>
-  </si>
-  <si>
-    <t>Drools</t>
-  </si>
-  <si>
-    <t>S04</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OptaPlanner</t>
-  </si>
-  <si>
-    <t>Mobile, Culture</t>
-  </si>
-  <si>
-    <t>Programmers</t>
-  </si>
-  <si>
-    <t>OptaPlanner</t>
-  </si>
-  <si>
-    <t>S05</t>
-  </si>
-  <si>
-    <t>Mastering machine learning jBPM</t>
-  </si>
-  <si>
-    <t>IoT</t>
-  </si>
-  <si>
-    <t>jBPM</t>
-  </si>
-  <si>
-    <t>S06</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Camel</t>
-  </si>
-  <si>
-    <t>Cloud, Culture</t>
-  </si>
-  <si>
-    <t>Camel</t>
-  </si>
-  <si>
-    <t>S07</t>
-  </si>
-  <si>
-    <t>Building deep learning XStream</t>
-  </si>
-  <si>
-    <t>Middleware</t>
-  </si>
-  <si>
-    <t>XStream</t>
-  </si>
-  <si>
-    <t>S08</t>
-  </si>
-  <si>
-    <t>Securing scalable Docker</t>
-  </si>
-  <si>
-    <t>Docker</t>
-  </si>
-  <si>
-    <t>S09</t>
-  </si>
-  <si>
-    <t>Debug enterprise Hibernate</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Hibernate</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>Prepare for streaming GWT</t>
-  </si>
-  <si>
-    <t>GWT</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>Understand mobile Errai</t>
-  </si>
-  <si>
-    <t>Chad Jones, Dan King</t>
-  </si>
-  <si>
-    <t>Errai</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>Applying modern Angular</t>
-  </si>
-  <si>
-    <t>Middleware, Cloud</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>Grok distributed Weld</t>
-  </si>
-  <si>
-    <t>Flo Poe, Gus Rye</t>
-  </si>
-  <si>
-    <t>Modern Web</t>
-  </si>
-  <si>
-    <t>Weld</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable RestEasy</t>
-  </si>
-  <si>
-    <t>Hugo Smith, Ivy Watt</t>
-  </si>
-  <si>
-    <t>Modern Web, Cloud</t>
-  </si>
-  <si>
-    <t>RestEasy</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>Using secure Android</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>Deliver stable Tensorflow</t>
-  </si>
-  <si>
-    <t>Tensorflow</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>Implement platform-independent VertX</t>
-  </si>
-  <si>
-    <t>Beth Jones, Chad King</t>
-  </si>
-  <si>
-    <t>VertX</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>Program flexible JUnit</t>
-  </si>
-  <si>
-    <t>Security, Middleware</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>JUnit</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>Hack modularized Keycloak</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>Keycloak</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>Hands on real-time WildFly</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>Advanced containerized Spring</t>
-  </si>
-  <si>
-    <t>Chad Green, Dan Jones</t>
-  </si>
-  <si>
-    <t>S22</t>
-  </si>
-  <si>
-    <t>Learn virtualized Drools</t>
-  </si>
-  <si>
-    <t>Modern Web, Mobile</t>
-  </si>
-  <si>
-    <t>S23</t>
-  </si>
-  <si>
-    <t>Intro to serverless OptaPlanner</t>
-  </si>
-  <si>
-    <t>S24</t>
-  </si>
-  <si>
-    <t>Discover AI-driven jBPM</t>
-  </si>
-  <si>
-    <t>Gus Poe, Hugo Rye</t>
-  </si>
-  <si>
-    <t>Culture, Middleware</t>
-  </si>
-  <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>Mastering machine learning Camel</t>
-  </si>
-  <si>
-    <t>Ivy Smith, Jay Watt</t>
-  </si>
-  <si>
-    <t>S26</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven XStream</t>
-  </si>
-  <si>
-    <t>Amy Fox, Beth Green</t>
-  </si>
-  <si>
-    <t>S27</t>
-  </si>
-  <si>
-    <t>Building deep learning Docker</t>
-  </si>
-  <si>
-    <t>Docker, Kubernetes</t>
-  </si>
-  <si>
-    <t>S28</t>
-  </si>
-  <si>
-    <t>Securing scalable Hibernate</t>
-  </si>
-  <si>
-    <t>Dan King, Elsa Li</t>
-  </si>
-  <si>
-    <t>S29</t>
-  </si>
-  <si>
-    <t>Debug enterprise GWT</t>
-  </si>
-  <si>
-    <t>S30</t>
-  </si>
-  <si>
-    <t>Prepare for streaming Errai</t>
-  </si>
-  <si>
-    <t>S31</t>
-  </si>
-  <si>
-    <t>Understand mobile Angular</t>
-  </si>
-  <si>
     <t>S32</t>
   </si>
   <si>
     <t>Applying modern Weld</t>
   </si>
   <si>
-    <t>Ivy Watt, Jay Cole</t>
-  </si>
-  <si>
-    <t>Security, Culture</t>
+    <t>Dan Jones, Elsa King</t>
   </si>
   <si>
     <t>S33</t>
@@ -1088,37 +1059,25 @@
     <t>Grok distributed RestEasy</t>
   </si>
   <si>
-    <t>Amy Green, Beth Jones</t>
-  </si>
-  <si>
-    <t>Big Data</t>
-  </si>
-  <si>
     <t>S34</t>
   </si>
   <si>
     <t>Troubleshooting reliable Android</t>
   </si>
   <si>
-    <t>Chad King, Dan Li</t>
-  </si>
-  <si>
     <t>S35</t>
   </si>
   <si>
     <t>Using secure Tensorflow</t>
   </si>
   <si>
-    <t>Amy Cole, Beth Fox, Chad Green, Dan Jones</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
+    <t>Modern Web, Middleware</t>
   </si>
   <si>
     <t>Score</t>
   </si>
   <si>
-    <t>-70init/-45hard</t>
+    <t>-70init</t>
   </si>
   <si>
     <t>Count</t>
@@ -1136,14 +1095,14 @@
     <t>Total</t>
   </si>
   <si>
-    <t>S19: Hack modularized Keycloak
-  Amy Cole</t>
+    <t>S09: Debug enterprise Hibernate
+  Chad Jones</t>
   </si>
   <si>
     <t>Speaker</t>
   </si>
   <si>
-    <t>S19 @ R 1</t>
+    <t>S09 @ R 1</t>
   </si>
   <si>
     <t>Theme track tag</t>
@@ -1155,13 +1114,13 @@
     <t>Audience type</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>Content tag</t>
   </si>
   <si>
-    <t>S19 (level 2)</t>
+    <t>S09 (level 3)</t>
   </si>
   <si>
     <t>Constraint name</t>
@@ -1200,9 +1159,6 @@
     <t>1hard</t>
   </si>
   <si>
-    <t>-45hard</t>
-  </si>
-  <si>
     <t>1medium</t>
   </si>
   <si>
@@ -1218,8 +1174,8 @@
     <t>1soft</t>
   </si>
   <si>
-    <t>Hack modularized Keycloak
-Amy Cole</t>
+    <t>Debug enterprise Hibernate
+Chad Jones</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1896,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1949,7 +1905,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.73046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
@@ -2007,7 +1963,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>106</v>
@@ -2044,47 +2000,6 @@
       </c>
       <c r="M2" s="1" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="3" ht="15.0" customHeight="true">
-      <c r="A3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2009,6 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2170,7 +2084,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>106</v>
@@ -2217,7 +2131,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -2374,13 +2288,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -2496,7 +2410,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>106</v>
@@ -2537,13 +2451,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -2706,7 +2620,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -2755,7 +2669,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -2767,7 +2681,7 @@
     <col min="1" max="1" width="35.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.34375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.65234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.0703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.0859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="1.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="12.296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="12.9296875" customWidth="true" bestFit="true"/>
@@ -2775,39 +2689,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2820,13 +2734,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6">
@@ -2834,13 +2748,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7">
@@ -2848,13 +2762,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8">
@@ -2862,13 +2776,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9">
@@ -2876,13 +2790,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10">
@@ -2890,13 +2804,13 @@
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11">
@@ -2904,13 +2818,13 @@
         <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12">
@@ -2918,13 +2832,13 @@
         <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13">
@@ -2932,13 +2846,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14">
@@ -2946,13 +2860,13 @@
         <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15">
@@ -2960,13 +2874,13 @@
         <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16">
@@ -2974,13 +2888,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17">
@@ -2988,13 +2902,13 @@
         <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18">
@@ -3002,13 +2916,13 @@
         <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19">
@@ -3016,13 +2930,13 @@
         <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20">
@@ -3030,13 +2944,13 @@
         <v>32</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21">
@@ -3044,13 +2958,13 @@
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22">
@@ -3058,13 +2972,13 @@
         <v>62</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23">
@@ -3072,13 +2986,13 @@
         <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24">
@@ -3086,13 +3000,13 @@
         <v>71</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25">
@@ -3100,13 +3014,13 @@
         <v>80</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26">
@@ -3114,13 +3028,13 @@
         <v>74</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27">
@@ -3128,13 +3042,13 @@
         <v>82</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28">
@@ -3142,13 +3056,13 @@
         <v>76</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29">
@@ -3156,13 +3070,13 @@
         <v>83</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
@@ -3170,13 +3084,13 @@
         <v>77</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
@@ -3184,13 +3098,13 @@
         <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
@@ -3198,13 +3112,13 @@
         <v>65</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33">
@@ -3212,13 +3126,13 @@
         <v>69</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
@@ -3226,13 +3140,13 @@
         <v>43</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35">
@@ -3240,13 +3154,13 @@
         <v>67</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
@@ -3254,13 +3168,13 @@
         <v>50</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37">
@@ -3268,13 +3182,13 @@
         <v>46</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
@@ -3282,13 +3196,13 @@
         <v>48</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39">
@@ -3296,13 +3210,13 @@
         <v>58</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40">
@@ -3310,13 +3224,13 @@
         <v>52</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41">
@@ -3324,243 +3238,244 @@
         <v>55</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42"/>
     <row r="43"/>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>253</v>
+      <c r="C45" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>330</v>
@@ -3569,301 +3484,287 @@
         <v>0.0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3910,8 +3811,8 @@
       <c r="A3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>338</v>
+      <c r="B3" s="18" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
@@ -6393,8 +6294,8 @@
     <col min="1" max="1" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.7734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.41796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="40.00390625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="20.3046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="39.91015625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.515625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.4453125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="14.4375" customWidth="true" bestFit="true"/>
@@ -6583,7 +6484,7 @@
         <v>546.0</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W2" s="2" t="b">
         <v>0</v>
@@ -6624,22 +6525,22 @@
         <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>177</v>
@@ -6675,10 +6576,10 @@
         <v>93</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>785.0</v>
+        <v>840.0</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W3" s="2" t="b">
         <v>0</v>
@@ -6710,31 +6611,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>177</v>
@@ -6770,10 +6671,10 @@
         <v>93</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>245.0</v>
+        <v>619.0</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W4" s="2" t="b">
         <v>0</v>
@@ -6805,31 +6706,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>177</v>
@@ -6865,10 +6766,10 @@
         <v>93</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>156.0</v>
+        <v>369.0</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W5" s="2" t="b">
         <v>0</v>
@@ -6900,31 +6801,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>177</v>
@@ -6960,10 +6861,10 @@
         <v>93</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>318.0</v>
+        <v>603.0</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W6" s="2" t="b">
         <v>0</v>
@@ -6995,31 +6896,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>177</v>
@@ -7055,10 +6956,10 @@
         <v>93</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>56.0</v>
+        <v>802.0</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W7" s="2" t="b">
         <v>0</v>
@@ -7090,31 +6991,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>177</v>
@@ -7150,10 +7051,10 @@
         <v>93</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>596.0</v>
+        <v>39.0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W8" s="2" t="b">
         <v>0</v>
@@ -7185,25 +7086,25 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>2.0</v>
@@ -7245,10 +7146,10 @@
         <v>93</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>701.0</v>
+        <v>596.0</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W9" s="2" t="b">
         <v>0</v>
@@ -7289,19 +7190,19 @@
         <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>212</v>
@@ -7340,10 +7241,10 @@
         <v>93</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>77.0</v>
+        <v>468.0</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W10" s="2" t="b">
         <v>0</v>
@@ -7384,7 +7285,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>215</v>
@@ -7393,7 +7294,7 @@
         <v>93</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
@@ -7435,25 +7336,25 @@
         <v>93</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>492.0</v>
+        <v>564.0</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W11" s="2" t="b">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AB11" s="2" t="s">
         <v>93</v>
@@ -7479,10 +7380,10 @@
         <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>93</v>
@@ -7491,10 +7392,10 @@
         <v>175</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>177</v>
@@ -7530,10 +7431,10 @@
         <v>93</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>623.0</v>
+        <v>618.0</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W12" s="2" t="b">
         <v>0</v>
@@ -7565,31 +7466,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>177</v>
@@ -7625,10 +7526,10 @@
         <v>93</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>789.0</v>
+        <v>444.0</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W13" s="2" t="b">
         <v>0</v>
@@ -7660,31 +7561,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>177</v>
@@ -7720,10 +7621,10 @@
         <v>93</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>206.0</v>
+        <v>294.0</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W14" s="2" t="b">
         <v>0</v>
@@ -7755,25 +7656,25 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1.0</v>
@@ -7815,10 +7716,10 @@
         <v>93</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>950.0</v>
+        <v>648.0</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W15" s="2" t="b">
         <v>0</v>
@@ -7862,19 +7763,19 @@
         <v>235</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>177</v>
@@ -7910,10 +7811,10 @@
         <v>93</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>995.0</v>
+        <v>625.0</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W16" s="2" t="b">
         <v>0</v>
@@ -7945,31 +7846,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>177</v>
@@ -8005,10 +7906,10 @@
         <v>93</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>530.0</v>
+        <v>55.0</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W17" s="2" t="b">
         <v>0</v>
@@ -8040,31 +7941,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>177</v>
@@ -8100,10 +8001,10 @@
         <v>93</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>529.0</v>
+        <v>601.0</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W18" s="2" t="b">
         <v>0</v>
@@ -8135,31 +8036,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>177</v>
@@ -8195,10 +8096,10 @@
         <v>93</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>715.0</v>
+        <v>530.0</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W19" s="2" t="b">
         <v>0</v>
@@ -8230,31 +8131,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>177</v>
@@ -8290,7 +8191,7 @@
         <v>93</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>516.0</v>
+        <v>481.0</v>
       </c>
       <c r="V20" s="2" t="n">
         <v>0.0</v>
@@ -8325,31 +8226,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>177</v>
@@ -8385,25 +8286,25 @@
         <v>93</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>43.0</v>
+        <v>944.0</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W21" s="6" t="b">
-        <v>1</v>
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="AB21" s="2" t="s">
         <v>93</v>
@@ -8420,31 +8321,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>177</v>
@@ -8480,7 +8381,7 @@
         <v>93</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>445.0</v>
+        <v>711.0</v>
       </c>
       <c r="V22" s="2" t="n">
         <v>0.0</v>
@@ -8515,31 +8416,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>177</v>
@@ -8575,7 +8476,7 @@
         <v>93</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>289.0</v>
+        <v>455.0</v>
       </c>
       <c r="V23" s="2" t="n">
         <v>0.0</v>
@@ -8610,31 +8511,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>177</v>
@@ -8670,10 +8571,10 @@
         <v>93</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>229.0</v>
+        <v>871.0</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W24" s="2" t="b">
         <v>0</v>
@@ -8705,31 +8606,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>251</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>177</v>
@@ -8765,10 +8666,10 @@
         <v>93</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>915.0</v>
+        <v>411.0</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W25" s="2" t="b">
         <v>0</v>
@@ -8800,31 +8701,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>177</v>
@@ -8860,10 +8761,10 @@
         <v>93</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>466.0</v>
+        <v>118.0</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W26" s="2" t="b">
         <v>0</v>
@@ -8895,31 +8796,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>177</v>
@@ -8955,10 +8856,10 @@
         <v>93</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>388.0</v>
+        <v>991.0</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W27" s="2" t="b">
         <v>0</v>
@@ -8990,28 +8891,28 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>209</v>
@@ -9050,7 +8951,7 @@
         <v>93</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>32.0</v>
+        <v>704.0</v>
       </c>
       <c r="V28" s="2" t="n">
         <v>0.0</v>
@@ -9085,31 +8986,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>177</v>
@@ -9145,7 +9046,7 @@
         <v>93</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>558.0</v>
+        <v>355.0</v>
       </c>
       <c r="V29" s="2" t="n">
         <v>0.0</v>
@@ -9180,25 +9081,25 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>2.0</v>
@@ -9240,10 +9141,10 @@
         <v>93</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>119.0</v>
+        <v>917.0</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W30" s="2" t="b">
         <v>0</v>
@@ -9275,31 +9176,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>177</v>
@@ -9335,10 +9236,10 @@
         <v>93</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>838.0</v>
+        <v>32.0</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W31" s="2" t="b">
         <v>0</v>
@@ -9370,31 +9271,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>177</v>
@@ -9430,7 +9331,7 @@
         <v>93</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>734.0</v>
+        <v>183.0</v>
       </c>
       <c r="V32" s="2" t="n">
         <v>0.0</v>
@@ -9474,22 +9375,22 @@
         <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>144</v>
+        <v>289</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="H33" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>177</v>
@@ -9525,7 +9426,7 @@
         <v>93</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>888.0</v>
+        <v>956.0</v>
       </c>
       <c r="V33" s="2" t="n">
         <v>0.0</v>
@@ -9560,28 +9461,28 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>232</v>
@@ -9620,10 +9521,10 @@
         <v>93</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>421.0</v>
+        <v>902.0</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W34" s="2" t="b">
         <v>0</v>
@@ -9664,22 +9565,22 @@
         <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>295</v>
+        <v>132</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>177</v>
@@ -9715,10 +9616,10 @@
         <v>93</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>109.0</v>
+        <v>915.0</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W35" s="2" t="b">
         <v>0</v>
@@ -9750,31 +9651,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>177</v>
@@ -9810,7 +9711,7 @@
         <v>93</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>464.0</v>
+        <v>166.0</v>
       </c>
       <c r="V36" s="2" t="n">
         <v>0.0</v>
@@ -9845,31 +9746,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>302</v>
+        <v>135</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>181</v>
+        <v>299</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>177</v>
@@ -9905,10 +9806,10 @@
         <v>93</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>751.0</v>
+        <v>915.0</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W37" s="2" t="b">
         <v>0</v>
@@ -9959,7 +9860,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.4453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.7265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.83984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.22265625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.59375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.30078125" customWidth="true" bestFit="true"/>
@@ -9967,10 +9868,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2"/>
@@ -9979,16 +9880,16 @@
         <v>153</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4">
@@ -10028,7 +9929,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>36.0</v>
@@ -10181,7 +10082,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -10474,7 +10375,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>106</v>
@@ -10520,8 +10421,8 @@
       <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>313</v>
+      <c r="C3" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -11012,8 +10913,8 @@
       <c r="B15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>93</v>
+      <c r="C15" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>93</v>
@@ -11580,7 +11481,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>106</v>
@@ -11621,13 +11522,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/36talks-12timeslots-5rooms.xlsx
@@ -35,9 +35,18 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S09-Middleware: Debug enterprise Hibernate
-    Chad Jones
+        <t xml:space="preserve">S24-Culture, Security: Discover AI-driven jBPM
+    Jay Watt
 PINNED BY USER
+-1650soft total
+</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <t xml:space="preserve">S01-Cloud: Advanced containerized WildFly
+    Dan Jones
+-4050soft total
 </t>
       </text>
     </comment>
@@ -53,9 +62,18 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S09-Middleware: Debug enterprise Hibernate
-    Chad Jones
+        <t xml:space="preserve">S24-Culture, Security: Discover AI-driven jBPM
+    Jay Watt
 PINNED BY USER
+-1650soft total
+</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <t xml:space="preserve">S01-Cloud: Advanced containerized WildFly
+    Dan Jones
+-4050soft total
 </t>
       </text>
     </comment>
@@ -69,11 +87,20 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
+    <comment ref="B3" authorId="0">
       <text>
-        <t xml:space="preserve">S09-Middleware: Debug enterprise Hibernate
-    Chad Jones
+        <t xml:space="preserve">S01-Cloud: Advanced containerized WildFly
+    Dan Jones
+-4050soft total
+</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0">
+      <text>
+        <t xml:space="preserve">S24-Culture, Security: Discover AI-driven jBPM
+    Jay Watt
 PINNED BY USER
+-1650soft total
 </t>
       </text>
     </comment>
@@ -87,11 +114,20 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <t xml:space="preserve">S01-Cloud: Advanced containerized WildFly
+    Dan Jones
+-4050soft total
+</t>
+      </text>
+    </comment>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S09-Middleware: Debug enterprise Hibernate
-    Chad Jones
+        <t xml:space="preserve">S24-Culture, Security: Discover AI-driven jBPM
+    Jay Watt
 PINNED BY USER
+-1650soft total
 </t>
       </text>
     </comment>
@@ -107,9 +143,23 @@
   <commentList>
     <comment ref="B3" authorId="0">
       <text>
-        <t xml:space="preserve">S09-Middleware: Debug enterprise Hibernate
-    Chad Jones
+        <t xml:space="preserve">S24-Culture, Security: Discover AI-driven jBPM
+    Jay Watt
 PINNED BY USER
+-1650soft total
+    -1650soft for 1 Popular talkss
+        S01
+</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
+      <text>
+        <t xml:space="preserve">S01-Cloud: Advanced containerized WildFly
+    Dan Jones
+-4050soft total
+    -2400soft for 1 Talk preferred room tagss
+    -1650soft for 1 Popular talkss
+       